--- a/sheets/sensitivity/base.xlsx
+++ b/sheets/sensitivity/base.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="85">
   <si>
     <t>Month</t>
   </si>
@@ -861,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,7 +875,8 @@
         <v>1</v>
       </c>
       <c r="B1" s="2">
-        <v>92056</v>
+        <f>92056/10</f>
+        <v>9205.6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -883,7 +884,8 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>6084</v>
+        <f>6084/10</f>
+        <v>608.4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -911,7 +913,7 @@
       </c>
       <c r="B6" s="2">
         <f>Feuil1!M4</f>
-        <v>1200</v>
+        <v>480</v>
       </c>
       <c r="F6">
         <f>ROUND((E6*Config!$B$39)*((Config!$B$1-B19)/Config!$B$1),0)</f>
@@ -924,7 +926,7 @@
       </c>
       <c r="B8" s="1">
         <f>B1/B2</f>
-        <v>15.130834976988822</v>
+        <v>15.130834976988824</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1018,7 +1020,7 @@
         <v>15</v>
       </c>
       <c r="B25">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1090,7 +1092,7 @@
       </c>
       <c r="B39" s="4">
         <f>Feuil1!M5</f>
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1121,8 +1123,8 @@
   </sheetPr>
   <dimension ref="A1:BP45"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AG33" sqref="AG33"/>
+    <sheetView topLeftCell="AO6" workbookViewId="0">
+      <selection activeCell="BA40" sqref="BA40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1501,259 +1503,259 @@
       </c>
       <c r="E4" s="14">
         <f>Config!B6</f>
-        <v>1200</v>
+        <v>480</v>
       </c>
       <c r="F4" s="14">
         <f t="shared" ref="F4" si="0">E4+F5</f>
-        <v>1260</v>
+        <v>525</v>
       </c>
       <c r="G4" s="14">
         <f t="shared" ref="G4" si="1">F4+G5</f>
-        <v>1323</v>
+        <v>575</v>
       </c>
       <c r="H4" s="14">
         <f t="shared" ref="H4" si="2">G4+H5</f>
-        <v>1389</v>
+        <v>629</v>
       </c>
       <c r="I4" s="14">
         <f t="shared" ref="I4" si="3">H4+I5</f>
-        <v>1458</v>
+        <v>688</v>
       </c>
       <c r="J4" s="14">
         <f t="shared" ref="J4" si="4">I4+J5</f>
-        <v>1531</v>
+        <v>752</v>
       </c>
       <c r="K4" s="14">
         <f t="shared" ref="K4" si="5">J4+K5</f>
-        <v>1607</v>
+        <v>821</v>
       </c>
       <c r="L4" s="14">
         <f t="shared" ref="L4" si="6">K4+L5</f>
-        <v>1687</v>
+        <v>896</v>
       </c>
       <c r="M4" s="14">
         <f t="shared" ref="M4" si="7">L4+M5</f>
-        <v>1771</v>
+        <v>977</v>
       </c>
       <c r="N4" s="14">
         <f t="shared" ref="N4" si="8">M4+N5</f>
-        <v>1859</v>
+        <v>1064</v>
       </c>
       <c r="O4" s="14">
         <f t="shared" ref="O4" si="9">N4+O5</f>
-        <v>1952</v>
+        <v>1158</v>
       </c>
       <c r="P4" s="14">
         <f t="shared" ref="P4" si="10">O4+P5</f>
-        <v>2050</v>
+        <v>1259</v>
       </c>
       <c r="Q4" s="14">
         <f t="shared" ref="Q4" si="11">P4+Q5</f>
-        <v>2152</v>
+        <v>1368</v>
       </c>
       <c r="R4" s="14">
         <f t="shared" ref="R4" si="12">Q4+R5</f>
-        <v>2259</v>
+        <v>1484</v>
       </c>
       <c r="S4" s="14">
         <f t="shared" ref="S4" si="13">R4+S5</f>
-        <v>2372</v>
+        <v>1608</v>
       </c>
       <c r="T4" s="14">
         <f t="shared" ref="T4" si="14">S4+T5</f>
-        <v>2490</v>
+        <v>1741</v>
       </c>
       <c r="U4" s="14">
         <f t="shared" ref="U4" si="15">T4+U5</f>
-        <v>2614</v>
+        <v>1882</v>
       </c>
       <c r="V4" s="14">
         <f t="shared" ref="V4" si="16">U4+V5</f>
-        <v>2745</v>
+        <v>2032</v>
       </c>
       <c r="W4" s="14">
         <f t="shared" ref="W4" si="17">V4+W5</f>
-        <v>2882</v>
+        <v>2190</v>
       </c>
       <c r="X4" s="14">
         <f t="shared" ref="X4" si="18">W4+X5</f>
-        <v>3026</v>
+        <v>2357</v>
       </c>
       <c r="Y4" s="14">
         <f t="shared" ref="Y4" si="19">X4+Y5</f>
-        <v>3177</v>
+        <v>2532</v>
       </c>
       <c r="Z4" s="14">
         <f t="shared" ref="Z4:AE4" si="20">Y4+Z5</f>
-        <v>3336</v>
+        <v>2716</v>
       </c>
       <c r="AA4" s="14">
         <f t="shared" si="20"/>
-        <v>3503</v>
+        <v>2907</v>
       </c>
       <c r="AB4" s="14">
         <f t="shared" si="20"/>
-        <v>3678</v>
+        <v>3106</v>
       </c>
       <c r="AC4" s="14">
         <f t="shared" si="20"/>
-        <v>3862</v>
+        <v>3312</v>
       </c>
       <c r="AD4" s="14">
         <f t="shared" si="20"/>
-        <v>4055</v>
+        <v>3524</v>
       </c>
       <c r="AE4" s="14">
         <f t="shared" si="20"/>
-        <v>4257</v>
+        <v>3741</v>
       </c>
       <c r="AF4" s="14">
         <f>AE4+AF5</f>
-        <v>4469</v>
+        <v>3963</v>
       </c>
       <c r="AG4" s="14">
         <f>AF4+AG5</f>
-        <v>4692</v>
+        <v>4189</v>
       </c>
       <c r="AH4" s="14">
         <f t="shared" ref="AH4:AN4" si="21">AG4+AH5</f>
-        <v>4926</v>
+        <v>4417</v>
       </c>
       <c r="AI4" s="14">
         <f t="shared" si="21"/>
-        <v>5172</v>
+        <v>4647</v>
       </c>
       <c r="AJ4" s="14">
         <f t="shared" si="21"/>
-        <v>5430</v>
+        <v>4877</v>
       </c>
       <c r="AK4" s="14">
         <f t="shared" si="21"/>
-        <v>5701</v>
+        <v>5106</v>
       </c>
       <c r="AL4" s="14">
         <f t="shared" si="21"/>
-        <v>5985</v>
+        <v>5333</v>
       </c>
       <c r="AM4" s="14">
         <f t="shared" si="21"/>
-        <v>6283</v>
+        <v>5557</v>
       </c>
       <c r="AN4" s="14">
         <f t="shared" si="21"/>
-        <v>6596</v>
+        <v>5777</v>
       </c>
       <c r="AO4" s="14">
         <f t="shared" ref="AO4" si="22">AN4+AO5</f>
-        <v>6925</v>
+        <v>5992</v>
       </c>
       <c r="AP4" s="14">
         <f t="shared" ref="AP4" si="23">AO4+AP5</f>
-        <v>7270</v>
+        <v>6201</v>
       </c>
       <c r="AQ4" s="14">
         <f t="shared" ref="AQ4" si="24">AP4+AQ5</f>
-        <v>7632</v>
+        <v>6403</v>
       </c>
       <c r="AR4" s="14">
         <f t="shared" ref="AR4" si="25">AQ4+AR5</f>
-        <v>8012</v>
+        <v>6598</v>
       </c>
       <c r="AS4" s="14">
         <f t="shared" ref="AS4" si="26">AR4+AS5</f>
-        <v>8411</v>
+        <v>6785</v>
       </c>
       <c r="AT4" s="14">
         <f t="shared" ref="AT4" si="27">AS4+AT5</f>
-        <v>8830</v>
+        <v>6963</v>
       </c>
       <c r="AU4" s="14">
         <f t="shared" ref="AU4" si="28">AT4+AU5</f>
-        <v>9269</v>
+        <v>7133</v>
       </c>
       <c r="AV4" s="14">
         <f t="shared" ref="AV4" si="29">AU4+AV5</f>
-        <v>9730</v>
+        <v>7294</v>
       </c>
       <c r="AW4" s="14">
         <f t="shared" ref="AW4" si="30">AV4+AW5</f>
-        <v>10214</v>
+        <v>7445</v>
       </c>
       <c r="AX4" s="14">
         <f t="shared" ref="AX4" si="31">AW4+AX5</f>
-        <v>10722</v>
+        <v>7587</v>
       </c>
       <c r="AY4" s="14">
         <f t="shared" ref="AY4" si="32">AX4+AY5</f>
-        <v>11255</v>
+        <v>7720</v>
       </c>
       <c r="AZ4" s="14">
         <f t="shared" ref="AZ4" si="33">AY4+AZ5</f>
-        <v>11814</v>
+        <v>7845</v>
       </c>
       <c r="BA4" s="14">
         <f t="shared" ref="BA4" si="34">AZ4+BA5</f>
-        <v>12401</v>
+        <v>7961</v>
       </c>
       <c r="BB4" s="14">
         <f t="shared" ref="BB4" si="35">BA4+BB5</f>
-        <v>13017</v>
+        <v>8069</v>
       </c>
       <c r="BC4" s="14">
         <f t="shared" ref="BC4" si="36">BB4+BC5</f>
-        <v>13663</v>
+        <v>8169</v>
       </c>
       <c r="BD4" s="14">
         <f t="shared" ref="BD4" si="37">BC4+BD5</f>
-        <v>14341</v>
+        <v>8261</v>
       </c>
       <c r="BE4" s="14">
         <f t="shared" ref="BE4" si="38">BD4+BE5</f>
-        <v>15053</v>
+        <v>8346</v>
       </c>
       <c r="BF4" s="14">
         <f t="shared" ref="BF4" si="39">BE4+BF5</f>
-        <v>15800</v>
+        <v>8424</v>
       </c>
       <c r="BG4" s="14">
         <f t="shared" ref="BG4" si="40">BF4+BG5</f>
-        <v>16584</v>
+        <v>8496</v>
       </c>
       <c r="BH4" s="14">
         <f t="shared" ref="BH4" si="41">BG4+BH5</f>
-        <v>17406</v>
+        <v>8561</v>
       </c>
       <c r="BI4" s="14">
         <f t="shared" ref="BI4" si="42">BH4+BI5</f>
-        <v>18269</v>
+        <v>8621</v>
       </c>
       <c r="BJ4" s="14">
         <f t="shared" ref="BJ4" si="43">BI4+BJ5</f>
-        <v>19174</v>
+        <v>8676</v>
       </c>
       <c r="BK4" s="14">
         <f t="shared" ref="BK4" si="44">BJ4+BK5</f>
-        <v>20123</v>
+        <v>8726</v>
       </c>
       <c r="BL4" s="14">
         <f t="shared" ref="BL4" si="45">BK4+BL5</f>
-        <v>21119</v>
+        <v>8771</v>
       </c>
       <c r="BM4" s="14">
         <f t="shared" ref="BM4" si="46">BL4+BM5</f>
-        <v>22164</v>
+        <v>8812</v>
       </c>
       <c r="BN4" s="14">
         <f t="shared" ref="BN4" si="47">BM4+BN5</f>
-        <v>23260</v>
+        <v>8850</v>
       </c>
       <c r="BO4" s="14">
         <f t="shared" ref="BO4" si="48">BN4+BO5</f>
-        <v>24409</v>
+        <v>8884</v>
       </c>
       <c r="BP4" s="14">
         <f t="shared" ref="BP4" si="49">BO4+BP5</f>
-        <v>25614</v>
+        <v>8915</v>
       </c>
     </row>
     <row r="5" spans="1:68" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -1770,259 +1772,260 @@
         <v>0</v>
       </c>
       <c r="E5" s="14">
-        <v>640</v>
+        <f>E4</f>
+        <v>480</v>
       </c>
       <c r="F5" s="14">
-        <f>IF(ROUND((E4*Config!$B$39)*((Config!$B$1-E5)/Config!$B$1),0)+E4&gt;=Config!$B$1,Config!$B$1-E4,ROUND((E4*Config!$B$39)*((Config!$B$1-E5)/Config!$B$1),0))</f>
+        <f>IF(ROUND((E4*Config!$B$39)*((Config!$B$1-E4)/Config!$B$1),0)+E4&gt;=Config!$B$1,Config!$B$1-E4,ROUND((E4*Config!$B$39)*((Config!$B$1-E4)/Config!$B$1),0))</f>
+        <v>45</v>
+      </c>
+      <c r="G5" s="14">
+        <f>IF(ROUND((F4*Config!$B$39)*((Config!$B$1-F4)/Config!$B$1),0)+F4&gt;=Config!$B$1,Config!$B$1-F4,ROUND((F4*Config!$B$39)*((Config!$B$1-F4)/Config!$B$1),0))</f>
+        <v>50</v>
+      </c>
+      <c r="H5" s="14">
+        <f>IF(ROUND((G4*Config!$B$39)*((Config!$B$1-G4)/Config!$B$1),0)+G4&gt;=Config!$B$1,Config!$B$1-G4,ROUND((G4*Config!$B$39)*((Config!$B$1-G4)/Config!$B$1),0))</f>
+        <v>54</v>
+      </c>
+      <c r="I5" s="14">
+        <f>IF(ROUND((H4*Config!$B$39)*((Config!$B$1-H4)/Config!$B$1),0)+H4&gt;=Config!$B$1,Config!$B$1-H4,ROUND((H4*Config!$B$39)*((Config!$B$1-H4)/Config!$B$1),0))</f>
+        <v>59</v>
+      </c>
+      <c r="J5" s="14">
+        <f>IF(ROUND((I4*Config!$B$39)*((Config!$B$1-I4)/Config!$B$1),0)+I4&gt;=Config!$B$1,Config!$B$1-I4,ROUND((I4*Config!$B$39)*((Config!$B$1-I4)/Config!$B$1),0))</f>
+        <v>64</v>
+      </c>
+      <c r="K5" s="14">
+        <f>IF(ROUND((J4*Config!$B$39)*((Config!$B$1-J4)/Config!$B$1),0)+J4&gt;=Config!$B$1,Config!$B$1-J4,ROUND((J4*Config!$B$39)*((Config!$B$1-J4)/Config!$B$1),0))</f>
+        <v>69</v>
+      </c>
+      <c r="L5" s="14">
+        <f>IF(ROUND((K4*Config!$B$39)*((Config!$B$1-K4)/Config!$B$1),0)+K4&gt;=Config!$B$1,Config!$B$1-K4,ROUND((K4*Config!$B$39)*((Config!$B$1-K4)/Config!$B$1),0))</f>
+        <v>75</v>
+      </c>
+      <c r="M5" s="14">
+        <f>IF(ROUND((L4*Config!$B$39)*((Config!$B$1-L4)/Config!$B$1),0)+L4&gt;=Config!$B$1,Config!$B$1-L4,ROUND((L4*Config!$B$39)*((Config!$B$1-L4)/Config!$B$1),0))</f>
+        <v>81</v>
+      </c>
+      <c r="N5" s="14">
+        <f>IF(ROUND((M4*Config!$B$39)*((Config!$B$1-M4)/Config!$B$1),0)+M4&gt;=Config!$B$1,Config!$B$1-M4,ROUND((M4*Config!$B$39)*((Config!$B$1-M4)/Config!$B$1),0))</f>
+        <v>87</v>
+      </c>
+      <c r="O5" s="14">
+        <f>IF(ROUND((N4*Config!$B$39)*((Config!$B$1-N4)/Config!$B$1),0)+N4&gt;=Config!$B$1,Config!$B$1-N4,ROUND((N4*Config!$B$39)*((Config!$B$1-N4)/Config!$B$1),0))</f>
+        <v>94</v>
+      </c>
+      <c r="P5" s="14">
+        <f>IF(ROUND((O4*Config!$B$39)*((Config!$B$1-O4)/Config!$B$1),0)+O4&gt;=Config!$B$1,Config!$B$1-O4,ROUND((O4*Config!$B$39)*((Config!$B$1-O4)/Config!$B$1),0))</f>
+        <v>101</v>
+      </c>
+      <c r="Q5" s="14">
+        <f>IF(ROUND((P4*Config!$B$39)*((Config!$B$1-P4)/Config!$B$1),0)+P4&gt;=Config!$B$1,Config!$B$1-P4,ROUND((P4*Config!$B$39)*((Config!$B$1-P4)/Config!$B$1),0))</f>
+        <v>109</v>
+      </c>
+      <c r="R5" s="14">
+        <f>IF(ROUND((Q4*Config!$B$39)*((Config!$B$1-Q4)/Config!$B$1),0)+Q4&gt;=Config!$B$1,Config!$B$1-Q4,ROUND((Q4*Config!$B$39)*((Config!$B$1-Q4)/Config!$B$1),0))</f>
+        <v>116</v>
+      </c>
+      <c r="S5" s="14">
+        <f>IF(ROUND((R4*Config!$B$39)*((Config!$B$1-R4)/Config!$B$1),0)+R4&gt;=Config!$B$1,Config!$B$1-R4,ROUND((R4*Config!$B$39)*((Config!$B$1-R4)/Config!$B$1),0))</f>
+        <v>124</v>
+      </c>
+      <c r="T5" s="14">
+        <f>IF(ROUND((S4*Config!$B$39)*((Config!$B$1-S4)/Config!$B$1),0)+S4&gt;=Config!$B$1,Config!$B$1-S4,ROUND((S4*Config!$B$39)*((Config!$B$1-S4)/Config!$B$1),0))</f>
+        <v>133</v>
+      </c>
+      <c r="U5" s="14">
+        <f>IF(ROUND((T4*Config!$B$39)*((Config!$B$1-T4)/Config!$B$1),0)+T4&gt;=Config!$B$1,Config!$B$1-T4,ROUND((T4*Config!$B$39)*((Config!$B$1-T4)/Config!$B$1),0))</f>
+        <v>141</v>
+      </c>
+      <c r="V5" s="14">
+        <f>IF(ROUND((U4*Config!$B$39)*((Config!$B$1-U4)/Config!$B$1),0)+U4&gt;=Config!$B$1,Config!$B$1-U4,ROUND((U4*Config!$B$39)*((Config!$B$1-U4)/Config!$B$1),0))</f>
+        <v>150</v>
+      </c>
+      <c r="W5" s="14">
+        <f>IF(ROUND((V4*Config!$B$39)*((Config!$B$1-V4)/Config!$B$1),0)+V4&gt;=Config!$B$1,Config!$B$1-V4,ROUND((V4*Config!$B$39)*((Config!$B$1-V4)/Config!$B$1),0))</f>
+        <v>158</v>
+      </c>
+      <c r="X5" s="14">
+        <f>IF(ROUND((W4*Config!$B$39)*((Config!$B$1-W4)/Config!$B$1),0)+W4&gt;=Config!$B$1,Config!$B$1-W4,ROUND((W4*Config!$B$39)*((Config!$B$1-W4)/Config!$B$1),0))</f>
+        <v>167</v>
+      </c>
+      <c r="Y5" s="14">
+        <f>IF(ROUND((X4*Config!$B$39)*((Config!$B$1-X4)/Config!$B$1),0)+X4&gt;=Config!$B$1,Config!$B$1-X4,ROUND((X4*Config!$B$39)*((Config!$B$1-X4)/Config!$B$1),0))</f>
+        <v>175</v>
+      </c>
+      <c r="Z5" s="14">
+        <f>IF(ROUND((Y4*Config!$B$39)*((Config!$B$1-Y4)/Config!$B$1),0)+Y4&gt;=Config!$B$1,Config!$B$1-Y4,ROUND((Y4*Config!$B$39)*((Config!$B$1-Y4)/Config!$B$1),0))</f>
+        <v>184</v>
+      </c>
+      <c r="AA5" s="14">
+        <f>IF(ROUND((Z4*Config!$B$39)*((Config!$B$1-Z4)/Config!$B$1),0)+Z4&gt;=Config!$B$1,Config!$B$1-Z4,ROUND((Z4*Config!$B$39)*((Config!$B$1-Z4)/Config!$B$1),0))</f>
+        <v>191</v>
+      </c>
+      <c r="AB5" s="14">
+        <f>IF(ROUND((AA4*Config!$B$39)*((Config!$B$1-AA4)/Config!$B$1),0)+AA4&gt;=Config!$B$1,Config!$B$1-AA4,ROUND((AA4*Config!$B$39)*((Config!$B$1-AA4)/Config!$B$1),0))</f>
+        <v>199</v>
+      </c>
+      <c r="AC5" s="14">
+        <f>IF(ROUND((AB4*Config!$B$39)*((Config!$B$1-AB4)/Config!$B$1),0)+AB4&gt;=Config!$B$1,Config!$B$1-AB4,ROUND((AB4*Config!$B$39)*((Config!$B$1-AB4)/Config!$B$1),0))</f>
+        <v>206</v>
+      </c>
+      <c r="AD5" s="14">
+        <f>IF(ROUND((AC4*Config!$B$39)*((Config!$B$1-AC4)/Config!$B$1),0)+AC4&gt;=Config!$B$1,Config!$B$1-AC4,ROUND((AC4*Config!$B$39)*((Config!$B$1-AC4)/Config!$B$1),0))</f>
+        <v>212</v>
+      </c>
+      <c r="AE5" s="14">
+        <f>IF(ROUND((AD4*Config!$B$39)*((Config!$B$1-AD4)/Config!$B$1),0)+AD4&gt;=Config!$B$1,Config!$B$1-AD4,ROUND((AD4*Config!$B$39)*((Config!$B$1-AD4)/Config!$B$1),0))</f>
+        <v>217</v>
+      </c>
+      <c r="AF5" s="14">
+        <f>IF(ROUND((AE4*Config!$B$39)*((Config!$B$1-AE4)/Config!$B$1),0)+AE4&gt;=Config!$B$1,Config!$B$1-AE4,ROUND((AE4*Config!$B$39)*((Config!$B$1-AE4)/Config!$B$1),0))</f>
+        <v>222</v>
+      </c>
+      <c r="AG5" s="14">
+        <f>IF(ROUND((AF4*Config!$B$39)*((Config!$B$1-AF4)/Config!$B$1),0)+AF4&gt;=Config!$B$1,Config!$B$1-AF4,ROUND((AF4*Config!$B$39)*((Config!$B$1-AF4)/Config!$B$1),0))</f>
+        <v>226</v>
+      </c>
+      <c r="AH5" s="14">
+        <f>IF(ROUND((AG4*Config!$B$39)*((Config!$B$1-AG4)/Config!$B$1),0)+AG4&gt;=Config!$B$1,Config!$B$1-AG4,ROUND((AG4*Config!$B$39)*((Config!$B$1-AG4)/Config!$B$1),0))</f>
+        <v>228</v>
+      </c>
+      <c r="AI5" s="14">
+        <f>IF(ROUND((AH4*Config!$B$39)*((Config!$B$1-AH4)/Config!$B$1),0)+AH4&gt;=Config!$B$1,Config!$B$1-AH4,ROUND((AH4*Config!$B$39)*((Config!$B$1-AH4)/Config!$B$1),0))</f>
+        <v>230</v>
+      </c>
+      <c r="AJ5" s="14">
+        <f>IF(ROUND((AI4*Config!$B$39)*((Config!$B$1-AI4)/Config!$B$1),0)+AI4&gt;=Config!$B$1,Config!$B$1-AI4,ROUND((AI4*Config!$B$39)*((Config!$B$1-AI4)/Config!$B$1),0))</f>
+        <v>230</v>
+      </c>
+      <c r="AK5" s="14">
+        <f>IF(ROUND((AJ4*Config!$B$39)*((Config!$B$1-AJ4)/Config!$B$1),0)+AJ4&gt;=Config!$B$1,Config!$B$1-AJ4,ROUND((AJ4*Config!$B$39)*((Config!$B$1-AJ4)/Config!$B$1),0))</f>
+        <v>229</v>
+      </c>
+      <c r="AL5" s="14">
+        <f>IF(ROUND((AK4*Config!$B$39)*((Config!$B$1-AK4)/Config!$B$1),0)+AK4&gt;=Config!$B$1,Config!$B$1-AK4,ROUND((AK4*Config!$B$39)*((Config!$B$1-AK4)/Config!$B$1),0))</f>
+        <v>227</v>
+      </c>
+      <c r="AM5" s="14">
+        <f>IF(ROUND((AL4*Config!$B$39)*((Config!$B$1-AL4)/Config!$B$1),0)+AL4&gt;=Config!$B$1,Config!$B$1-AL4,ROUND((AL4*Config!$B$39)*((Config!$B$1-AL4)/Config!$B$1),0))</f>
+        <v>224</v>
+      </c>
+      <c r="AN5" s="14">
+        <f>IF(ROUND((AM4*Config!$B$39)*((Config!$B$1-AM4)/Config!$B$1),0)+AM4&gt;=Config!$B$1,Config!$B$1-AM4,ROUND((AM4*Config!$B$39)*((Config!$B$1-AM4)/Config!$B$1),0))</f>
+        <v>220</v>
+      </c>
+      <c r="AO5" s="14">
+        <f>IF(ROUND((AN4*Config!$B$39)*((Config!$B$1-AN4)/Config!$B$1),0)+AN4&gt;=Config!$B$1,Config!$B$1-AN4,ROUND((AN4*Config!$B$39)*((Config!$B$1-AN4)/Config!$B$1),0))</f>
+        <v>215</v>
+      </c>
+      <c r="AP5" s="14">
+        <f>IF(ROUND((AO4*Config!$B$39)*((Config!$B$1-AO4)/Config!$B$1),0)+AO4&gt;=Config!$B$1,Config!$B$1-AO4,ROUND((AO4*Config!$B$39)*((Config!$B$1-AO4)/Config!$B$1),0))</f>
+        <v>209</v>
+      </c>
+      <c r="AQ5" s="14">
+        <f>IF(ROUND((AP4*Config!$B$39)*((Config!$B$1-AP4)/Config!$B$1),0)+AP4&gt;=Config!$B$1,Config!$B$1-AP4,ROUND((AP4*Config!$B$39)*((Config!$B$1-AP4)/Config!$B$1),0))</f>
+        <v>202</v>
+      </c>
+      <c r="AR5" s="14">
+        <f>IF(ROUND((AQ4*Config!$B$39)*((Config!$B$1-AQ4)/Config!$B$1),0)+AQ4&gt;=Config!$B$1,Config!$B$1-AQ4,ROUND((AQ4*Config!$B$39)*((Config!$B$1-AQ4)/Config!$B$1),0))</f>
+        <v>195</v>
+      </c>
+      <c r="AS5" s="14">
+        <f>IF(ROUND((AR4*Config!$B$39)*((Config!$B$1-AR4)/Config!$B$1),0)+AR4&gt;=Config!$B$1,Config!$B$1-AR4,ROUND((AR4*Config!$B$39)*((Config!$B$1-AR4)/Config!$B$1),0))</f>
+        <v>187</v>
+      </c>
+      <c r="AT5" s="14">
+        <f>IF(ROUND((AS4*Config!$B$39)*((Config!$B$1-AS4)/Config!$B$1),0)+AS4&gt;=Config!$B$1,Config!$B$1-AS4,ROUND((AS4*Config!$B$39)*((Config!$B$1-AS4)/Config!$B$1),0))</f>
+        <v>178</v>
+      </c>
+      <c r="AU5" s="14">
+        <f>IF(ROUND((AT4*Config!$B$39)*((Config!$B$1-AT4)/Config!$B$1),0)+AT4&gt;=Config!$B$1,Config!$B$1-AT4,ROUND((AT4*Config!$B$39)*((Config!$B$1-AT4)/Config!$B$1),0))</f>
+        <v>170</v>
+      </c>
+      <c r="AV5" s="14">
+        <f>IF(ROUND((AU4*Config!$B$39)*((Config!$B$1-AU4)/Config!$B$1),0)+AU4&gt;=Config!$B$1,Config!$B$1-AU4,ROUND((AU4*Config!$B$39)*((Config!$B$1-AU4)/Config!$B$1),0))</f>
+        <v>161</v>
+      </c>
+      <c r="AW5" s="14">
+        <f>IF(ROUND((AV4*Config!$B$39)*((Config!$B$1-AV4)/Config!$B$1),0)+AV4&gt;=Config!$B$1,Config!$B$1-AV4,ROUND((AV4*Config!$B$39)*((Config!$B$1-AV4)/Config!$B$1),0))</f>
+        <v>151</v>
+      </c>
+      <c r="AX5" s="14">
+        <f>IF(ROUND((AW4*Config!$B$39)*((Config!$B$1-AW4)/Config!$B$1),0)+AW4&gt;=Config!$B$1,Config!$B$1-AW4,ROUND((AW4*Config!$B$39)*((Config!$B$1-AW4)/Config!$B$1),0))</f>
+        <v>142</v>
+      </c>
+      <c r="AY5" s="14">
+        <f>IF(ROUND((AX4*Config!$B$39)*((Config!$B$1-AX4)/Config!$B$1),0)+AX4&gt;=Config!$B$1,Config!$B$1-AX4,ROUND((AX4*Config!$B$39)*((Config!$B$1-AX4)/Config!$B$1),0))</f>
+        <v>133</v>
+      </c>
+      <c r="AZ5" s="14">
+        <f>IF(ROUND((AY4*Config!$B$39)*((Config!$B$1-AY4)/Config!$B$1),0)+AY4&gt;=Config!$B$1,Config!$B$1-AY4,ROUND((AY4*Config!$B$39)*((Config!$B$1-AY4)/Config!$B$1),0))</f>
+        <v>125</v>
+      </c>
+      <c r="BA5" s="14">
+        <f>IF(ROUND((AZ4*Config!$B$39)*((Config!$B$1-AZ4)/Config!$B$1),0)+AZ4&gt;=Config!$B$1,Config!$B$1-AZ4,ROUND((AZ4*Config!$B$39)*((Config!$B$1-AZ4)/Config!$B$1),0))</f>
+        <v>116</v>
+      </c>
+      <c r="BB5" s="14">
+        <f>IF(ROUND((BA4*Config!$B$39)*((Config!$B$1-BA4)/Config!$B$1),0)+BA4&gt;=Config!$B$1,Config!$B$1-BA4,ROUND((BA4*Config!$B$39)*((Config!$B$1-BA4)/Config!$B$1),0))</f>
+        <v>108</v>
+      </c>
+      <c r="BC5" s="14">
+        <f>IF(ROUND((BB4*Config!$B$39)*((Config!$B$1-BB4)/Config!$B$1),0)+BB4&gt;=Config!$B$1,Config!$B$1-BB4,ROUND((BB4*Config!$B$39)*((Config!$B$1-BB4)/Config!$B$1),0))</f>
+        <v>100</v>
+      </c>
+      <c r="BD5" s="14">
+        <f>IF(ROUND((BC4*Config!$B$39)*((Config!$B$1-BC4)/Config!$B$1),0)+BC4&gt;=Config!$B$1,Config!$B$1-BC4,ROUND((BC4*Config!$B$39)*((Config!$B$1-BC4)/Config!$B$1),0))</f>
+        <v>92</v>
+      </c>
+      <c r="BE5" s="14">
+        <f>IF(ROUND((BD4*Config!$B$39)*((Config!$B$1-BD4)/Config!$B$1),0)+BD4&gt;=Config!$B$1,Config!$B$1-BD4,ROUND((BD4*Config!$B$39)*((Config!$B$1-BD4)/Config!$B$1),0))</f>
+        <v>85</v>
+      </c>
+      <c r="BF5" s="14">
+        <f>IF(ROUND((BE4*Config!$B$39)*((Config!$B$1-BE4)/Config!$B$1),0)+BE4&gt;=Config!$B$1,Config!$B$1-BE4,ROUND((BE4*Config!$B$39)*((Config!$B$1-BE4)/Config!$B$1),0))</f>
+        <v>78</v>
+      </c>
+      <c r="BG5" s="14">
+        <f>IF(ROUND((BF4*Config!$B$39)*((Config!$B$1-BF4)/Config!$B$1),0)+BF4&gt;=Config!$B$1,Config!$B$1-BF4,ROUND((BF4*Config!$B$39)*((Config!$B$1-BF4)/Config!$B$1),0))</f>
+        <v>72</v>
+      </c>
+      <c r="BH5" s="14">
+        <f>IF(ROUND((BG4*Config!$B$39)*((Config!$B$1-BG4)/Config!$B$1),0)+BG4&gt;=Config!$B$1,Config!$B$1-BG4,ROUND((BG4*Config!$B$39)*((Config!$B$1-BG4)/Config!$B$1),0))</f>
+        <v>65</v>
+      </c>
+      <c r="BI5" s="14">
+        <f>IF(ROUND((BH4*Config!$B$39)*((Config!$B$1-BH4)/Config!$B$1),0)+BH4&gt;=Config!$B$1,Config!$B$1-BH4,ROUND((BH4*Config!$B$39)*((Config!$B$1-BH4)/Config!$B$1),0))</f>
         <v>60</v>
       </c>
-      <c r="G5" s="14">
-        <f>IF(ROUND((F4*Config!$B$39)*((Config!$B$1-F5)/Config!$B$1),0)+F4&gt;=Config!$B$1,Config!$B$1-F4,ROUND((F4*Config!$B$39)*((Config!$B$1-F5)/Config!$B$1),0))</f>
-        <v>63</v>
-      </c>
-      <c r="H5" s="14">
-        <f>IF(ROUND((G4*Config!$B$39)*((Config!$B$1-G5)/Config!$B$1),0)+G4&gt;=Config!$B$1,Config!$B$1-G4,ROUND((G4*Config!$B$39)*((Config!$B$1-G5)/Config!$B$1),0))</f>
-        <v>66</v>
-      </c>
-      <c r="I5" s="14">
-        <f>IF(ROUND((H4*Config!$B$39)*((Config!$B$1-H5)/Config!$B$1),0)+H4&gt;=Config!$B$1,Config!$B$1-H4,ROUND((H4*Config!$B$39)*((Config!$B$1-H5)/Config!$B$1),0))</f>
-        <v>69</v>
-      </c>
-      <c r="J5" s="14">
-        <f>IF(ROUND((I4*Config!$B$39)*((Config!$B$1-I5)/Config!$B$1),0)+I4&gt;=Config!$B$1,Config!$B$1-I4,ROUND((I4*Config!$B$39)*((Config!$B$1-I5)/Config!$B$1),0))</f>
-        <v>73</v>
-      </c>
-      <c r="K5" s="14">
-        <f>IF(ROUND((J4*Config!$B$39)*((Config!$B$1-J5)/Config!$B$1),0)+J4&gt;=Config!$B$1,Config!$B$1-J4,ROUND((J4*Config!$B$39)*((Config!$B$1-J5)/Config!$B$1),0))</f>
-        <v>76</v>
-      </c>
-      <c r="L5" s="14">
-        <f>IF(ROUND((K4*Config!$B$39)*((Config!$B$1-K5)/Config!$B$1),0)+K4&gt;=Config!$B$1,Config!$B$1-K4,ROUND((K4*Config!$B$39)*((Config!$B$1-K5)/Config!$B$1),0))</f>
-        <v>80</v>
-      </c>
-      <c r="M5" s="14">
-        <f>IF(ROUND((L4*Config!$B$39)*((Config!$B$1-L5)/Config!$B$1),0)+L4&gt;=Config!$B$1,Config!$B$1-L4,ROUND((L4*Config!$B$39)*((Config!$B$1-L5)/Config!$B$1),0))</f>
-        <v>84</v>
-      </c>
-      <c r="N5" s="14">
-        <f>IF(ROUND((M4*Config!$B$39)*((Config!$B$1-M5)/Config!$B$1),0)+M4&gt;=Config!$B$1,Config!$B$1-M4,ROUND((M4*Config!$B$39)*((Config!$B$1-M5)/Config!$B$1),0))</f>
-        <v>88</v>
-      </c>
-      <c r="O5" s="14">
-        <f>IF(ROUND((N4*Config!$B$39)*((Config!$B$1-N5)/Config!$B$1),0)+N4&gt;=Config!$B$1,Config!$B$1-N4,ROUND((N4*Config!$B$39)*((Config!$B$1-N5)/Config!$B$1),0))</f>
-        <v>93</v>
-      </c>
-      <c r="P5" s="14">
-        <f>IF(ROUND((O4*Config!$B$39)*((Config!$B$1-O5)/Config!$B$1),0)+O4&gt;=Config!$B$1,Config!$B$1-O4,ROUND((O4*Config!$B$39)*((Config!$B$1-O5)/Config!$B$1),0))</f>
-        <v>98</v>
-      </c>
-      <c r="Q5" s="14">
-        <f>IF(ROUND((P4*Config!$B$39)*((Config!$B$1-P5)/Config!$B$1),0)+P4&gt;=Config!$B$1,Config!$B$1-P4,ROUND((P4*Config!$B$39)*((Config!$B$1-P5)/Config!$B$1),0))</f>
-        <v>102</v>
-      </c>
-      <c r="R5" s="14">
-        <f>IF(ROUND((Q4*Config!$B$39)*((Config!$B$1-Q5)/Config!$B$1),0)+Q4&gt;=Config!$B$1,Config!$B$1-Q4,ROUND((Q4*Config!$B$39)*((Config!$B$1-Q5)/Config!$B$1),0))</f>
-        <v>107</v>
-      </c>
-      <c r="S5" s="14">
-        <f>IF(ROUND((R4*Config!$B$39)*((Config!$B$1-R5)/Config!$B$1),0)+R4&gt;=Config!$B$1,Config!$B$1-R4,ROUND((R4*Config!$B$39)*((Config!$B$1-R5)/Config!$B$1),0))</f>
-        <v>113</v>
-      </c>
-      <c r="T5" s="14">
-        <f>IF(ROUND((S4*Config!$B$39)*((Config!$B$1-S5)/Config!$B$1),0)+S4&gt;=Config!$B$1,Config!$B$1-S4,ROUND((S4*Config!$B$39)*((Config!$B$1-S5)/Config!$B$1),0))</f>
-        <v>118</v>
-      </c>
-      <c r="U5" s="14">
-        <f>IF(ROUND((T4*Config!$B$39)*((Config!$B$1-T5)/Config!$B$1),0)+T4&gt;=Config!$B$1,Config!$B$1-T4,ROUND((T4*Config!$B$39)*((Config!$B$1-T5)/Config!$B$1),0))</f>
-        <v>124</v>
-      </c>
-      <c r="V5" s="14">
-        <f>IF(ROUND((U4*Config!$B$39)*((Config!$B$1-U5)/Config!$B$1),0)+U4&gt;=Config!$B$1,Config!$B$1-U4,ROUND((U4*Config!$B$39)*((Config!$B$1-U5)/Config!$B$1),0))</f>
-        <v>131</v>
-      </c>
-      <c r="W5" s="14">
-        <f>IF(ROUND((V4*Config!$B$39)*((Config!$B$1-V5)/Config!$B$1),0)+V4&gt;=Config!$B$1,Config!$B$1-V4,ROUND((V4*Config!$B$39)*((Config!$B$1-V5)/Config!$B$1),0))</f>
-        <v>137</v>
-      </c>
-      <c r="X5" s="14">
-        <f>IF(ROUND((W4*Config!$B$39)*((Config!$B$1-W5)/Config!$B$1),0)+W4&gt;=Config!$B$1,Config!$B$1-W4,ROUND((W4*Config!$B$39)*((Config!$B$1-W5)/Config!$B$1),0))</f>
-        <v>144</v>
-      </c>
-      <c r="Y5" s="14">
-        <f>IF(ROUND((X4*Config!$B$39)*((Config!$B$1-X5)/Config!$B$1),0)+X4&gt;=Config!$B$1,Config!$B$1-X4,ROUND((X4*Config!$B$39)*((Config!$B$1-X5)/Config!$B$1),0))</f>
-        <v>151</v>
-      </c>
-      <c r="Z5" s="14">
-        <f>IF(ROUND((Y4*Config!$B$39)*((Config!$B$1-Y5)/Config!$B$1),0)+Y4&gt;=Config!$B$1,Config!$B$1-Y4,ROUND((Y4*Config!$B$39)*((Config!$B$1-Y5)/Config!$B$1),0))</f>
-        <v>159</v>
-      </c>
-      <c r="AA5" s="14">
-        <f>IF(ROUND((Z4*Config!$B$39)*((Config!$B$1-Z5)/Config!$B$1),0)+Z4&gt;=Config!$B$1,Config!$B$1-Z4,ROUND((Z4*Config!$B$39)*((Config!$B$1-Z5)/Config!$B$1),0))</f>
-        <v>167</v>
-      </c>
-      <c r="AB5" s="14">
-        <f>IF(ROUND((AA4*Config!$B$39)*((Config!$B$1-AA5)/Config!$B$1),0)+AA4&gt;=Config!$B$1,Config!$B$1-AA4,ROUND((AA4*Config!$B$39)*((Config!$B$1-AA5)/Config!$B$1),0))</f>
-        <v>175</v>
-      </c>
-      <c r="AC5" s="14">
-        <f>IF(ROUND((AB4*Config!$B$39)*((Config!$B$1-AB5)/Config!$B$1),0)+AB4&gt;=Config!$B$1,Config!$B$1-AB4,ROUND((AB4*Config!$B$39)*((Config!$B$1-AB5)/Config!$B$1),0))</f>
-        <v>184</v>
-      </c>
-      <c r="AD5" s="14">
-        <f>IF(ROUND((AC4*Config!$B$39)*((Config!$B$1-AC5)/Config!$B$1),0)+AC4&gt;=Config!$B$1,Config!$B$1-AC4,ROUND((AC4*Config!$B$39)*((Config!$B$1-AC5)/Config!$B$1),0))</f>
-        <v>193</v>
-      </c>
-      <c r="AE5" s="14">
-        <f>IF(ROUND((AD4*Config!$B$39)*((Config!$B$1-AD5)/Config!$B$1),0)+AD4&gt;=Config!$B$1,Config!$B$1-AD4,ROUND((AD4*Config!$B$39)*((Config!$B$1-AD5)/Config!$B$1),0))</f>
-        <v>202</v>
-      </c>
-      <c r="AF5" s="14">
-        <f>IF(ROUND((AE4*Config!$B$39)*((Config!$B$1-AE5)/Config!$B$1),0)+AE4&gt;=Config!$B$1,Config!$B$1-AE4,ROUND((AE4*Config!$B$39)*((Config!$B$1-AE5)/Config!$B$1),0))</f>
-        <v>212</v>
-      </c>
-      <c r="AG5" s="14">
-        <f>IF(ROUND((AF4*Config!$B$39)*((Config!$B$1-AF5)/Config!$B$1),0)+AF4&gt;=Config!$B$1,Config!$B$1-AF4,ROUND((AF4*Config!$B$39)*((Config!$B$1-AF5)/Config!$B$1),0))</f>
-        <v>223</v>
-      </c>
-      <c r="AH5" s="14">
-        <f>IF(ROUND((AG4*Config!$B$39)*((Config!$B$1-AG5)/Config!$B$1),0)+AG4&gt;=Config!$B$1,Config!$B$1-AG4,ROUND((AG4*Config!$B$39)*((Config!$B$1-AG5)/Config!$B$1),0))</f>
-        <v>234</v>
-      </c>
-      <c r="AI5" s="14">
-        <f>IF(ROUND((AH4*Config!$B$39)*((Config!$B$1-AH5)/Config!$B$1),0)+AH4&gt;=Config!$B$1,Config!$B$1-AH4,ROUND((AH4*Config!$B$39)*((Config!$B$1-AH5)/Config!$B$1),0))</f>
-        <v>246</v>
-      </c>
-      <c r="AJ5" s="14">
-        <f>IF(ROUND((AI4*Config!$B$39)*((Config!$B$1-AI5)/Config!$B$1),0)+AI4&gt;=Config!$B$1,Config!$B$1-AI4,ROUND((AI4*Config!$B$39)*((Config!$B$1-AI5)/Config!$B$1),0))</f>
-        <v>258</v>
-      </c>
-      <c r="AK5" s="14">
-        <f>IF(ROUND((AJ4*Config!$B$39)*((Config!$B$1-AJ5)/Config!$B$1),0)+AJ4&gt;=Config!$B$1,Config!$B$1-AJ4,ROUND((AJ4*Config!$B$39)*((Config!$B$1-AJ5)/Config!$B$1),0))</f>
-        <v>271</v>
-      </c>
-      <c r="AL5" s="14">
-        <f>IF(ROUND((AK4*Config!$B$39)*((Config!$B$1-AK5)/Config!$B$1),0)+AK4&gt;=Config!$B$1,Config!$B$1-AK4,ROUND((AK4*Config!$B$39)*((Config!$B$1-AK5)/Config!$B$1),0))</f>
-        <v>284</v>
-      </c>
-      <c r="AM5" s="14">
-        <f>IF(ROUND((AL4*Config!$B$39)*((Config!$B$1-AL5)/Config!$B$1),0)+AL4&gt;=Config!$B$1,Config!$B$1-AL4,ROUND((AL4*Config!$B$39)*((Config!$B$1-AL5)/Config!$B$1),0))</f>
-        <v>298</v>
-      </c>
-      <c r="AN5" s="14">
-        <f>IF(ROUND((AM4*Config!$B$39)*((Config!$B$1-AM5)/Config!$B$1),0)+AM4&gt;=Config!$B$1,Config!$B$1-AM4,ROUND((AM4*Config!$B$39)*((Config!$B$1-AM5)/Config!$B$1),0))</f>
-        <v>313</v>
-      </c>
-      <c r="AO5" s="14">
-        <f>IF(ROUND((AN4*Config!$B$39)*((Config!$B$1-AN5)/Config!$B$1),0)+AN4&gt;=Config!$B$1,Config!$B$1-AN4,ROUND((AN4*Config!$B$39)*((Config!$B$1-AN5)/Config!$B$1),0))</f>
-        <v>329</v>
-      </c>
-      <c r="AP5" s="14">
-        <f>IF(ROUND((AO4*Config!$B$39)*((Config!$B$1-AO5)/Config!$B$1),0)+AO4&gt;=Config!$B$1,Config!$B$1-AO4,ROUND((AO4*Config!$B$39)*((Config!$B$1-AO5)/Config!$B$1),0))</f>
-        <v>345</v>
-      </c>
-      <c r="AQ5" s="14">
-        <f>IF(ROUND((AP4*Config!$B$39)*((Config!$B$1-AP5)/Config!$B$1),0)+AP4&gt;=Config!$B$1,Config!$B$1-AP4,ROUND((AP4*Config!$B$39)*((Config!$B$1-AP5)/Config!$B$1),0))</f>
-        <v>362</v>
-      </c>
-      <c r="AR5" s="14">
-        <f>IF(ROUND((AQ4*Config!$B$39)*((Config!$B$1-AQ5)/Config!$B$1),0)+AQ4&gt;=Config!$B$1,Config!$B$1-AQ4,ROUND((AQ4*Config!$B$39)*((Config!$B$1-AQ5)/Config!$B$1),0))</f>
-        <v>380</v>
-      </c>
-      <c r="AS5" s="14">
-        <f>IF(ROUND((AR4*Config!$B$39)*((Config!$B$1-AR5)/Config!$B$1),0)+AR4&gt;=Config!$B$1,Config!$B$1-AR4,ROUND((AR4*Config!$B$39)*((Config!$B$1-AR5)/Config!$B$1),0))</f>
-        <v>399</v>
-      </c>
-      <c r="AT5" s="14">
-        <f>IF(ROUND((AS4*Config!$B$39)*((Config!$B$1-AS5)/Config!$B$1),0)+AS4&gt;=Config!$B$1,Config!$B$1-AS4,ROUND((AS4*Config!$B$39)*((Config!$B$1-AS5)/Config!$B$1),0))</f>
-        <v>419</v>
-      </c>
-      <c r="AU5" s="14">
-        <f>IF(ROUND((AT4*Config!$B$39)*((Config!$B$1-AT5)/Config!$B$1),0)+AT4&gt;=Config!$B$1,Config!$B$1-AT4,ROUND((AT4*Config!$B$39)*((Config!$B$1-AT5)/Config!$B$1),0))</f>
-        <v>439</v>
-      </c>
-      <c r="AV5" s="14">
-        <f>IF(ROUND((AU4*Config!$B$39)*((Config!$B$1-AU5)/Config!$B$1),0)+AU4&gt;=Config!$B$1,Config!$B$1-AU4,ROUND((AU4*Config!$B$39)*((Config!$B$1-AU5)/Config!$B$1),0))</f>
-        <v>461</v>
-      </c>
-      <c r="AW5" s="14">
-        <f>IF(ROUND((AV4*Config!$B$39)*((Config!$B$1-AV5)/Config!$B$1),0)+AV4&gt;=Config!$B$1,Config!$B$1-AV4,ROUND((AV4*Config!$B$39)*((Config!$B$1-AV5)/Config!$B$1),0))</f>
-        <v>484</v>
-      </c>
-      <c r="AX5" s="14">
-        <f>IF(ROUND((AW4*Config!$B$39)*((Config!$B$1-AW5)/Config!$B$1),0)+AW4&gt;=Config!$B$1,Config!$B$1-AW4,ROUND((AW4*Config!$B$39)*((Config!$B$1-AW5)/Config!$B$1),0))</f>
-        <v>508</v>
-      </c>
-      <c r="AY5" s="14">
-        <f>IF(ROUND((AX4*Config!$B$39)*((Config!$B$1-AX5)/Config!$B$1),0)+AX4&gt;=Config!$B$1,Config!$B$1-AX4,ROUND((AX4*Config!$B$39)*((Config!$B$1-AX5)/Config!$B$1),0))</f>
-        <v>533</v>
-      </c>
-      <c r="AZ5" s="14">
-        <f>IF(ROUND((AY4*Config!$B$39)*((Config!$B$1-AY5)/Config!$B$1),0)+AY4&gt;=Config!$B$1,Config!$B$1-AY4,ROUND((AY4*Config!$B$39)*((Config!$B$1-AY5)/Config!$B$1),0))</f>
-        <v>559</v>
-      </c>
-      <c r="BA5" s="14">
-        <f>IF(ROUND((AZ4*Config!$B$39)*((Config!$B$1-AZ5)/Config!$B$1),0)+AZ4&gt;=Config!$B$1,Config!$B$1-AZ4,ROUND((AZ4*Config!$B$39)*((Config!$B$1-AZ5)/Config!$B$1),0))</f>
-        <v>587</v>
-      </c>
-      <c r="BB5" s="14">
-        <f>IF(ROUND((BA4*Config!$B$39)*((Config!$B$1-BA5)/Config!$B$1),0)+BA4&gt;=Config!$B$1,Config!$B$1-BA4,ROUND((BA4*Config!$B$39)*((Config!$B$1-BA5)/Config!$B$1),0))</f>
-        <v>616</v>
-      </c>
-      <c r="BC5" s="14">
-        <f>IF(ROUND((BB4*Config!$B$39)*((Config!$B$1-BB5)/Config!$B$1),0)+BB4&gt;=Config!$B$1,Config!$B$1-BB4,ROUND((BB4*Config!$B$39)*((Config!$B$1-BB5)/Config!$B$1),0))</f>
-        <v>646</v>
-      </c>
-      <c r="BD5" s="14">
-        <f>IF(ROUND((BC4*Config!$B$39)*((Config!$B$1-BC5)/Config!$B$1),0)+BC4&gt;=Config!$B$1,Config!$B$1-BC4,ROUND((BC4*Config!$B$39)*((Config!$B$1-BC5)/Config!$B$1),0))</f>
-        <v>678</v>
-      </c>
-      <c r="BE5" s="14">
-        <f>IF(ROUND((BD4*Config!$B$39)*((Config!$B$1-BD5)/Config!$B$1),0)+BD4&gt;=Config!$B$1,Config!$B$1-BD4,ROUND((BD4*Config!$B$39)*((Config!$B$1-BD5)/Config!$B$1),0))</f>
-        <v>712</v>
-      </c>
-      <c r="BF5" s="14">
-        <f>IF(ROUND((BE4*Config!$B$39)*((Config!$B$1-BE5)/Config!$B$1),0)+BE4&gt;=Config!$B$1,Config!$B$1-BE4,ROUND((BE4*Config!$B$39)*((Config!$B$1-BE5)/Config!$B$1),0))</f>
-        <v>747</v>
-      </c>
-      <c r="BG5" s="14">
-        <f>IF(ROUND((BF4*Config!$B$39)*((Config!$B$1-BF5)/Config!$B$1),0)+BF4&gt;=Config!$B$1,Config!$B$1-BF4,ROUND((BF4*Config!$B$39)*((Config!$B$1-BF5)/Config!$B$1),0))</f>
-        <v>784</v>
-      </c>
-      <c r="BH5" s="14">
-        <f>IF(ROUND((BG4*Config!$B$39)*((Config!$B$1-BG5)/Config!$B$1),0)+BG4&gt;=Config!$B$1,Config!$B$1-BG4,ROUND((BG4*Config!$B$39)*((Config!$B$1-BG5)/Config!$B$1),0))</f>
-        <v>822</v>
-      </c>
-      <c r="BI5" s="14">
-        <f>IF(ROUND((BH4*Config!$B$39)*((Config!$B$1-BH5)/Config!$B$1),0)+BH4&gt;=Config!$B$1,Config!$B$1-BH4,ROUND((BH4*Config!$B$39)*((Config!$B$1-BH5)/Config!$B$1),0))</f>
-        <v>863</v>
-      </c>
       <c r="BJ5" s="14">
-        <f>IF(ROUND((BI4*Config!$B$39)*((Config!$B$1-BI5)/Config!$B$1),0)+BI4&gt;=Config!$B$1,Config!$B$1-BI4,ROUND((BI4*Config!$B$39)*((Config!$B$1-BI5)/Config!$B$1),0))</f>
-        <v>905</v>
+        <f>IF(ROUND((BI4*Config!$B$39)*((Config!$B$1-BI4)/Config!$B$1),0)+BI4&gt;=Config!$B$1,Config!$B$1-BI4,ROUND((BI4*Config!$B$39)*((Config!$B$1-BI4)/Config!$B$1),0))</f>
+        <v>55</v>
       </c>
       <c r="BK5" s="14">
-        <f>IF(ROUND((BJ4*Config!$B$39)*((Config!$B$1-BJ5)/Config!$B$1),0)+BJ4&gt;=Config!$B$1,Config!$B$1-BJ4,ROUND((BJ4*Config!$B$39)*((Config!$B$1-BJ5)/Config!$B$1),0))</f>
-        <v>949</v>
+        <f>IF(ROUND((BJ4*Config!$B$39)*((Config!$B$1-BJ4)/Config!$B$1),0)+BJ4&gt;=Config!$B$1,Config!$B$1-BJ4,ROUND((BJ4*Config!$B$39)*((Config!$B$1-BJ4)/Config!$B$1),0))</f>
+        <v>50</v>
       </c>
       <c r="BL5" s="14">
-        <f>IF(ROUND((BK4*Config!$B$39)*((Config!$B$1-BK5)/Config!$B$1),0)+BK4&gt;=Config!$B$1,Config!$B$1-BK4,ROUND((BK4*Config!$B$39)*((Config!$B$1-BK5)/Config!$B$1),0))</f>
-        <v>996</v>
+        <f>IF(ROUND((BK4*Config!$B$39)*((Config!$B$1-BK4)/Config!$B$1),0)+BK4&gt;=Config!$B$1,Config!$B$1-BK4,ROUND((BK4*Config!$B$39)*((Config!$B$1-BK4)/Config!$B$1),0))</f>
+        <v>45</v>
       </c>
       <c r="BM5" s="14">
-        <f>IF(ROUND((BL4*Config!$B$39)*((Config!$B$1-BL5)/Config!$B$1),0)+BL4&gt;=Config!$B$1,Config!$B$1-BL4,ROUND((BL4*Config!$B$39)*((Config!$B$1-BL5)/Config!$B$1),0))</f>
-        <v>1045</v>
+        <f>IF(ROUND((BL4*Config!$B$39)*((Config!$B$1-BL4)/Config!$B$1),0)+BL4&gt;=Config!$B$1,Config!$B$1-BL4,ROUND((BL4*Config!$B$39)*((Config!$B$1-BL4)/Config!$B$1),0))</f>
+        <v>41</v>
       </c>
       <c r="BN5" s="14">
-        <f>IF(ROUND((BM4*Config!$B$39)*((Config!$B$1-BM5)/Config!$B$1),0)+BM4&gt;=Config!$B$1,Config!$B$1-BM4,ROUND((BM4*Config!$B$39)*((Config!$B$1-BM5)/Config!$B$1),0))</f>
-        <v>1096</v>
+        <f>IF(ROUND((BM4*Config!$B$39)*((Config!$B$1-BM4)/Config!$B$1),0)+BM4&gt;=Config!$B$1,Config!$B$1-BM4,ROUND((BM4*Config!$B$39)*((Config!$B$1-BM4)/Config!$B$1),0))</f>
+        <v>38</v>
       </c>
       <c r="BO5" s="14">
-        <f>IF(ROUND((BN4*Config!$B$39)*((Config!$B$1-BN5)/Config!$B$1),0)+BN4&gt;=Config!$B$1,Config!$B$1-BN4,ROUND((BN4*Config!$B$39)*((Config!$B$1-BN5)/Config!$B$1),0))</f>
-        <v>1149</v>
+        <f>IF(ROUND((BN4*Config!$B$39)*((Config!$B$1-BN4)/Config!$B$1),0)+BN4&gt;=Config!$B$1,Config!$B$1-BN4,ROUND((BN4*Config!$B$39)*((Config!$B$1-BN4)/Config!$B$1),0))</f>
+        <v>34</v>
       </c>
       <c r="BP5" s="14">
-        <f>IF(ROUND((BO4*Config!$B$39)*((Config!$B$1-BO5)/Config!$B$1),0)+BO4&gt;=Config!$B$1,Config!$B$1-BO4,ROUND((BO4*Config!$B$39)*((Config!$B$1-BO5)/Config!$B$1),0))</f>
-        <v>1205</v>
+        <f>IF(ROUND((BO4*Config!$B$39)*((Config!$B$1-BO4)/Config!$B$1),0)+BO4&gt;=Config!$B$1,Config!$B$1-BO4,ROUND((BO4*Config!$B$39)*((Config!$B$1-BO4)/Config!$B$1),0))</f>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:68" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -2043,259 +2046,259 @@
       </c>
       <c r="E6" s="14">
         <f>ROUND(E4*Config!$B$9,0)</f>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="F6" s="14">
         <f>ROUND(F4*Config!$B$9,0)</f>
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="G6" s="14">
         <f>ROUND(G4*Config!$B$9,0)</f>
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="H6" s="14">
         <f>ROUND(H4*Config!$B$9,0)</f>
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="I6" s="14">
         <f>ROUND(I4*Config!$B$9,0)</f>
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="J6" s="14">
         <f>ROUND(J4*Config!$B$9,0)</f>
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="K6" s="14">
         <f>ROUND(K4*Config!$B$9,0)</f>
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="L6" s="14">
         <f>ROUND(L4*Config!$B$9,0)</f>
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="M6" s="14">
         <f>ROUND(M4*Config!$B$9,0)</f>
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="N6" s="14">
         <f>ROUND(N4*Config!$B$9,0)</f>
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="O6" s="14">
         <f>ROUND(O4*Config!$B$9,0)</f>
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="P6" s="14">
         <f>ROUND(P4*Config!$B$9,0)</f>
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="Q6" s="14">
         <f>ROUND(Q4*Config!$B$9,0)</f>
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="R6" s="14">
         <f>ROUND(R4*Config!$B$9,0)</f>
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="S6" s="14">
         <f>ROUND(S4*Config!$B$9,0)</f>
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="T6" s="14">
         <f>ROUND(T4*Config!$B$9,0)</f>
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="U6" s="14">
         <f>ROUND(U4*Config!$B$9,0)</f>
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="V6" s="14">
         <f>ROUND(V4*Config!$B$9,0)</f>
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="W6" s="14">
         <f>ROUND(W4*Config!$B$9,0)</f>
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="X6" s="14">
         <f>ROUND(X4*Config!$B$9,0)</f>
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="Y6" s="14">
         <f>ROUND(Y4*Config!$B$9,0)</f>
-        <v>210</v>
+        <v>167</v>
       </c>
       <c r="Z6" s="14">
         <f>ROUND(Z4*Config!$B$9,0)</f>
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="AA6" s="14">
         <f>ROUND(AA4*Config!$B$9,0)</f>
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="AB6" s="14">
         <f>ROUND(AB4*Config!$B$9,0)</f>
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="AC6" s="14">
         <f>ROUND(AC4*Config!$B$9,0)</f>
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="AD6" s="14">
         <f>ROUND(AD4*Config!$B$9,0)</f>
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="AE6" s="14">
         <f>ROUND(AE4*Config!$B$9,0)</f>
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="AF6" s="14">
         <f>ROUND(AF4*Config!$B$9,0)</f>
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="AG6" s="14">
         <f>ROUND(AG4*Config!$B$9,0)</f>
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="AH6" s="14">
         <f>ROUND(AH4*Config!$B$9,0)</f>
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="AI6" s="14">
         <f>ROUND(AI4*Config!$B$9,0)</f>
-        <v>342</v>
+        <v>307</v>
       </c>
       <c r="AJ6" s="14">
         <f>ROUND(AJ4*Config!$B$9,0)</f>
-        <v>359</v>
+        <v>322</v>
       </c>
       <c r="AK6" s="14">
         <f>ROUND(AK4*Config!$B$9,0)</f>
-        <v>377</v>
+        <v>337</v>
       </c>
       <c r="AL6" s="14">
         <f>ROUND(AL4*Config!$B$9,0)</f>
-        <v>396</v>
+        <v>352</v>
       </c>
       <c r="AM6" s="14">
         <f>ROUND(AM4*Config!$B$9,0)</f>
-        <v>415</v>
+        <v>367</v>
       </c>
       <c r="AN6" s="14">
         <f>ROUND(AN4*Config!$B$9,0)</f>
-        <v>436</v>
+        <v>382</v>
       </c>
       <c r="AO6" s="14">
         <f>ROUND(AO4*Config!$B$9,0)</f>
-        <v>458</v>
+        <v>396</v>
       </c>
       <c r="AP6" s="14">
         <f>ROUND(AP4*Config!$B$9,0)</f>
-        <v>480</v>
+        <v>410</v>
       </c>
       <c r="AQ6" s="14">
         <f>ROUND(AQ4*Config!$B$9,0)</f>
-        <v>504</v>
+        <v>423</v>
       </c>
       <c r="AR6" s="14">
         <f>ROUND(AR4*Config!$B$9,0)</f>
-        <v>530</v>
+        <v>436</v>
       </c>
       <c r="AS6" s="14">
         <f>ROUND(AS4*Config!$B$9,0)</f>
-        <v>556</v>
+        <v>448</v>
       </c>
       <c r="AT6" s="14">
         <f>ROUND(AT4*Config!$B$9,0)</f>
-        <v>584</v>
+        <v>460</v>
       </c>
       <c r="AU6" s="14">
         <f>ROUND(AU4*Config!$B$9,0)</f>
-        <v>613</v>
+        <v>471</v>
       </c>
       <c r="AV6" s="14">
         <f>ROUND(AV4*Config!$B$9,0)</f>
-        <v>643</v>
+        <v>482</v>
       </c>
       <c r="AW6" s="14">
         <f>ROUND(AW4*Config!$B$9,0)</f>
-        <v>675</v>
+        <v>492</v>
       </c>
       <c r="AX6" s="14">
         <f>ROUND(AX4*Config!$B$9,0)</f>
-        <v>709</v>
+        <v>501</v>
       </c>
       <c r="AY6" s="14">
         <f>ROUND(AY4*Config!$B$9,0)</f>
-        <v>744</v>
+        <v>510</v>
       </c>
       <c r="AZ6" s="14">
         <f>ROUND(AZ4*Config!$B$9,0)</f>
-        <v>781</v>
+        <v>518</v>
       </c>
       <c r="BA6" s="14">
         <f>ROUND(BA4*Config!$B$9,0)</f>
-        <v>820</v>
+        <v>526</v>
       </c>
       <c r="BB6" s="14">
         <f>ROUND(BB4*Config!$B$9,0)</f>
-        <v>860</v>
+        <v>533</v>
       </c>
       <c r="BC6" s="14">
         <f>ROUND(BC4*Config!$B$9,0)</f>
-        <v>903</v>
+        <v>540</v>
       </c>
       <c r="BD6" s="14">
         <f>ROUND(BD4*Config!$B$9,0)</f>
-        <v>948</v>
+        <v>546</v>
       </c>
       <c r="BE6" s="14">
         <f>ROUND(BE4*Config!$B$9,0)</f>
-        <v>995</v>
+        <v>552</v>
       </c>
       <c r="BF6" s="14">
         <f>ROUND(BF4*Config!$B$9,0)</f>
-        <v>1044</v>
+        <v>557</v>
       </c>
       <c r="BG6" s="14">
         <f>ROUND(BG4*Config!$B$9,0)</f>
-        <v>1096</v>
+        <v>562</v>
       </c>
       <c r="BH6" s="14">
         <f>ROUND(BH4*Config!$B$9,0)</f>
-        <v>1150</v>
+        <v>566</v>
       </c>
       <c r="BI6" s="14">
         <f>ROUND(BI4*Config!$B$9,0)</f>
-        <v>1207</v>
+        <v>570</v>
       </c>
       <c r="BJ6" s="14">
         <f>ROUND(BJ4*Config!$B$9,0)</f>
-        <v>1267</v>
+        <v>573</v>
       </c>
       <c r="BK6" s="14">
         <f>ROUND(BK4*Config!$B$9,0)</f>
-        <v>1330</v>
+        <v>577</v>
       </c>
       <c r="BL6" s="14">
         <f>ROUND(BL4*Config!$B$9,0)</f>
-        <v>1396</v>
+        <v>580</v>
       </c>
       <c r="BM6" s="14">
         <f>ROUND(BM4*Config!$B$9,0)</f>
-        <v>1465</v>
+        <v>582</v>
       </c>
       <c r="BN6" s="14">
         <f>ROUND(BN4*Config!$B$9,0)</f>
-        <v>1537</v>
+        <v>585</v>
       </c>
       <c r="BO6" s="14">
         <f>ROUND(BO4*Config!$B$9,0)</f>
-        <v>1613</v>
+        <v>587</v>
       </c>
       <c r="BP6" s="14">
         <f>ROUND(BP4*Config!$B$9,0)</f>
-        <v>1693</v>
+        <v>589</v>
       </c>
     </row>
     <row r="7" spans="1:68" x14ac:dyDescent="0.25">
@@ -2457,259 +2460,259 @@
       </c>
       <c r="E9" s="14">
         <f>IF(OR(MONTH(E1)=7,MONTH(E1)=8),E6*Config!$B$18,E6*Config!$B$17)</f>
-        <v>12640</v>
+        <v>5120</v>
       </c>
       <c r="F9" s="14">
         <f>IF(OR(MONTH(F1)=7,MONTH(F1)=8),F6*Config!$B$18,F6*Config!$B$17)</f>
-        <v>13280</v>
+        <v>5600</v>
       </c>
       <c r="G9" s="14">
         <f>IF(OR(MONTH(G1)=7,MONTH(G1)=8),G6*Config!$B$18,G6*Config!$B$17)</f>
-        <v>13920</v>
+        <v>6080</v>
       </c>
       <c r="H9" s="14">
         <f>IF(OR(MONTH(H1)=7,MONTH(H1)=8),H6*Config!$B$18,H6*Config!$B$17)</f>
-        <v>14720</v>
+        <v>6720</v>
       </c>
       <c r="I9" s="14">
         <f>IF(OR(MONTH(I1)=7,MONTH(I1)=8),I6*Config!$B$18,I6*Config!$B$17)</f>
-        <v>15360</v>
+        <v>7200</v>
       </c>
       <c r="J9" s="14">
         <f>IF(OR(MONTH(J1)=7,MONTH(J1)=8),J6*Config!$B$18,J6*Config!$B$17)</f>
-        <v>16160</v>
+        <v>8000</v>
       </c>
       <c r="K9" s="14">
         <f>IF(OR(MONTH(K1)=7,MONTH(K1)=8),K6*Config!$B$18,K6*Config!$B$17)</f>
-        <v>16960</v>
+        <v>8640</v>
       </c>
       <c r="L9" s="14">
         <f>IF(OR(MONTH(L1)=7,MONTH(L1)=8),L6*Config!$B$18,L6*Config!$B$17)</f>
-        <v>17760</v>
+        <v>9440</v>
       </c>
       <c r="M9" s="14">
         <f>IF(OR(MONTH(M1)=7,MONTH(M1)=8),M6*Config!$B$18,M6*Config!$B$17)</f>
-        <v>18720</v>
+        <v>10400</v>
       </c>
       <c r="N9" s="14">
         <f>IF(OR(MONTH(N1)=7,MONTH(N1)=8),N6*Config!$B$18,N6*Config!$B$17)</f>
-        <v>19680</v>
+        <v>11200</v>
       </c>
       <c r="O9" s="14">
         <f>IF(OR(MONTH(O1)=7,MONTH(O1)=8),O6*Config!$B$18,O6*Config!$B$17)</f>
-        <v>26316</v>
+        <v>15708</v>
       </c>
       <c r="P9" s="14">
         <f>IF(OR(MONTH(P1)=7,MONTH(P1)=8),P6*Config!$B$18,P6*Config!$B$17)</f>
-        <v>27540</v>
+        <v>16932</v>
       </c>
       <c r="Q9" s="14">
         <f>IF(OR(MONTH(Q1)=7,MONTH(Q1)=8),Q6*Config!$B$18,Q6*Config!$B$17)</f>
-        <v>22720</v>
+        <v>14400</v>
       </c>
       <c r="R9" s="14">
         <f>IF(OR(MONTH(R1)=7,MONTH(R1)=8),R6*Config!$B$18,R6*Config!$B$17)</f>
-        <v>23840</v>
+        <v>15680</v>
       </c>
       <c r="S9" s="14">
         <f>IF(OR(MONTH(S1)=7,MONTH(S1)=8),S6*Config!$B$18,S6*Config!$B$17)</f>
-        <v>25120</v>
+        <v>16960</v>
       </c>
       <c r="T9" s="14">
         <f>IF(OR(MONTH(T1)=7,MONTH(T1)=8),T6*Config!$B$18,T6*Config!$B$17)</f>
-        <v>26400</v>
+        <v>18400</v>
       </c>
       <c r="U9" s="14">
         <f>IF(OR(MONTH(U1)=7,MONTH(U1)=8),U6*Config!$B$18,U6*Config!$B$17)</f>
-        <v>27680</v>
+        <v>19840</v>
       </c>
       <c r="V9" s="14">
         <f>IF(OR(MONTH(V1)=7,MONTH(V1)=8),V6*Config!$B$18,V6*Config!$B$17)</f>
-        <v>28960</v>
+        <v>21440</v>
       </c>
       <c r="W9" s="14">
         <f>IF(OR(MONTH(W1)=7,MONTH(W1)=8),W6*Config!$B$18,W6*Config!$B$17)</f>
-        <v>30400</v>
+        <v>23200</v>
       </c>
       <c r="X9" s="14">
         <f>IF(OR(MONTH(X1)=7,MONTH(X1)=8),X6*Config!$B$18,X6*Config!$B$17)</f>
-        <v>32000</v>
+        <v>24960</v>
       </c>
       <c r="Y9" s="14">
         <f>IF(OR(MONTH(Y1)=7,MONTH(Y1)=8),Y6*Config!$B$18,Y6*Config!$B$17)</f>
-        <v>33600</v>
+        <v>26720</v>
       </c>
       <c r="Z9" s="14">
         <f>IF(OR(MONTH(Z1)=7,MONTH(Z1)=8),Z6*Config!$B$18,Z6*Config!$B$17)</f>
-        <v>35200</v>
+        <v>28800</v>
       </c>
       <c r="AA9" s="14">
         <f>IF(OR(MONTH(AA1)=7,MONTH(AA1)=8),AA6*Config!$B$18,AA6*Config!$B$17)</f>
-        <v>47328</v>
+        <v>39168</v>
       </c>
       <c r="AB9" s="14">
         <f>IF(OR(MONTH(AB1)=7,MONTH(AB1)=8),AB6*Config!$B$18,AB6*Config!$B$17)</f>
-        <v>49572</v>
+        <v>41820</v>
       </c>
       <c r="AC9" s="14">
         <f>IF(OR(MONTH(AC1)=7,MONTH(AC1)=8),AC6*Config!$B$18,AC6*Config!$B$17)</f>
-        <v>40800</v>
+        <v>35040</v>
       </c>
       <c r="AD9" s="14">
         <f>IF(OR(MONTH(AD1)=7,MONTH(AD1)=8),AD6*Config!$B$18,AD6*Config!$B$17)</f>
-        <v>42880</v>
+        <v>37280</v>
       </c>
       <c r="AE9" s="14">
         <f>IF(OR(MONTH(AE1)=7,MONTH(AE1)=8),AE6*Config!$B$18,AE6*Config!$B$17)</f>
-        <v>44960</v>
+        <v>39520</v>
       </c>
       <c r="AF9" s="14">
         <f>IF(OR(MONTH(AF1)=7,MONTH(AF1)=8),AF6*Config!$B$18,AF6*Config!$B$17)</f>
-        <v>47200</v>
+        <v>41920</v>
       </c>
       <c r="AG9" s="14">
         <f>IF(OR(MONTH(AG1)=7,MONTH(AG1)=8),AG6*Config!$B$18,AG6*Config!$B$17)</f>
-        <v>49600</v>
+        <v>44320</v>
       </c>
       <c r="AH9" s="14">
         <f>IF(OR(MONTH(AH1)=7,MONTH(AH1)=8),AH6*Config!$B$18,AH6*Config!$B$17)</f>
-        <v>52160</v>
+        <v>46720</v>
       </c>
       <c r="AI9" s="14">
         <f>IF(OR(MONTH(AI1)=7,MONTH(AI1)=8),AI6*Config!$B$18,AI6*Config!$B$17)</f>
-        <v>54720</v>
+        <v>49120</v>
       </c>
       <c r="AJ9" s="14">
         <f>IF(OR(MONTH(AJ1)=7,MONTH(AJ1)=8),AJ6*Config!$B$18,AJ6*Config!$B$17)</f>
-        <v>57440</v>
+        <v>51520</v>
       </c>
       <c r="AK9" s="14">
         <f>IF(OR(MONTH(AK1)=7,MONTH(AK1)=8),AK6*Config!$B$18,AK6*Config!$B$17)</f>
-        <v>60320</v>
+        <v>53920</v>
       </c>
       <c r="AL9" s="14">
         <f>IF(OR(MONTH(AL1)=7,MONTH(AL1)=8),AL6*Config!$B$18,AL6*Config!$B$17)</f>
-        <v>63360</v>
+        <v>56320</v>
       </c>
       <c r="AM9" s="14">
         <f>IF(OR(MONTH(AM1)=7,MONTH(AM1)=8),AM6*Config!$B$18,AM6*Config!$B$17)</f>
-        <v>84660</v>
+        <v>74868</v>
       </c>
       <c r="AN9" s="14">
         <f>IF(OR(MONTH(AN1)=7,MONTH(AN1)=8),AN6*Config!$B$18,AN6*Config!$B$17)</f>
-        <v>88944</v>
+        <v>77928</v>
       </c>
       <c r="AO9" s="14">
         <f>IF(OR(MONTH(AO1)=7,MONTH(AO1)=8),AO6*Config!$B$18,AO6*Config!$B$17)</f>
-        <v>73280</v>
+        <v>63360</v>
       </c>
       <c r="AP9" s="14">
         <f>IF(OR(MONTH(AP1)=7,MONTH(AP1)=8),AP6*Config!$B$18,AP6*Config!$B$17)</f>
-        <v>76800</v>
+        <v>65600</v>
       </c>
       <c r="AQ9" s="14">
         <f>IF(OR(MONTH(AQ1)=7,MONTH(AQ1)=8),AQ6*Config!$B$18,AQ6*Config!$B$17)</f>
-        <v>80640</v>
+        <v>67680</v>
       </c>
       <c r="AR9" s="14">
         <f>IF(OR(MONTH(AR1)=7,MONTH(AR1)=8),AR6*Config!$B$18,AR6*Config!$B$17)</f>
-        <v>84800</v>
+        <v>69760</v>
       </c>
       <c r="AS9" s="14">
         <f>IF(OR(MONTH(AS1)=7,MONTH(AS1)=8),AS6*Config!$B$18,AS6*Config!$B$17)</f>
-        <v>88960</v>
+        <v>71680</v>
       </c>
       <c r="AT9" s="14">
         <f>IF(OR(MONTH(AT1)=7,MONTH(AT1)=8),AT6*Config!$B$18,AT6*Config!$B$17)</f>
-        <v>93440</v>
+        <v>73600</v>
       </c>
       <c r="AU9" s="14">
         <f>IF(OR(MONTH(AU1)=7,MONTH(AU1)=8),AU6*Config!$B$18,AU6*Config!$B$17)</f>
-        <v>98080</v>
+        <v>75360</v>
       </c>
       <c r="AV9" s="14">
         <f>IF(OR(MONTH(AV1)=7,MONTH(AV1)=8),AV6*Config!$B$18,AV6*Config!$B$17)</f>
-        <v>102880</v>
+        <v>77120</v>
       </c>
       <c r="AW9" s="14">
         <f>IF(OR(MONTH(AW1)=7,MONTH(AW1)=8),AW6*Config!$B$18,AW6*Config!$B$17)</f>
-        <v>108000</v>
+        <v>78720</v>
       </c>
       <c r="AX9" s="14">
         <f>IF(OR(MONTH(AX1)=7,MONTH(AX1)=8),AX6*Config!$B$18,AX6*Config!$B$17)</f>
-        <v>113440</v>
+        <v>80160</v>
       </c>
       <c r="AY9" s="14">
         <f>IF(OR(MONTH(AY1)=7,MONTH(AY1)=8),AY6*Config!$B$18,AY6*Config!$B$17)</f>
-        <v>151776</v>
+        <v>104040</v>
       </c>
       <c r="AZ9" s="14">
         <f>IF(OR(MONTH(AZ1)=7,MONTH(AZ1)=8),AZ6*Config!$B$18,AZ6*Config!$B$17)</f>
-        <v>159324</v>
+        <v>105672</v>
       </c>
       <c r="BA9" s="14">
         <f>IF(OR(MONTH(BA1)=7,MONTH(BA1)=8),BA6*Config!$B$18,BA6*Config!$B$17)</f>
-        <v>131200</v>
+        <v>84160</v>
       </c>
       <c r="BB9" s="14">
         <f>IF(OR(MONTH(BB1)=7,MONTH(BB1)=8),BB6*Config!$B$18,BB6*Config!$B$17)</f>
-        <v>137600</v>
+        <v>85280</v>
       </c>
       <c r="BC9" s="14">
         <f>IF(OR(MONTH(BC1)=7,MONTH(BC1)=8),BC6*Config!$B$18,BC6*Config!$B$17)</f>
-        <v>144480</v>
+        <v>86400</v>
       </c>
       <c r="BD9" s="14">
         <f>IF(OR(MONTH(BD1)=7,MONTH(BD1)=8),BD6*Config!$B$18,BD6*Config!$B$17)</f>
-        <v>151680</v>
+        <v>87360</v>
       </c>
       <c r="BE9" s="14">
         <f>IF(OR(MONTH(BE1)=7,MONTH(BE1)=8),BE6*Config!$B$18,BE6*Config!$B$17)</f>
-        <v>159200</v>
+        <v>88320</v>
       </c>
       <c r="BF9" s="14">
         <f>IF(OR(MONTH(BF1)=7,MONTH(BF1)=8),BF6*Config!$B$18,BF6*Config!$B$17)</f>
-        <v>167040</v>
+        <v>89120</v>
       </c>
       <c r="BG9" s="14">
         <f>IF(OR(MONTH(BG1)=7,MONTH(BG1)=8),BG6*Config!$B$18,BG6*Config!$B$17)</f>
-        <v>175360</v>
+        <v>89920</v>
       </c>
       <c r="BH9" s="14">
         <f>IF(OR(MONTH(BH1)=7,MONTH(BH1)=8),BH6*Config!$B$18,BH6*Config!$B$17)</f>
-        <v>184000</v>
+        <v>90560</v>
       </c>
       <c r="BI9" s="14">
         <f>IF(OR(MONTH(BI1)=7,MONTH(BI1)=8),BI6*Config!$B$18,BI6*Config!$B$17)</f>
-        <v>193120</v>
+        <v>91200</v>
       </c>
       <c r="BJ9" s="14">
         <f>IF(OR(MONTH(BJ1)=7,MONTH(BJ1)=8),BJ6*Config!$B$18,BJ6*Config!$B$17)</f>
-        <v>202720</v>
+        <v>91680</v>
       </c>
       <c r="BK9" s="14">
         <f>IF(OR(MONTH(BK1)=7,MONTH(BK1)=8),BK6*Config!$B$18,BK6*Config!$B$17)</f>
-        <v>271320</v>
+        <v>117708</v>
       </c>
       <c r="BL9" s="14">
         <f>IF(OR(MONTH(BL1)=7,MONTH(BL1)=8),BL6*Config!$B$18,BL6*Config!$B$17)</f>
-        <v>284784</v>
+        <v>118320</v>
       </c>
       <c r="BM9" s="14">
         <f>IF(OR(MONTH(BM1)=7,MONTH(BM1)=8),BM6*Config!$B$18,BM6*Config!$B$17)</f>
-        <v>234400</v>
+        <v>93120</v>
       </c>
       <c r="BN9" s="14">
         <f>IF(OR(MONTH(BN1)=7,MONTH(BN1)=8),BN6*Config!$B$18,BN6*Config!$B$17)</f>
-        <v>245920</v>
+        <v>93600</v>
       </c>
       <c r="BO9" s="14">
         <f>IF(OR(MONTH(BO1)=7,MONTH(BO1)=8),BO6*Config!$B$18,BO6*Config!$B$17)</f>
-        <v>258080</v>
+        <v>93920</v>
       </c>
       <c r="BP9" s="14">
         <f>IF(OR(MONTH(BP1)=7,MONTH(BP1)=8),BP6*Config!$B$18,BP6*Config!$B$17)</f>
-        <v>270880</v>
+        <v>94240</v>
       </c>
     </row>
     <row r="10" spans="1:68" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -2730,259 +2733,259 @@
       </c>
       <c r="E10" s="14">
         <f>E9*Config!$B$15</f>
-        <v>11376</v>
+        <v>4608</v>
       </c>
       <c r="F10" s="14">
         <f>F9*Config!$B$15</f>
-        <v>11952</v>
+        <v>5040</v>
       </c>
       <c r="G10" s="14">
         <f>G9*Config!$B$15</f>
-        <v>12528</v>
+        <v>5472</v>
       </c>
       <c r="H10" s="14">
         <f>H9*Config!$B$15</f>
-        <v>13248</v>
+        <v>6048</v>
       </c>
       <c r="I10" s="14">
         <f>I9*Config!$B$15</f>
-        <v>13824</v>
+        <v>6480</v>
       </c>
       <c r="J10" s="14">
         <f>J9*Config!$B$15</f>
-        <v>14544</v>
+        <v>7200</v>
       </c>
       <c r="K10" s="14">
         <f>K9*Config!$B$15</f>
-        <v>15264</v>
+        <v>7776</v>
       </c>
       <c r="L10" s="14">
         <f>L9*Config!$B$15</f>
-        <v>15984</v>
+        <v>8496</v>
       </c>
       <c r="M10" s="14">
         <f>M9*Config!$B$15</f>
-        <v>16848</v>
+        <v>9360</v>
       </c>
       <c r="N10" s="14">
         <f>N9*Config!$B$15</f>
-        <v>17712</v>
+        <v>10080</v>
       </c>
       <c r="O10" s="14">
         <f>O9*Config!$B$15</f>
-        <v>23684.400000000001</v>
+        <v>14137.2</v>
       </c>
       <c r="P10" s="14">
         <f>P9*Config!$B$15</f>
-        <v>24786</v>
+        <v>15238.800000000001</v>
       </c>
       <c r="Q10" s="14">
         <f>Q9*Config!$B$15</f>
-        <v>20448</v>
+        <v>12960</v>
       </c>
       <c r="R10" s="14">
         <f>R9*Config!$B$15</f>
-        <v>21456</v>
+        <v>14112</v>
       </c>
       <c r="S10" s="14">
         <f>S9*Config!$B$15</f>
-        <v>22608</v>
+        <v>15264</v>
       </c>
       <c r="T10" s="14">
         <f>T9*Config!$B$15</f>
-        <v>23760</v>
+        <v>16560</v>
       </c>
       <c r="U10" s="14">
         <f>U9*Config!$B$15</f>
-        <v>24912</v>
+        <v>17856</v>
       </c>
       <c r="V10" s="14">
         <f>V9*Config!$B$15</f>
-        <v>26064</v>
+        <v>19296</v>
       </c>
       <c r="W10" s="14">
         <f>W9*Config!$B$15</f>
-        <v>27360</v>
+        <v>20880</v>
       </c>
       <c r="X10" s="14">
         <f>X9*Config!$B$15</f>
-        <v>28800</v>
+        <v>22464</v>
       </c>
       <c r="Y10" s="14">
         <f>Y9*Config!$B$15</f>
-        <v>30240</v>
+        <v>24048</v>
       </c>
       <c r="Z10" s="14">
         <f>Z9*Config!$B$15</f>
-        <v>31680</v>
+        <v>25920</v>
       </c>
       <c r="AA10" s="14">
         <f>AA9*Config!$B$15</f>
-        <v>42595.200000000004</v>
+        <v>35251.200000000004</v>
       </c>
       <c r="AB10" s="14">
         <f>AB9*Config!$B$15</f>
-        <v>44614.8</v>
+        <v>37638</v>
       </c>
       <c r="AC10" s="14">
         <f>AC9*Config!$B$15</f>
-        <v>36720</v>
+        <v>31536</v>
       </c>
       <c r="AD10" s="14">
         <f>AD9*Config!$B$15</f>
-        <v>38592</v>
+        <v>33552</v>
       </c>
       <c r="AE10" s="14">
         <f>AE9*Config!$B$15</f>
-        <v>40464</v>
+        <v>35568</v>
       </c>
       <c r="AF10" s="14">
         <f>AF9*Config!$B$15</f>
-        <v>42480</v>
+        <v>37728</v>
       </c>
       <c r="AG10" s="14">
         <f>AG9*Config!$B$15</f>
-        <v>44640</v>
+        <v>39888</v>
       </c>
       <c r="AH10" s="14">
         <f>AH9*Config!$B$15</f>
-        <v>46944</v>
+        <v>42048</v>
       </c>
       <c r="AI10" s="14">
         <f>AI9*Config!$B$15</f>
-        <v>49248</v>
+        <v>44208</v>
       </c>
       <c r="AJ10" s="14">
         <f>AJ9*Config!$B$15</f>
-        <v>51696</v>
+        <v>46368</v>
       </c>
       <c r="AK10" s="14">
         <f>AK9*Config!$B$15</f>
-        <v>54288</v>
+        <v>48528</v>
       </c>
       <c r="AL10" s="14">
         <f>AL9*Config!$B$15</f>
-        <v>57024</v>
+        <v>50688</v>
       </c>
       <c r="AM10" s="14">
         <f>AM9*Config!$B$15</f>
-        <v>76194</v>
+        <v>67381.2</v>
       </c>
       <c r="AN10" s="14">
         <f>AN9*Config!$B$15</f>
-        <v>80049.600000000006</v>
+        <v>70135.199999999997</v>
       </c>
       <c r="AO10" s="14">
         <f>AO9*Config!$B$15</f>
-        <v>65952</v>
+        <v>57024</v>
       </c>
       <c r="AP10" s="14">
         <f>AP9*Config!$B$15</f>
-        <v>69120</v>
+        <v>59040</v>
       </c>
       <c r="AQ10" s="14">
         <f>AQ9*Config!$B$15</f>
-        <v>72576</v>
+        <v>60912</v>
       </c>
       <c r="AR10" s="14">
         <f>AR9*Config!$B$15</f>
-        <v>76320</v>
+        <v>62784</v>
       </c>
       <c r="AS10" s="14">
         <f>AS9*Config!$B$15</f>
-        <v>80064</v>
+        <v>64512</v>
       </c>
       <c r="AT10" s="14">
         <f>AT9*Config!$B$15</f>
-        <v>84096</v>
+        <v>66240</v>
       </c>
       <c r="AU10" s="14">
         <f>AU9*Config!$B$15</f>
-        <v>88272</v>
+        <v>67824</v>
       </c>
       <c r="AV10" s="14">
         <f>AV9*Config!$B$15</f>
-        <v>92592</v>
+        <v>69408</v>
       </c>
       <c r="AW10" s="14">
         <f>AW9*Config!$B$15</f>
-        <v>97200</v>
+        <v>70848</v>
       </c>
       <c r="AX10" s="14">
         <f>AX9*Config!$B$15</f>
-        <v>102096</v>
+        <v>72144</v>
       </c>
       <c r="AY10" s="14">
         <f>AY9*Config!$B$15</f>
-        <v>136598.39999999999</v>
+        <v>93636</v>
       </c>
       <c r="AZ10" s="14">
         <f>AZ9*Config!$B$15</f>
-        <v>143391.6</v>
+        <v>95104.8</v>
       </c>
       <c r="BA10" s="14">
         <f>BA9*Config!$B$15</f>
-        <v>118080</v>
+        <v>75744</v>
       </c>
       <c r="BB10" s="14">
         <f>BB9*Config!$B$15</f>
-        <v>123840</v>
+        <v>76752</v>
       </c>
       <c r="BC10" s="14">
         <f>BC9*Config!$B$15</f>
-        <v>130032</v>
+        <v>77760</v>
       </c>
       <c r="BD10" s="14">
         <f>BD9*Config!$B$15</f>
-        <v>136512</v>
+        <v>78624</v>
       </c>
       <c r="BE10" s="14">
         <f>BE9*Config!$B$15</f>
-        <v>143280</v>
+        <v>79488</v>
       </c>
       <c r="BF10" s="14">
         <f>BF9*Config!$B$15</f>
-        <v>150336</v>
+        <v>80208</v>
       </c>
       <c r="BG10" s="14">
         <f>BG9*Config!$B$15</f>
-        <v>157824</v>
+        <v>80928</v>
       </c>
       <c r="BH10" s="14">
         <f>BH9*Config!$B$15</f>
-        <v>165600</v>
+        <v>81504</v>
       </c>
       <c r="BI10" s="14">
         <f>BI9*Config!$B$15</f>
-        <v>173808</v>
+        <v>82080</v>
       </c>
       <c r="BJ10" s="14">
         <f>BJ9*Config!$B$15</f>
-        <v>182448</v>
+        <v>82512</v>
       </c>
       <c r="BK10" s="14">
         <f>BK9*Config!$B$15</f>
-        <v>244188</v>
+        <v>105937.2</v>
       </c>
       <c r="BL10" s="14">
         <f>BL9*Config!$B$15</f>
-        <v>256305.6</v>
+        <v>106488</v>
       </c>
       <c r="BM10" s="14">
         <f>BM9*Config!$B$15</f>
-        <v>210960</v>
+        <v>83808</v>
       </c>
       <c r="BN10" s="14">
         <f>BN9*Config!$B$15</f>
-        <v>221328</v>
+        <v>84240</v>
       </c>
       <c r="BO10" s="14">
         <f>BO9*Config!$B$15</f>
-        <v>232272</v>
+        <v>84528</v>
       </c>
       <c r="BP10" s="14">
         <f>BP9*Config!$B$15</f>
-        <v>243792</v>
+        <v>84816</v>
       </c>
     </row>
     <row r="11" spans="1:68" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -3003,259 +3006,259 @@
       </c>
       <c r="E11" s="14">
         <f>E10*Config!$B$23*Config!$B$22</f>
-        <v>2275.2000000000003</v>
+        <v>921.6</v>
       </c>
       <c r="F11" s="14">
         <f>F10*Config!$B$23*Config!$B$22</f>
-        <v>2390.4</v>
+        <v>1008</v>
       </c>
       <c r="G11" s="14">
         <f>G10*Config!$B$23*Config!$B$22</f>
-        <v>2505.6000000000004</v>
+        <v>1094.4000000000001</v>
       </c>
       <c r="H11" s="14">
         <f>H10*Config!$B$23*Config!$B$22</f>
-        <v>2649.6000000000004</v>
+        <v>1209.6000000000001</v>
       </c>
       <c r="I11" s="14">
         <f>I10*Config!$B$23*Config!$B$22</f>
-        <v>2764.8</v>
+        <v>1296</v>
       </c>
       <c r="J11" s="14">
         <f>J10*Config!$B$23*Config!$B$22</f>
-        <v>2908.8</v>
+        <v>1440</v>
       </c>
       <c r="K11" s="14">
         <f>K10*Config!$B$23*Config!$B$22</f>
-        <v>3052.8</v>
+        <v>1555.2</v>
       </c>
       <c r="L11" s="14">
         <f>L10*Config!$B$23*Config!$B$22</f>
-        <v>3196.8</v>
+        <v>1699.2</v>
       </c>
       <c r="M11" s="14">
         <f>M10*Config!$B$23*Config!$B$22</f>
-        <v>3369.6000000000004</v>
+        <v>1872</v>
       </c>
       <c r="N11" s="14">
         <f>N10*Config!$B$23*Config!$B$22</f>
-        <v>3542.4</v>
+        <v>2016</v>
       </c>
       <c r="O11" s="14">
         <f>O10*Config!$B$23*Config!$B$22</f>
-        <v>4736.88</v>
+        <v>2827.4400000000005</v>
       </c>
       <c r="P11" s="14">
         <f>P10*Config!$B$23*Config!$B$22</f>
-        <v>4957.2000000000007</v>
+        <v>3047.76</v>
       </c>
       <c r="Q11" s="14">
         <f>Q10*Config!$B$23*Config!$B$22</f>
-        <v>4089.6000000000004</v>
+        <v>2592</v>
       </c>
       <c r="R11" s="14">
         <f>R10*Config!$B$23*Config!$B$22</f>
-        <v>4291.2</v>
+        <v>2822.4</v>
       </c>
       <c r="S11" s="14">
         <f>S10*Config!$B$23*Config!$B$22</f>
-        <v>4521.6000000000004</v>
+        <v>3052.8</v>
       </c>
       <c r="T11" s="14">
         <f>T10*Config!$B$23*Config!$B$22</f>
-        <v>4752</v>
+        <v>3312</v>
       </c>
       <c r="U11" s="14">
         <f>U10*Config!$B$23*Config!$B$22</f>
-        <v>4982.4000000000005</v>
+        <v>3571.2000000000003</v>
       </c>
       <c r="V11" s="14">
         <f>V10*Config!$B$23*Config!$B$22</f>
-        <v>5212.8</v>
+        <v>3859.2000000000003</v>
       </c>
       <c r="W11" s="14">
         <f>W10*Config!$B$23*Config!$B$22</f>
-        <v>5472</v>
+        <v>4176</v>
       </c>
       <c r="X11" s="14">
         <f>X10*Config!$B$23*Config!$B$22</f>
-        <v>5760</v>
+        <v>4492.8</v>
       </c>
       <c r="Y11" s="14">
         <f>Y10*Config!$B$23*Config!$B$22</f>
-        <v>6048</v>
+        <v>4809.6000000000004</v>
       </c>
       <c r="Z11" s="14">
         <f>Z10*Config!$B$23*Config!$B$22</f>
-        <v>6336</v>
+        <v>5184</v>
       </c>
       <c r="AA11" s="14">
         <f>AA10*Config!$B$23*Config!$B$22</f>
-        <v>8519.0400000000009</v>
+        <v>7050.2400000000016</v>
       </c>
       <c r="AB11" s="14">
         <f>AB10*Config!$B$23*Config!$B$22</f>
-        <v>8922.9600000000009</v>
+        <v>7527.6</v>
       </c>
       <c r="AC11" s="14">
         <f>AC10*Config!$B$23*Config!$B$22</f>
-        <v>7344</v>
+        <v>6307.2000000000007</v>
       </c>
       <c r="AD11" s="14">
         <f>AD10*Config!$B$23*Config!$B$22</f>
-        <v>7718.4000000000005</v>
+        <v>6710.4000000000005</v>
       </c>
       <c r="AE11" s="14">
         <f>AE10*Config!$B$23*Config!$B$22</f>
-        <v>8092.8</v>
+        <v>7113.6</v>
       </c>
       <c r="AF11" s="14">
         <f>AF10*Config!$B$23*Config!$B$22</f>
-        <v>8496</v>
+        <v>7545.6</v>
       </c>
       <c r="AG11" s="14">
         <f>AG10*Config!$B$23*Config!$B$22</f>
-        <v>8928</v>
+        <v>7977.6</v>
       </c>
       <c r="AH11" s="14">
         <f>AH10*Config!$B$23*Config!$B$22</f>
-        <v>9388.8000000000011</v>
+        <v>8409.6</v>
       </c>
       <c r="AI11" s="14">
         <f>AI10*Config!$B$23*Config!$B$22</f>
-        <v>9849.6</v>
+        <v>8841.6</v>
       </c>
       <c r="AJ11" s="14">
         <f>AJ10*Config!$B$23*Config!$B$22</f>
-        <v>10339.200000000001</v>
+        <v>9273.6</v>
       </c>
       <c r="AK11" s="14">
         <f>AK10*Config!$B$23*Config!$B$22</f>
-        <v>10857.6</v>
+        <v>9705.6</v>
       </c>
       <c r="AL11" s="14">
         <f>AL10*Config!$B$23*Config!$B$22</f>
-        <v>11404.800000000001</v>
+        <v>10137.6</v>
       </c>
       <c r="AM11" s="14">
         <f>AM10*Config!$B$23*Config!$B$22</f>
-        <v>15238.800000000001</v>
+        <v>13476.24</v>
       </c>
       <c r="AN11" s="14">
         <f>AN10*Config!$B$23*Config!$B$22</f>
-        <v>16009.920000000002</v>
+        <v>14027.04</v>
       </c>
       <c r="AO11" s="14">
         <f>AO10*Config!$B$23*Config!$B$22</f>
-        <v>13190.400000000001</v>
+        <v>11404.800000000001</v>
       </c>
       <c r="AP11" s="14">
         <f>AP10*Config!$B$23*Config!$B$22</f>
-        <v>13824</v>
+        <v>11808</v>
       </c>
       <c r="AQ11" s="14">
         <f>AQ10*Config!$B$23*Config!$B$22</f>
-        <v>14515.2</v>
+        <v>12182.400000000001</v>
       </c>
       <c r="AR11" s="14">
         <f>AR10*Config!$B$23*Config!$B$22</f>
-        <v>15264</v>
+        <v>12556.800000000001</v>
       </c>
       <c r="AS11" s="14">
         <f>AS10*Config!$B$23*Config!$B$22</f>
-        <v>16012.800000000001</v>
+        <v>12902.400000000001</v>
       </c>
       <c r="AT11" s="14">
         <f>AT10*Config!$B$23*Config!$B$22</f>
-        <v>16819.2</v>
+        <v>13248</v>
       </c>
       <c r="AU11" s="14">
         <f>AU10*Config!$B$23*Config!$B$22</f>
-        <v>17654.400000000001</v>
+        <v>13564.800000000001</v>
       </c>
       <c r="AV11" s="14">
         <f>AV10*Config!$B$23*Config!$B$22</f>
-        <v>18518.400000000001</v>
+        <v>13881.6</v>
       </c>
       <c r="AW11" s="14">
         <f>AW10*Config!$B$23*Config!$B$22</f>
-        <v>19440</v>
+        <v>14169.6</v>
       </c>
       <c r="AX11" s="14">
         <f>AX10*Config!$B$23*Config!$B$22</f>
-        <v>20419.2</v>
+        <v>14428.800000000001</v>
       </c>
       <c r="AY11" s="14">
         <f>AY10*Config!$B$23*Config!$B$22</f>
-        <v>27319.68</v>
+        <v>18727.2</v>
       </c>
       <c r="AZ11" s="14">
         <f>AZ10*Config!$B$23*Config!$B$22</f>
-        <v>28678.320000000003</v>
+        <v>19020.960000000003</v>
       </c>
       <c r="BA11" s="14">
         <f>BA10*Config!$B$23*Config!$B$22</f>
-        <v>23616</v>
+        <v>15148.800000000001</v>
       </c>
       <c r="BB11" s="14">
         <f>BB10*Config!$B$23*Config!$B$22</f>
-        <v>24768</v>
+        <v>15350.400000000001</v>
       </c>
       <c r="BC11" s="14">
         <f>BC10*Config!$B$23*Config!$B$22</f>
-        <v>26006.400000000001</v>
+        <v>15552</v>
       </c>
       <c r="BD11" s="14">
         <f>BD10*Config!$B$23*Config!$B$22</f>
-        <v>27302.400000000001</v>
+        <v>15724.800000000001</v>
       </c>
       <c r="BE11" s="14">
         <f>BE10*Config!$B$23*Config!$B$22</f>
-        <v>28656</v>
+        <v>15897.6</v>
       </c>
       <c r="BF11" s="14">
         <f>BF10*Config!$B$23*Config!$B$22</f>
-        <v>30067.200000000001</v>
+        <v>16041.6</v>
       </c>
       <c r="BG11" s="14">
         <f>BG10*Config!$B$23*Config!$B$22</f>
-        <v>31564.800000000003</v>
+        <v>16185.6</v>
       </c>
       <c r="BH11" s="14">
         <f>BH10*Config!$B$23*Config!$B$22</f>
-        <v>33120</v>
+        <v>16300.800000000001</v>
       </c>
       <c r="BI11" s="14">
         <f>BI10*Config!$B$23*Config!$B$22</f>
-        <v>34761.599999999999</v>
+        <v>16416</v>
       </c>
       <c r="BJ11" s="14">
         <f>BJ10*Config!$B$23*Config!$B$22</f>
-        <v>36489.599999999999</v>
+        <v>16502.400000000001</v>
       </c>
       <c r="BK11" s="14">
         <f>BK10*Config!$B$23*Config!$B$22</f>
-        <v>48837.600000000006</v>
+        <v>21187.440000000002</v>
       </c>
       <c r="BL11" s="14">
         <f>BL10*Config!$B$23*Config!$B$22</f>
-        <v>51261.120000000003</v>
+        <v>21297.600000000002</v>
       </c>
       <c r="BM11" s="14">
         <f>BM10*Config!$B$23*Config!$B$22</f>
-        <v>42192</v>
+        <v>16761.600000000002</v>
       </c>
       <c r="BN11" s="14">
         <f>BN10*Config!$B$23*Config!$B$22</f>
-        <v>44265.600000000006</v>
+        <v>16848</v>
       </c>
       <c r="BO11" s="14">
         <f>BO10*Config!$B$23*Config!$B$22</f>
-        <v>46454.400000000001</v>
+        <v>16905.600000000002</v>
       </c>
       <c r="BP11" s="14">
         <f>BP10*Config!$B$23*Config!$B$22</f>
-        <v>48758.400000000001</v>
+        <v>16963.2</v>
       </c>
     </row>
     <row r="12" spans="1:68" x14ac:dyDescent="0.25">
@@ -3345,259 +3348,259 @@
       </c>
       <c r="E13" s="25">
         <f t="shared" si="50"/>
-        <v>2275.2000000000003</v>
+        <v>921.6</v>
       </c>
       <c r="F13" s="25">
         <f t="shared" si="50"/>
-        <v>2390.4</v>
+        <v>1008</v>
       </c>
       <c r="G13" s="25">
         <f t="shared" ref="G13:H13" si="51">G11</f>
-        <v>2505.6000000000004</v>
+        <v>1094.4000000000001</v>
       </c>
       <c r="H13" s="25">
         <f t="shared" si="51"/>
-        <v>2649.6000000000004</v>
+        <v>1209.6000000000001</v>
       </c>
       <c r="I13" s="25">
         <f t="shared" ref="I13:Z13" si="52">I11</f>
-        <v>2764.8</v>
+        <v>1296</v>
       </c>
       <c r="J13" s="25">
         <f t="shared" si="52"/>
-        <v>2908.8</v>
+        <v>1440</v>
       </c>
       <c r="K13" s="25">
         <f t="shared" si="52"/>
-        <v>3052.8</v>
+        <v>1555.2</v>
       </c>
       <c r="L13" s="25">
         <f t="shared" si="52"/>
-        <v>3196.8</v>
+        <v>1699.2</v>
       </c>
       <c r="M13" s="25">
         <f t="shared" si="52"/>
-        <v>3369.6000000000004</v>
+        <v>1872</v>
       </c>
       <c r="N13" s="25">
         <f t="shared" si="52"/>
-        <v>3542.4</v>
+        <v>2016</v>
       </c>
       <c r="O13" s="25">
         <f t="shared" si="52"/>
-        <v>4736.88</v>
+        <v>2827.4400000000005</v>
       </c>
       <c r="P13" s="25">
         <f t="shared" si="52"/>
-        <v>4957.2000000000007</v>
+        <v>3047.76</v>
       </c>
       <c r="Q13" s="25">
         <f t="shared" si="52"/>
-        <v>4089.6000000000004</v>
+        <v>2592</v>
       </c>
       <c r="R13" s="25">
         <f t="shared" si="52"/>
-        <v>4291.2</v>
+        <v>2822.4</v>
       </c>
       <c r="S13" s="25">
         <f t="shared" si="52"/>
-        <v>4521.6000000000004</v>
+        <v>3052.8</v>
       </c>
       <c r="T13" s="25">
         <f t="shared" si="52"/>
-        <v>4752</v>
+        <v>3312</v>
       </c>
       <c r="U13" s="25">
         <f t="shared" si="52"/>
-        <v>4982.4000000000005</v>
+        <v>3571.2000000000003</v>
       </c>
       <c r="V13" s="25">
         <f t="shared" si="52"/>
-        <v>5212.8</v>
+        <v>3859.2000000000003</v>
       </c>
       <c r="W13" s="25">
         <f t="shared" si="52"/>
-        <v>5472</v>
+        <v>4176</v>
       </c>
       <c r="X13" s="25">
         <f t="shared" si="52"/>
-        <v>5760</v>
+        <v>4492.8</v>
       </c>
       <c r="Y13" s="25">
         <f t="shared" si="52"/>
-        <v>6048</v>
+        <v>4809.6000000000004</v>
       </c>
       <c r="Z13" s="25">
         <f t="shared" si="52"/>
-        <v>6336</v>
+        <v>5184</v>
       </c>
       <c r="AA13" s="25">
         <f t="shared" ref="AA13:AN13" si="53">AA11</f>
-        <v>8519.0400000000009</v>
+        <v>7050.2400000000016</v>
       </c>
       <c r="AB13" s="25">
         <f t="shared" si="53"/>
-        <v>8922.9600000000009</v>
+        <v>7527.6</v>
       </c>
       <c r="AC13" s="25">
         <f t="shared" si="53"/>
-        <v>7344</v>
+        <v>6307.2000000000007</v>
       </c>
       <c r="AD13" s="25">
         <f t="shared" si="53"/>
-        <v>7718.4000000000005</v>
+        <v>6710.4000000000005</v>
       </c>
       <c r="AE13" s="25">
         <f t="shared" si="53"/>
-        <v>8092.8</v>
+        <v>7113.6</v>
       </c>
       <c r="AF13" s="25">
         <f t="shared" si="53"/>
-        <v>8496</v>
+        <v>7545.6</v>
       </c>
       <c r="AG13" s="25">
         <f t="shared" si="53"/>
-        <v>8928</v>
+        <v>7977.6</v>
       </c>
       <c r="AH13" s="25">
         <f t="shared" si="53"/>
-        <v>9388.8000000000011</v>
+        <v>8409.6</v>
       </c>
       <c r="AI13" s="25">
         <f t="shared" si="53"/>
-        <v>9849.6</v>
+        <v>8841.6</v>
       </c>
       <c r="AJ13" s="25">
         <f t="shared" si="53"/>
-        <v>10339.200000000001</v>
+        <v>9273.6</v>
       </c>
       <c r="AK13" s="25">
         <f t="shared" si="53"/>
-        <v>10857.6</v>
+        <v>9705.6</v>
       </c>
       <c r="AL13" s="25">
         <f t="shared" si="53"/>
-        <v>11404.800000000001</v>
+        <v>10137.6</v>
       </c>
       <c r="AM13" s="25">
         <f t="shared" si="53"/>
-        <v>15238.800000000001</v>
+        <v>13476.24</v>
       </c>
       <c r="AN13" s="25">
         <f t="shared" si="53"/>
-        <v>16009.920000000002</v>
+        <v>14027.04</v>
       </c>
       <c r="AO13" s="25">
         <f t="shared" ref="AO13:AR13" si="54">AO11</f>
-        <v>13190.400000000001</v>
+        <v>11404.800000000001</v>
       </c>
       <c r="AP13" s="25">
         <f t="shared" si="54"/>
-        <v>13824</v>
+        <v>11808</v>
       </c>
       <c r="AQ13" s="25">
         <f t="shared" si="54"/>
-        <v>14515.2</v>
+        <v>12182.400000000001</v>
       </c>
       <c r="AR13" s="25">
         <f t="shared" si="54"/>
-        <v>15264</v>
+        <v>12556.800000000001</v>
       </c>
       <c r="AS13" s="25">
         <f t="shared" ref="AS13:BN13" si="55">AS11</f>
-        <v>16012.800000000001</v>
+        <v>12902.400000000001</v>
       </c>
       <c r="AT13" s="25">
         <f t="shared" si="55"/>
-        <v>16819.2</v>
+        <v>13248</v>
       </c>
       <c r="AU13" s="25">
         <f t="shared" si="55"/>
-        <v>17654.400000000001</v>
+        <v>13564.800000000001</v>
       </c>
       <c r="AV13" s="25">
         <f t="shared" si="55"/>
-        <v>18518.400000000001</v>
+        <v>13881.6</v>
       </c>
       <c r="AW13" s="25">
         <f t="shared" si="55"/>
-        <v>19440</v>
+        <v>14169.6</v>
       </c>
       <c r="AX13" s="25">
         <f t="shared" si="55"/>
-        <v>20419.2</v>
+        <v>14428.800000000001</v>
       </c>
       <c r="AY13" s="25">
         <f t="shared" si="55"/>
-        <v>27319.68</v>
+        <v>18727.2</v>
       </c>
       <c r="AZ13" s="25">
         <f t="shared" si="55"/>
-        <v>28678.320000000003</v>
+        <v>19020.960000000003</v>
       </c>
       <c r="BA13" s="25">
         <f t="shared" si="55"/>
-        <v>23616</v>
+        <v>15148.800000000001</v>
       </c>
       <c r="BB13" s="25">
         <f t="shared" si="55"/>
-        <v>24768</v>
+        <v>15350.400000000001</v>
       </c>
       <c r="BC13" s="25">
         <f t="shared" si="55"/>
-        <v>26006.400000000001</v>
+        <v>15552</v>
       </c>
       <c r="BD13" s="25">
         <f t="shared" si="55"/>
-        <v>27302.400000000001</v>
+        <v>15724.800000000001</v>
       </c>
       <c r="BE13" s="25">
         <f t="shared" si="55"/>
-        <v>28656</v>
+        <v>15897.6</v>
       </c>
       <c r="BF13" s="25">
         <f t="shared" si="55"/>
-        <v>30067.200000000001</v>
+        <v>16041.6</v>
       </c>
       <c r="BG13" s="25">
         <f t="shared" si="55"/>
-        <v>31564.800000000003</v>
+        <v>16185.6</v>
       </c>
       <c r="BH13" s="25">
         <f t="shared" si="55"/>
-        <v>33120</v>
+        <v>16300.800000000001</v>
       </c>
       <c r="BI13" s="25">
         <f t="shared" si="55"/>
-        <v>34761.599999999999</v>
+        <v>16416</v>
       </c>
       <c r="BJ13" s="25">
         <f t="shared" si="55"/>
-        <v>36489.599999999999</v>
+        <v>16502.400000000001</v>
       </c>
       <c r="BK13" s="25">
         <f t="shared" si="55"/>
-        <v>48837.600000000006</v>
+        <v>21187.440000000002</v>
       </c>
       <c r="BL13" s="25">
         <f t="shared" si="55"/>
-        <v>51261.120000000003</v>
+        <v>21297.600000000002</v>
       </c>
       <c r="BM13" s="25">
         <f t="shared" si="55"/>
-        <v>42192</v>
+        <v>16761.600000000002</v>
       </c>
       <c r="BN13" s="25">
         <f t="shared" si="55"/>
-        <v>44265.600000000006</v>
+        <v>16848</v>
       </c>
       <c r="BO13" s="25">
         <f t="shared" ref="BO13:BP13" si="56">BO11</f>
-        <v>46454.400000000001</v>
+        <v>16905.600000000002</v>
       </c>
       <c r="BP13" s="25">
         <f t="shared" si="56"/>
-        <v>48758.400000000001</v>
+        <v>16963.2</v>
       </c>
     </row>
     <row r="14" spans="1:68" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -4218,139 +4221,139 @@
       </c>
       <c r="AI18" s="14">
         <f>MAX(Config!$B$31,AI4/Config!$A$30*Config!$B$30)</f>
-        <v>84.468069600000007</v>
+        <v>81.659000000000006</v>
       </c>
       <c r="AJ18" s="14">
         <f>MAX(Config!$B$31,AJ4/Config!$A$30*Config!$B$30)</f>
-        <v>88.681674000000001</v>
+        <v>81.659000000000006</v>
       </c>
       <c r="AK18" s="14">
         <f>MAX(Config!$B$31,AK4/Config!$A$30*Config!$B$30)</f>
-        <v>93.107591799999994</v>
+        <v>83.390170800000007</v>
       </c>
       <c r="AL18" s="14">
         <f>MAX(Config!$B$31,AL4/Config!$A$30*Config!$B$30)</f>
-        <v>97.745823000000001</v>
+        <v>87.097489400000001</v>
       </c>
       <c r="AM18" s="14">
         <f>MAX(Config!$B$31,AM4/Config!$A$30*Config!$B$30)</f>
-        <v>102.6126994</v>
+        <v>90.755812599999999</v>
       </c>
       <c r="AN18" s="14">
         <f>MAX(Config!$B$31,AN4/Config!$A$30*Config!$B$30)</f>
-        <v>107.72455280000001</v>
+        <v>94.348808600000012</v>
       </c>
       <c r="AO18" s="14">
         <f>MAX(Config!$B$31,AO4/Config!$A$30*Config!$B$30)</f>
-        <v>113.09771500000001</v>
+        <v>97.86014560000001</v>
       </c>
       <c r="AP18" s="14">
         <f>MAX(Config!$B$31,AP4/Config!$A$30*Config!$B$30)</f>
-        <v>118.73218600000001</v>
+        <v>101.2734918</v>
       </c>
       <c r="AQ18" s="14">
         <f>MAX(Config!$B$31,AQ4/Config!$A$30*Config!$B$30)</f>
-        <v>124.6442976</v>
+        <v>104.57251540000001</v>
       </c>
       <c r="AR18" s="14">
         <f>MAX(Config!$B$31,AR4/Config!$A$30*Config!$B$30)</f>
-        <v>130.85038159999999</v>
+        <v>107.7572164</v>
       </c>
       <c r="AS18" s="14">
         <f>MAX(Config!$B$31,AS4/Config!$A$30*Config!$B$30)</f>
-        <v>137.36676980000001</v>
+        <v>110.811263</v>
       </c>
       <c r="AT18" s="14">
         <f>MAX(Config!$B$31,AT4/Config!$A$30*Config!$B$30)</f>
-        <v>144.20979400000002</v>
+        <v>113.7183234</v>
       </c>
       <c r="AU18" s="14">
         <f>MAX(Config!$B$31,AU4/Config!$A$30*Config!$B$30)</f>
-        <v>151.3794542</v>
+        <v>116.49472940000001</v>
       </c>
       <c r="AV18" s="14">
         <f>MAX(Config!$B$31,AV4/Config!$A$30*Config!$B$30)</f>
-        <v>158.90841399999999</v>
+        <v>119.12414920000002</v>
       </c>
       <c r="AW18" s="14">
         <f>MAX(Config!$B$31,AW4/Config!$A$30*Config!$B$30)</f>
-        <v>166.81300519999999</v>
+        <v>121.59025100000001</v>
       </c>
       <c r="AX18" s="14">
         <f>MAX(Config!$B$31,AX4/Config!$A$30*Config!$B$30)</f>
-        <v>175.10955960000001</v>
+        <v>123.90936660000001</v>
       </c>
       <c r="AY18" s="14">
         <f>MAX(Config!$B$31,AY4/Config!$A$30*Config!$B$30)</f>
-        <v>183.81440900000001</v>
+        <v>126.08149600000002</v>
       </c>
       <c r="AZ18" s="14">
         <f>MAX(Config!$B$31,AZ4/Config!$A$30*Config!$B$30)</f>
-        <v>192.94388520000001</v>
+        <v>128.12297100000001</v>
       </c>
       <c r="BA18" s="14">
         <f>MAX(Config!$B$31,BA4/Config!$A$30*Config!$B$30)</f>
-        <v>202.53065179999999</v>
+        <v>130.01745980000001</v>
       </c>
       <c r="BB18" s="14">
         <f>MAX(Config!$B$31,BB4/Config!$A$30*Config!$B$30)</f>
-        <v>212.59104060000001</v>
+        <v>131.78129419999999</v>
       </c>
       <c r="BC18" s="14">
         <f>MAX(Config!$B$31,BC4/Config!$A$30*Config!$B$30)</f>
-        <v>223.14138340000002</v>
+        <v>133.4144742</v>
       </c>
       <c r="BD18" s="14">
         <f>MAX(Config!$B$31,BD4/Config!$A$30*Config!$B$30)</f>
-        <v>234.21434380000002</v>
+        <v>134.91699980000001</v>
       </c>
       <c r="BE18" s="14">
         <f>MAX(Config!$B$31,BE4/Config!$A$30*Config!$B$30)</f>
-        <v>245.84258540000002</v>
+        <v>136.30520280000002</v>
       </c>
       <c r="BF18" s="14">
         <f>MAX(Config!$B$31,BF4/Config!$A$30*Config!$B$30)</f>
-        <v>258.04244</v>
+        <v>137.57908319999999</v>
       </c>
       <c r="BG18" s="14">
         <f>MAX(Config!$B$31,BG4/Config!$A$30*Config!$B$30)</f>
-        <v>270.84657119999997</v>
+        <v>138.75497279999999</v>
       </c>
       <c r="BH18" s="14">
         <f>MAX(Config!$B$31,BH4/Config!$A$30*Config!$B$30)</f>
-        <v>284.27131079999998</v>
+        <v>139.81653980000002</v>
       </c>
       <c r="BI18" s="14">
         <f>MAX(Config!$B$31,BI4/Config!$A$30*Config!$B$30)</f>
-        <v>298.36565419999999</v>
+        <v>140.79644780000001</v>
       </c>
       <c r="BJ18" s="14">
         <f>MAX(Config!$B$31,BJ4/Config!$A$30*Config!$B$30)</f>
-        <v>313.1459332</v>
+        <v>141.6946968</v>
       </c>
       <c r="BK18" s="14">
         <f>MAX(Config!$B$31,BK4/Config!$A$30*Config!$B$30)</f>
-        <v>328.64481139999998</v>
+        <v>142.51128680000002</v>
       </c>
       <c r="BL18" s="14">
         <f>MAX(Config!$B$31,BL4/Config!$A$30*Config!$B$30)</f>
-        <v>344.91128420000001</v>
+        <v>143.24621780000001</v>
       </c>
       <c r="BM18" s="14">
         <f>MAX(Config!$B$31,BM4/Config!$A$30*Config!$B$30)</f>
-        <v>361.97801520000002</v>
+        <v>143.91582160000002</v>
       </c>
       <c r="BN18" s="14">
         <f>MAX(Config!$B$31,BN4/Config!$A$30*Config!$B$30)</f>
-        <v>379.87766800000003</v>
+        <v>144.53643</v>
       </c>
       <c r="BO18" s="14">
         <f>MAX(Config!$B$31,BO4/Config!$A$30*Config!$B$30)</f>
-        <v>398.64290620000003</v>
+        <v>145.09171120000002</v>
       </c>
       <c r="BP18" s="14">
         <f>MAX(Config!$B$31,BP4/Config!$A$30*Config!$B$30)</f>
-        <v>418.32272519999998</v>
+        <v>145.59799699999999</v>
       </c>
     </row>
     <row r="19" spans="1:68" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -4371,255 +4374,255 @@
       </c>
       <c r="F19" s="14">
         <f>F5*Config!$B$25</f>
-        <v>960</v>
+        <v>900</v>
       </c>
       <c r="G19" s="14">
         <f>G5*Config!$B$25</f>
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="H19" s="14">
         <f>H5*Config!$B$25</f>
-        <v>1056</v>
+        <v>1080</v>
       </c>
       <c r="I19" s="14">
         <f>I5*Config!$B$25</f>
-        <v>1104</v>
+        <v>1180</v>
       </c>
       <c r="J19" s="14">
         <f>J5*Config!$B$25</f>
-        <v>1168</v>
+        <v>1280</v>
       </c>
       <c r="K19" s="14">
         <f>K5*Config!$B$25</f>
-        <v>1216</v>
+        <v>1380</v>
       </c>
       <c r="L19" s="14">
         <f>L5*Config!$B$25</f>
-        <v>1280</v>
+        <v>1500</v>
       </c>
       <c r="M19" s="14">
         <f>M5*Config!$B$25</f>
-        <v>1344</v>
+        <v>1620</v>
       </c>
       <c r="N19" s="14">
         <f>N5*Config!$B$25</f>
-        <v>1408</v>
+        <v>1740</v>
       </c>
       <c r="O19" s="14">
         <f>O5*Config!$B$25</f>
-        <v>1488</v>
+        <v>1880</v>
       </c>
       <c r="P19" s="14">
         <f>P5*Config!$B$25</f>
-        <v>1568</v>
+        <v>2020</v>
       </c>
       <c r="Q19" s="14">
         <f>Q5*Config!$B$25</f>
-        <v>1632</v>
+        <v>2180</v>
       </c>
       <c r="R19" s="14">
         <f>R5*Config!$B$25</f>
-        <v>1712</v>
+        <v>2320</v>
       </c>
       <c r="S19" s="14">
         <f>S5*Config!$B$25</f>
-        <v>1808</v>
+        <v>2480</v>
       </c>
       <c r="T19" s="14">
         <f>T5*Config!$B$25</f>
-        <v>1888</v>
+        <v>2660</v>
       </c>
       <c r="U19" s="14">
         <f>U5*Config!$B$25</f>
-        <v>1984</v>
+        <v>2820</v>
       </c>
       <c r="V19" s="14">
         <f>V5*Config!$B$25</f>
-        <v>2096</v>
+        <v>3000</v>
       </c>
       <c r="W19" s="14">
         <f>W5*Config!$B$25</f>
-        <v>2192</v>
+        <v>3160</v>
       </c>
       <c r="X19" s="14">
         <f>X5*Config!$B$25</f>
-        <v>2304</v>
+        <v>3340</v>
       </c>
       <c r="Y19" s="14">
         <f>Y5*Config!$B$25</f>
-        <v>2416</v>
+        <v>3500</v>
       </c>
       <c r="Z19" s="14">
         <f>Z5*Config!$B$25</f>
-        <v>2544</v>
+        <v>3680</v>
       </c>
       <c r="AA19" s="14">
         <f>AA5*Config!$B$25</f>
-        <v>2672</v>
+        <v>3820</v>
       </c>
       <c r="AB19" s="14">
         <f>AB5*Config!$B$25</f>
-        <v>2800</v>
+        <v>3980</v>
       </c>
       <c r="AC19" s="14">
         <f>AC5*Config!$B$25</f>
-        <v>2944</v>
+        <v>4120</v>
       </c>
       <c r="AD19" s="14">
         <f>AD5*Config!$B$25</f>
-        <v>3088</v>
+        <v>4240</v>
       </c>
       <c r="AE19" s="14">
         <f>AE5*Config!$B$25</f>
-        <v>3232</v>
+        <v>4340</v>
       </c>
       <c r="AF19" s="14">
         <f>AF5*Config!$B$25</f>
-        <v>3392</v>
+        <v>4440</v>
       </c>
       <c r="AG19" s="14">
         <f>AG5*Config!$B$25</f>
-        <v>3568</v>
+        <v>4520</v>
       </c>
       <c r="AH19" s="14">
         <f>AH5*Config!$B$25</f>
-        <v>3744</v>
+        <v>4560</v>
       </c>
       <c r="AI19" s="14">
         <f>AI5*Config!$B$25</f>
-        <v>3936</v>
+        <v>4600</v>
       </c>
       <c r="AJ19" s="14">
         <f>AJ5*Config!$B$25</f>
-        <v>4128</v>
+        <v>4600</v>
       </c>
       <c r="AK19" s="14">
         <f>AK5*Config!$B$25</f>
-        <v>4336</v>
+        <v>4580</v>
       </c>
       <c r="AL19" s="14">
         <f>AL5*Config!$B$25</f>
-        <v>4544</v>
+        <v>4540</v>
       </c>
       <c r="AM19" s="14">
         <f>AM5*Config!$B$25</f>
-        <v>4768</v>
+        <v>4480</v>
       </c>
       <c r="AN19" s="14">
         <f>AN5*Config!$B$25</f>
-        <v>5008</v>
+        <v>4400</v>
       </c>
       <c r="AO19" s="14">
         <f>AO5*Config!$B$25</f>
-        <v>5264</v>
+        <v>4300</v>
       </c>
       <c r="AP19" s="14">
         <f>AP5*Config!$B$25</f>
-        <v>5520</v>
+        <v>4180</v>
       </c>
       <c r="AQ19" s="14">
         <f>AQ5*Config!$B$25</f>
-        <v>5792</v>
+        <v>4040</v>
       </c>
       <c r="AR19" s="14">
         <f>AR5*Config!$B$25</f>
-        <v>6080</v>
+        <v>3900</v>
       </c>
       <c r="AS19" s="14">
         <f>AS5*Config!$B$25</f>
-        <v>6384</v>
+        <v>3740</v>
       </c>
       <c r="AT19" s="14">
         <f>AT5*Config!$B$25</f>
-        <v>6704</v>
+        <v>3560</v>
       </c>
       <c r="AU19" s="14">
         <f>AU5*Config!$B$25</f>
-        <v>7024</v>
+        <v>3400</v>
       </c>
       <c r="AV19" s="14">
         <f>AV5*Config!$B$25</f>
-        <v>7376</v>
+        <v>3220</v>
       </c>
       <c r="AW19" s="14">
         <f>AW5*Config!$B$25</f>
-        <v>7744</v>
+        <v>3020</v>
       </c>
       <c r="AX19" s="14">
         <f>AX5*Config!$B$25</f>
-        <v>8128</v>
+        <v>2840</v>
       </c>
       <c r="AY19" s="14">
         <f>AY5*Config!$B$25</f>
-        <v>8528</v>
+        <v>2660</v>
       </c>
       <c r="AZ19" s="14">
         <f>AZ5*Config!$B$25</f>
-        <v>8944</v>
+        <v>2500</v>
       </c>
       <c r="BA19" s="14">
         <f>BA5*Config!$B$25</f>
-        <v>9392</v>
+        <v>2320</v>
       </c>
       <c r="BB19" s="14">
         <f>BB5*Config!$B$25</f>
-        <v>9856</v>
+        <v>2160</v>
       </c>
       <c r="BC19" s="14">
         <f>BC5*Config!$B$25</f>
-        <v>10336</v>
+        <v>2000</v>
       </c>
       <c r="BD19" s="14">
         <f>BD5*Config!$B$25</f>
-        <v>10848</v>
+        <v>1840</v>
       </c>
       <c r="BE19" s="14">
         <f>BE5*Config!$B$25</f>
-        <v>11392</v>
+        <v>1700</v>
       </c>
       <c r="BF19" s="14">
         <f>BF5*Config!$B$25</f>
-        <v>11952</v>
+        <v>1560</v>
       </c>
       <c r="BG19" s="14">
         <f>BG5*Config!$B$25</f>
-        <v>12544</v>
+        <v>1440</v>
       </c>
       <c r="BH19" s="14">
         <f>BH5*Config!$B$25</f>
-        <v>13152</v>
+        <v>1300</v>
       </c>
       <c r="BI19" s="14">
         <f>BI5*Config!$B$25</f>
-        <v>13808</v>
+        <v>1200</v>
       </c>
       <c r="BJ19" s="14">
         <f>BJ5*Config!$B$25</f>
-        <v>14480</v>
+        <v>1100</v>
       </c>
       <c r="BK19" s="14">
         <f>BK5*Config!$B$25</f>
-        <v>15184</v>
+        <v>1000</v>
       </c>
       <c r="BL19" s="14">
         <f>BL5*Config!$B$25</f>
-        <v>15936</v>
+        <v>900</v>
       </c>
       <c r="BM19" s="14">
         <f>BM5*Config!$B$25</f>
-        <v>16720</v>
+        <v>820</v>
       </c>
       <c r="BN19" s="14">
         <f>BN5*Config!$B$25</f>
-        <v>17536</v>
+        <v>760</v>
       </c>
       <c r="BO19" s="14">
         <f>BO5*Config!$B$25</f>
-        <v>18384</v>
+        <v>680</v>
       </c>
       <c r="BP19" s="14">
         <f>BP5*Config!$B$25</f>
-        <v>19280</v>
+        <v>620</v>
       </c>
     </row>
     <row r="20" spans="1:68" x14ac:dyDescent="0.25">
@@ -6499,255 +6502,255 @@
       </c>
       <c r="F31" s="25">
         <f t="shared" si="61"/>
-        <v>3292.7556666666669</v>
+        <v>3232.7556666666669</v>
       </c>
       <c r="G31" s="25">
         <f t="shared" si="61"/>
-        <v>3400.7556666666669</v>
+        <v>3392.7556666666669</v>
       </c>
       <c r="H31" s="25">
         <f t="shared" si="61"/>
-        <v>3388.7556666666669</v>
+        <v>3412.7556666666669</v>
       </c>
       <c r="I31" s="25">
         <f t="shared" si="61"/>
-        <v>3436.7556666666669</v>
+        <v>3512.7556666666669</v>
       </c>
       <c r="J31" s="25">
         <f t="shared" si="61"/>
-        <v>3560.7556666666669</v>
+        <v>3672.7556666666669</v>
       </c>
       <c r="K31" s="25">
         <f t="shared" si="61"/>
-        <v>3548.7556666666669</v>
+        <v>3712.7556666666669</v>
       </c>
       <c r="L31" s="25">
         <f t="shared" si="61"/>
-        <v>3672.7556666666669</v>
+        <v>3892.7556666666669</v>
       </c>
       <c r="M31" s="25">
         <f t="shared" si="61"/>
-        <v>3676.7556666666669</v>
+        <v>3952.7556666666669</v>
       </c>
       <c r="N31" s="25">
         <f t="shared" si="61"/>
-        <v>3740.7556666666669</v>
+        <v>4072.7556666666669</v>
       </c>
       <c r="O31" s="25">
         <f t="shared" si="61"/>
-        <v>3820.7556666666669</v>
+        <v>4212.7556666666669</v>
       </c>
       <c r="P31" s="25">
         <f t="shared" si="61"/>
-        <v>3900.7556666666669</v>
+        <v>4352.7556666666669</v>
       </c>
       <c r="Q31" s="25">
         <f t="shared" si="61"/>
-        <v>3964.7556666666669</v>
+        <v>4512.7556666666669</v>
       </c>
       <c r="R31" s="25">
         <f t="shared" si="61"/>
-        <v>4044.7556666666669</v>
+        <v>4652.7556666666669</v>
       </c>
       <c r="S31" s="25">
         <f t="shared" si="61"/>
-        <v>4200.7556666666669</v>
+        <v>4872.7556666666669</v>
       </c>
       <c r="T31" s="25">
         <f t="shared" si="61"/>
-        <v>4220.7556666666669</v>
+        <v>4992.7556666666669</v>
       </c>
       <c r="U31" s="25">
         <f t="shared" si="61"/>
-        <v>4316.7556666666669</v>
+        <v>5152.7556666666669</v>
       </c>
       <c r="V31" s="25">
         <f t="shared" si="61"/>
-        <v>4488.7556666666669</v>
+        <v>5392.7556666666669</v>
       </c>
       <c r="W31" s="25">
         <f t="shared" si="61"/>
-        <v>4524.7556666666669</v>
+        <v>5492.7556666666669</v>
       </c>
       <c r="X31" s="25">
         <f t="shared" si="61"/>
-        <v>4696.7556666666669</v>
+        <v>5732.7556666666669</v>
       </c>
       <c r="Y31" s="25">
         <f t="shared" si="61"/>
-        <v>4748.7556666666669</v>
+        <v>5832.7556666666669</v>
       </c>
       <c r="Z31" s="25">
         <f t="shared" si="61"/>
-        <v>4876.7556666666669</v>
+        <v>6012.7556666666669</v>
       </c>
       <c r="AA31" s="25">
         <f t="shared" si="61"/>
-        <v>5004.7556666666669</v>
+        <v>6152.7556666666669</v>
       </c>
       <c r="AB31" s="25">
         <f t="shared" si="61"/>
-        <v>5132.7556666666669</v>
+        <v>6312.7556666666669</v>
       </c>
       <c r="AC31" s="25">
         <f t="shared" si="61"/>
-        <v>5276.7556666666669</v>
+        <v>6452.7556666666669</v>
       </c>
       <c r="AD31" s="25">
         <f t="shared" si="61"/>
-        <v>5420.7556666666669</v>
+        <v>6572.7556666666669</v>
       </c>
       <c r="AE31" s="25">
         <f t="shared" si="61"/>
-        <v>5624.7556666666669</v>
+        <v>6732.7556666666669</v>
       </c>
       <c r="AF31" s="25">
         <f t="shared" si="61"/>
-        <v>5724.7556666666669</v>
+        <v>6772.7556666666669</v>
       </c>
       <c r="AG31" s="25">
         <f t="shared" si="61"/>
-        <v>5900.7556666666669</v>
+        <v>6852.7556666666669</v>
       </c>
       <c r="AH31" s="25">
         <f t="shared" si="61"/>
-        <v>6136.7556666666669</v>
+        <v>6952.7556666666669</v>
       </c>
       <c r="AI31" s="25">
         <f t="shared" si="61"/>
-        <v>6271.5647362666668</v>
+        <v>6932.7556666666669</v>
       </c>
       <c r="AJ31" s="25">
         <f t="shared" si="61"/>
-        <v>6527.7783406666667</v>
+        <v>6992.7556666666669</v>
       </c>
       <c r="AK31" s="25">
         <f t="shared" si="61"/>
-        <v>6680.2042584666669</v>
+        <v>6914.4868374666667</v>
       </c>
       <c r="AL31" s="25">
         <f t="shared" si="61"/>
-        <v>6892.8424896666666</v>
+        <v>6878.1941560666664</v>
       </c>
       <c r="AM31" s="25">
         <f t="shared" si="61"/>
-        <v>7121.7093660666669</v>
+        <v>6821.8524792666667</v>
       </c>
       <c r="AN31" s="25">
         <f t="shared" si="61"/>
-        <v>7366.8212194666667</v>
+        <v>6745.445475266667</v>
       </c>
       <c r="AO31" s="25">
         <f t="shared" ref="AO31:AR31" si="62">SUM(AO17:AO29)</f>
-        <v>7628.1943816666671</v>
+        <v>6648.9568122666669</v>
       </c>
       <c r="AP31" s="25">
         <f t="shared" si="62"/>
-        <v>7889.8288526666665</v>
+        <v>6532.3701584666669</v>
       </c>
       <c r="AQ31" s="25">
         <f t="shared" si="62"/>
-        <v>8227.740964266668</v>
+        <v>6455.6691820666665</v>
       </c>
       <c r="AR31" s="25">
         <f t="shared" si="62"/>
-        <v>8461.9470482666675</v>
+        <v>6258.8538830666666</v>
       </c>
       <c r="AS31" s="25">
         <f t="shared" ref="AS31:BN31" si="63">SUM(AS17:AS29)</f>
-        <v>8772.4634364666672</v>
+        <v>6101.9079296666669</v>
       </c>
       <c r="AT31" s="25">
         <f t="shared" si="63"/>
-        <v>9159.3064606666667</v>
+        <v>5984.8149900666667</v>
       </c>
       <c r="AU31" s="25">
         <f t="shared" si="63"/>
-        <v>9426.4761208666678</v>
+        <v>5767.5913960666667</v>
       </c>
       <c r="AV31" s="25">
         <f t="shared" si="63"/>
-        <v>9846.0050806666659</v>
+        <v>5650.2208158666663</v>
       </c>
       <c r="AW31" s="25">
         <f t="shared" si="63"/>
-        <v>10161.909671866666</v>
+        <v>5392.6869176666669</v>
       </c>
       <c r="AX31" s="25">
         <f t="shared" si="63"/>
-        <v>10554.206226266666</v>
+        <v>5215.0060332666662</v>
       </c>
       <c r="AY31" s="25">
         <f t="shared" si="63"/>
-        <v>10962.911075666665</v>
+        <v>5037.1781626666661</v>
       </c>
       <c r="AZ31" s="25">
         <f t="shared" si="63"/>
-        <v>11388.040551866667</v>
+        <v>4879.2196376666661</v>
       </c>
       <c r="BA31" s="25">
         <f t="shared" si="63"/>
-        <v>11845.627318466666</v>
+        <v>4701.1141264666667</v>
       </c>
       <c r="BB31" s="25">
         <f t="shared" si="63"/>
-        <v>12319.687707266667</v>
+        <v>4542.8779608666664</v>
       </c>
       <c r="BC31" s="25">
         <f t="shared" si="63"/>
-        <v>12870.238050066666</v>
+        <v>4444.5111408666662</v>
       </c>
       <c r="BD31" s="25">
         <f t="shared" si="63"/>
-        <v>13333.311010466667</v>
+        <v>4226.0136664666661</v>
       </c>
       <c r="BE31" s="25">
         <f t="shared" si="63"/>
-        <v>13888.939252066666</v>
+        <v>4087.4018694666665</v>
       </c>
       <c r="BF31" s="25">
         <f t="shared" si="63"/>
-        <v>14521.139106666666</v>
+        <v>4008.6757498666666</v>
       </c>
       <c r="BG31" s="25">
         <f t="shared" si="63"/>
-        <v>15065.943237866666</v>
+        <v>3829.8516394666667</v>
       </c>
       <c r="BH31" s="25">
         <f t="shared" si="63"/>
-        <v>15747.367977466665</v>
+        <v>3750.9132064666665</v>
       </c>
       <c r="BI31" s="25">
         <f t="shared" si="63"/>
-        <v>16357.462320866665</v>
+        <v>3591.8931144666667</v>
       </c>
       <c r="BJ31" s="25">
         <f t="shared" si="63"/>
-        <v>17044.242599866666</v>
+        <v>3492.7913634666666</v>
       </c>
       <c r="BK31" s="25">
         <f t="shared" si="63"/>
-        <v>17763.741478066666</v>
+        <v>3393.6079534666669</v>
       </c>
       <c r="BL31" s="25">
         <f t="shared" si="63"/>
-        <v>18532.007950866668</v>
+        <v>3294.3428844666669</v>
       </c>
       <c r="BM31" s="25">
         <f t="shared" si="63"/>
-        <v>19333.074681866667</v>
+        <v>3215.0124882666669</v>
       </c>
       <c r="BN31" s="25">
         <f t="shared" si="63"/>
-        <v>20166.974334666669</v>
+        <v>3155.6330966666665</v>
       </c>
       <c r="BO31" s="25">
         <f t="shared" ref="BO31:BP31" si="64">SUM(BO17:BO29)</f>
-        <v>21093.739572866667</v>
+        <v>3136.188377866667</v>
       </c>
       <c r="BP31" s="25">
         <f t="shared" si="64"/>
-        <v>21949.419391866668</v>
+        <v>3016.6946636666662</v>
       </c>
     </row>
     <row r="32" spans="1:68" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6838,259 +6841,259 @@
       </c>
       <c r="E33" s="28">
         <f t="shared" si="65"/>
-        <v>-3887.5556666666657</v>
+        <v>-5241.1556666666656</v>
       </c>
       <c r="F33" s="28">
         <f t="shared" si="65"/>
-        <v>-902.35566666666682</v>
+        <v>-2224.7556666666669</v>
       </c>
       <c r="G33" s="28">
         <f t="shared" si="65"/>
-        <v>-895.15566666666655</v>
+        <v>-2298.3556666666668</v>
       </c>
       <c r="H33" s="28">
         <f t="shared" si="65"/>
-        <v>-739.15566666666655</v>
+        <v>-2203.1556666666665</v>
       </c>
       <c r="I33" s="28">
         <f t="shared" si="65"/>
-        <v>-671.95566666666673</v>
+        <v>-2216.7556666666669</v>
       </c>
       <c r="J33" s="28">
         <f t="shared" si="65"/>
-        <v>-651.95566666666673</v>
+        <v>-2232.7556666666669</v>
       </c>
       <c r="K33" s="28">
         <f t="shared" si="65"/>
-        <v>-495.95566666666673</v>
+        <v>-2157.5556666666671</v>
       </c>
       <c r="L33" s="28">
         <f t="shared" si="65"/>
-        <v>-475.95566666666673</v>
+        <v>-2193.5556666666671</v>
       </c>
       <c r="M33" s="28">
         <f t="shared" si="65"/>
-        <v>-307.15566666666655</v>
+        <v>-2080.7556666666669</v>
       </c>
       <c r="N33" s="28">
         <f t="shared" si="65"/>
-        <v>-198.35566666666682</v>
+        <v>-2056.7556666666669</v>
       </c>
       <c r="O33" s="28">
         <f t="shared" si="65"/>
-        <v>916.1243333333332</v>
+        <v>-1385.3156666666664</v>
       </c>
       <c r="P33" s="28">
         <f t="shared" si="65"/>
-        <v>1056.4443333333338</v>
+        <v>-1304.9956666666667</v>
       </c>
       <c r="Q33" s="28">
         <f t="shared" si="65"/>
-        <v>124.84433333333345</v>
+        <v>-1920.7556666666669</v>
       </c>
       <c r="R33" s="28">
         <f t="shared" si="65"/>
-        <v>246.44433333333291</v>
+        <v>-1830.3556666666668</v>
       </c>
       <c r="S33" s="28">
         <f t="shared" si="65"/>
-        <v>320.84433333333345</v>
+        <v>-1819.9556666666667</v>
       </c>
       <c r="T33" s="28">
         <f t="shared" si="65"/>
-        <v>531.24433333333309</v>
+        <v>-1680.7556666666669</v>
       </c>
       <c r="U33" s="28">
         <f t="shared" si="65"/>
-        <v>665.64433333333363</v>
+        <v>-1581.5556666666666</v>
       </c>
       <c r="V33" s="28">
         <f t="shared" si="65"/>
-        <v>724.04433333333327</v>
+        <v>-1533.5556666666666</v>
       </c>
       <c r="W33" s="28">
         <f t="shared" si="65"/>
-        <v>947.24433333333309</v>
+        <v>-1316.7556666666669</v>
       </c>
       <c r="X33" s="28">
         <f t="shared" si="65"/>
-        <v>1063.2443333333331</v>
+        <v>-1239.9556666666667</v>
       </c>
       <c r="Y33" s="28">
         <f t="shared" si="65"/>
-        <v>1299.2443333333331</v>
+        <v>-1023.1556666666665</v>
       </c>
       <c r="Z33" s="28">
         <f t="shared" si="65"/>
-        <v>1459.2443333333331</v>
+        <v>-828.75566666666691</v>
       </c>
       <c r="AA33" s="28">
         <f t="shared" si="65"/>
-        <v>3514.284333333334</v>
+        <v>897.48433333333469</v>
       </c>
       <c r="AB33" s="28">
         <f t="shared" si="65"/>
-        <v>3790.204333333334</v>
+        <v>1214.8443333333335</v>
       </c>
       <c r="AC33" s="28">
         <f t="shared" si="65"/>
-        <v>2067.2443333333331</v>
+        <v>-145.55566666666618</v>
       </c>
       <c r="AD33" s="28">
         <f t="shared" si="65"/>
-        <v>2297.6443333333336</v>
+        <v>137.64433333333363</v>
       </c>
       <c r="AE33" s="28">
         <f t="shared" si="65"/>
-        <v>2468.0443333333333</v>
+        <v>380.84433333333345</v>
       </c>
       <c r="AF33" s="28">
         <f t="shared" si="65"/>
-        <v>2771.2443333333331</v>
+        <v>772.84433333333345</v>
       </c>
       <c r="AG33" s="28">
         <f t="shared" si="65"/>
-        <v>3027.2443333333331</v>
+        <v>1124.8443333333335</v>
       </c>
       <c r="AH33" s="28">
         <f t="shared" si="65"/>
-        <v>3252.0443333333342</v>
+        <v>1456.8443333333335</v>
       </c>
       <c r="AI33" s="28">
         <f t="shared" si="65"/>
-        <v>3578.0352637333335</v>
+        <v>1908.8443333333335</v>
       </c>
       <c r="AJ33" s="28">
         <f t="shared" si="65"/>
-        <v>3811.421659333334</v>
+        <v>2280.8443333333335</v>
       </c>
       <c r="AK33" s="28">
         <f t="shared" si="65"/>
-        <v>4177.3957415333334</v>
+        <v>2791.1131625333337</v>
       </c>
       <c r="AL33" s="28">
         <f t="shared" si="65"/>
-        <v>4511.9575103333345</v>
+        <v>3259.4058439333339</v>
       </c>
       <c r="AM33" s="28">
         <f t="shared" si="65"/>
-        <v>8117.0906339333342</v>
+        <v>6654.3875207333331</v>
       </c>
       <c r="AN33" s="28">
         <f t="shared" si="65"/>
-        <v>8643.0987805333352</v>
+        <v>7281.5945247333339</v>
       </c>
       <c r="AO33" s="28">
         <f t="shared" ref="AO33:AR33" si="66">AO13-AO31</f>
-        <v>5562.2056183333343</v>
+        <v>4755.8431877333342</v>
       </c>
       <c r="AP33" s="28">
         <f t="shared" si="66"/>
-        <v>5934.1711473333335</v>
+        <v>5275.6298415333331</v>
       </c>
       <c r="AQ33" s="28">
         <f t="shared" si="66"/>
-        <v>6287.4590357333327</v>
+        <v>5726.7308179333349</v>
       </c>
       <c r="AR33" s="28">
         <f t="shared" si="66"/>
-        <v>6802.0529517333325</v>
+        <v>6297.9461169333345</v>
       </c>
       <c r="AS33" s="28">
         <f t="shared" ref="AS33:BN33" si="67">AS13-AS31</f>
-        <v>7240.3365635333339</v>
+        <v>6800.4920703333346</v>
       </c>
       <c r="AT33" s="28">
         <f t="shared" si="67"/>
-        <v>7659.893539333334</v>
+        <v>7263.1850099333333</v>
       </c>
       <c r="AU33" s="28">
         <f t="shared" si="67"/>
-        <v>8227.9238791333337</v>
+        <v>7797.2086039333344</v>
       </c>
       <c r="AV33" s="28">
         <f t="shared" si="67"/>
-        <v>8672.3949193333356</v>
+        <v>8231.3791841333332</v>
       </c>
       <c r="AW33" s="28">
         <f t="shared" si="67"/>
-        <v>9278.090328133334</v>
+        <v>8776.9130823333326</v>
       </c>
       <c r="AX33" s="28">
         <f t="shared" si="67"/>
-        <v>9864.9937737333348</v>
+        <v>9213.7939667333339</v>
       </c>
       <c r="AY33" s="28">
         <f t="shared" si="67"/>
-        <v>16356.768924333335</v>
+        <v>13690.021837333334</v>
       </c>
       <c r="AZ33" s="28">
         <f t="shared" si="67"/>
-        <v>17290.279448133337</v>
+        <v>14141.740362333338</v>
       </c>
       <c r="BA33" s="28">
         <f t="shared" si="67"/>
-        <v>11770.372681533334</v>
+        <v>10447.685873533334</v>
       </c>
       <c r="BB33" s="28">
         <f t="shared" si="67"/>
-        <v>12448.312292733333</v>
+        <v>10807.522039133335</v>
       </c>
       <c r="BC33" s="28">
         <f t="shared" si="67"/>
-        <v>13136.161949933336</v>
+        <v>11107.488859133333</v>
       </c>
       <c r="BD33" s="28">
         <f t="shared" si="67"/>
-        <v>13969.088989533335</v>
+        <v>11498.786333533335</v>
       </c>
       <c r="BE33" s="28">
         <f t="shared" si="67"/>
-        <v>14767.060747933334</v>
+        <v>11810.198130533334</v>
       </c>
       <c r="BF33" s="28">
         <f t="shared" si="67"/>
-        <v>15546.060893333335</v>
+        <v>12032.924250133334</v>
       </c>
       <c r="BG33" s="28">
         <f t="shared" si="67"/>
-        <v>16498.856762133335</v>
+        <v>12355.748360533333</v>
       </c>
       <c r="BH33" s="28">
         <f t="shared" si="67"/>
-        <v>17372.632022533333</v>
+        <v>12549.886793533335</v>
       </c>
       <c r="BI33" s="28">
         <f t="shared" si="67"/>
-        <v>18404.137679133331</v>
+        <v>12824.106885533332</v>
       </c>
       <c r="BJ33" s="28">
         <f t="shared" si="67"/>
-        <v>19445.357400133333</v>
+        <v>13009.608636533336</v>
       </c>
       <c r="BK33" s="28">
         <f t="shared" si="67"/>
-        <v>31073.85852193334</v>
+        <v>17793.832046533335</v>
       </c>
       <c r="BL33" s="28">
         <f t="shared" si="67"/>
-        <v>32729.112049133335</v>
+        <v>18003.257115533335</v>
       </c>
       <c r="BM33" s="28">
         <f t="shared" si="67"/>
-        <v>22858.925318133333</v>
+        <v>13546.587511733334</v>
       </c>
       <c r="BN33" s="28">
         <f t="shared" si="67"/>
-        <v>24098.625665333337</v>
+        <v>13692.366903333334</v>
       </c>
       <c r="BO33" s="28">
         <f t="shared" ref="BO33:BP33" si="68">BO13-BO31</f>
-        <v>25360.660427133334</v>
+        <v>13769.411622133335</v>
       </c>
       <c r="BP33" s="28">
         <f t="shared" si="68"/>
-        <v>26808.980608133334</v>
+        <v>13946.505336333335</v>
       </c>
     </row>
     <row r="34" spans="1:68" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -7151,219 +7154,219 @@
       </c>
       <c r="O34" s="14">
         <f>IF(O33&gt;0,O33*Config!$B$35,0)</f>
-        <v>45.806216666666664</v>
+        <v>0</v>
       </c>
       <c r="P34" s="14">
         <f>IF(P33&gt;0,P33*Config!$B$35,0)</f>
-        <v>52.822216666666691</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="14">
         <f>IF(Q33&gt;0,Q33*Config!$B$35,0)</f>
-        <v>6.242216666666673</v>
+        <v>0</v>
       </c>
       <c r="R34" s="14">
         <f>IF(R33&gt;0,R33*Config!$B$35,0)</f>
-        <v>12.322216666666646</v>
+        <v>0</v>
       </c>
       <c r="S34" s="14">
         <f>IF(S33&gt;0,S33*Config!$B$35,0)</f>
-        <v>16.042216666666672</v>
+        <v>0</v>
       </c>
       <c r="T34" s="14">
         <f>IF(T33&gt;0,T33*Config!$B$35,0)</f>
-        <v>26.562216666666657</v>
+        <v>0</v>
       </c>
       <c r="U34" s="14">
         <f>IF(U33&gt;0,U33*Config!$B$35,0)</f>
-        <v>33.282216666666685</v>
+        <v>0</v>
       </c>
       <c r="V34" s="14">
         <f>IF(V33&gt;0,V33*Config!$B$35,0)</f>
-        <v>36.202216666666665</v>
+        <v>0</v>
       </c>
       <c r="W34" s="14">
         <f>IF(W33&gt;0,W33*Config!$B$35,0)</f>
-        <v>47.362216666666654</v>
+        <v>0</v>
       </c>
       <c r="X34" s="14">
         <f>IF(X33&gt;0,X33*Config!$B$35,0)</f>
-        <v>53.162216666666659</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="14">
         <f>IF(Y33&gt;0,Y33*Config!$B$35,0)</f>
-        <v>64.962216666666663</v>
+        <v>0</v>
       </c>
       <c r="Z34" s="14">
         <f>IF(Z33&gt;0,Z33*Config!$B$35,0)</f>
-        <v>72.962216666666663</v>
+        <v>0</v>
       </c>
       <c r="AA34" s="14">
         <f>IF(AA33&gt;0,AA33*Config!$B$35,0)</f>
-        <v>175.71421666666672</v>
+        <v>44.87421666666674</v>
       </c>
       <c r="AB34" s="14">
         <f>IF(AB33&gt;0,AB33*Config!$B$35,0)</f>
-        <v>189.51021666666671</v>
+        <v>60.742216666666678</v>
       </c>
       <c r="AC34" s="14">
         <f>IF(AC33&gt;0,AC33*Config!$B$35,0)</f>
-        <v>103.36221666666665</v>
+        <v>0</v>
       </c>
       <c r="AD34" s="14">
         <f>IF(AD33&gt;0,AD33*Config!$B$35,0)</f>
-        <v>114.88221666666669</v>
+        <v>6.8822166666666824</v>
       </c>
       <c r="AE34" s="14">
         <f>IF(AE33&gt;0,AE33*Config!$B$35,0)</f>
-        <v>123.40221666666667</v>
+        <v>19.042216666666672</v>
       </c>
       <c r="AF34" s="14">
         <f>IF(AF33&gt;0,AF33*Config!$B$35,0)</f>
-        <v>138.56221666666667</v>
+        <v>38.642216666666677</v>
       </c>
       <c r="AG34" s="14">
         <f>IF(AG33&gt;0,AG33*Config!$B$35,0)</f>
-        <v>151.36221666666665</v>
+        <v>56.242216666666678</v>
       </c>
       <c r="AH34" s="14">
         <f>IF(AH33&gt;0,AH33*Config!$B$35,0)</f>
-        <v>162.60221666666672</v>
+        <v>72.842216666666673</v>
       </c>
       <c r="AI34" s="14">
         <f>IF(AI33&gt;0,AI33*Config!$B$35,0)</f>
-        <v>178.9017631866667</v>
+        <v>95.442216666666681</v>
       </c>
       <c r="AJ34" s="14">
         <f>IF(AJ33&gt;0,AJ33*Config!$B$35,0)</f>
-        <v>190.57108296666672</v>
+        <v>114.04221666666668</v>
       </c>
       <c r="AK34" s="14">
         <f>IF(AK33&gt;0,AK33*Config!$B$35,0)</f>
-        <v>208.86978707666668</v>
+        <v>139.55565812666669</v>
       </c>
       <c r="AL34" s="14">
         <f>IF(AL33&gt;0,AL33*Config!$B$35,0)</f>
-        <v>225.59787551666673</v>
+        <v>162.97029219666672</v>
       </c>
       <c r="AM34" s="14">
         <f>IF(AM33&gt;0,AM33*Config!$B$35,0)</f>
-        <v>405.85453169666675</v>
+        <v>332.71937603666669</v>
       </c>
       <c r="AN34" s="14">
         <f>IF(AN33&gt;0,AN33*Config!$B$35,0)</f>
-        <v>432.1549390266668</v>
+        <v>364.07972623666672</v>
       </c>
       <c r="AO34" s="14">
         <f>IF(AO33&gt;0,AO33*Config!$B$35,0)</f>
-        <v>278.11028091666674</v>
+        <v>237.79215938666673</v>
       </c>
       <c r="AP34" s="14">
         <f>IF(AP33&gt;0,AP33*Config!$B$35,0)</f>
-        <v>296.7085573666667</v>
+        <v>263.78149207666667</v>
       </c>
       <c r="AQ34" s="14">
         <f>IF(AQ33&gt;0,AQ33*Config!$B$35,0)</f>
-        <v>314.37295178666665</v>
+        <v>286.33654089666675</v>
       </c>
       <c r="AR34" s="14">
         <f>IF(AR33&gt;0,AR33*Config!$B$35,0)</f>
-        <v>340.10264758666665</v>
+        <v>314.89730584666677</v>
       </c>
       <c r="AS34" s="14">
         <f>IF(AS33&gt;0,AS33*Config!$B$35,0)</f>
-        <v>362.01682817666671</v>
+        <v>340.02460351666673</v>
       </c>
       <c r="AT34" s="14">
         <f>IF(AT33&gt;0,AT33*Config!$B$35,0)</f>
-        <v>382.9946769666667</v>
+        <v>363.15925049666669</v>
       </c>
       <c r="AU34" s="14">
         <f>IF(AU33&gt;0,AU33*Config!$B$35,0)</f>
-        <v>411.39619395666671</v>
+        <v>389.86043019666675</v>
       </c>
       <c r="AV34" s="14">
         <f>IF(AV33&gt;0,AV33*Config!$B$35,0)</f>
-        <v>433.61974596666681</v>
+        <v>411.5689592066667</v>
       </c>
       <c r="AW34" s="14">
         <f>IF(AW33&gt;0,AW33*Config!$B$35,0)</f>
-        <v>463.90451640666674</v>
+        <v>438.84565411666665</v>
       </c>
       <c r="AX34" s="14">
         <f>IF(AX33&gt;0,AX33*Config!$B$35,0)</f>
-        <v>493.24968868666679</v>
+        <v>460.68969833666671</v>
       </c>
       <c r="AY34" s="14">
         <f>IF(AY33&gt;0,AY33*Config!$B$35,0)</f>
-        <v>817.83844621666685</v>
+        <v>684.50109186666668</v>
       </c>
       <c r="AZ34" s="14">
         <f>IF(AZ33&gt;0,AZ33*Config!$B$35,0)</f>
-        <v>864.51397240666688</v>
+        <v>707.08701811666697</v>
       </c>
       <c r="BA34" s="14">
         <f>IF(BA33&gt;0,BA33*Config!$B$35,0)</f>
-        <v>588.51863407666667</v>
+        <v>522.38429367666674</v>
       </c>
       <c r="BB34" s="14">
         <f>IF(BB33&gt;0,BB33*Config!$B$35,0)</f>
-        <v>622.41561463666676</v>
+        <v>540.37610195666673</v>
       </c>
       <c r="BC34" s="14">
         <f>IF(BC33&gt;0,BC33*Config!$B$35,0)</f>
-        <v>656.80809749666685</v>
+        <v>555.37444295666671</v>
       </c>
       <c r="BD34" s="14">
         <f>IF(BD33&gt;0,BD33*Config!$B$35,0)</f>
-        <v>698.45444947666681</v>
+        <v>574.93931667666675</v>
       </c>
       <c r="BE34" s="14">
         <f>IF(BE33&gt;0,BE33*Config!$B$35,0)</f>
-        <v>738.35303739666676</v>
+        <v>590.50990652666667</v>
       </c>
       <c r="BF34" s="14">
         <f>IF(BF33&gt;0,BF33*Config!$B$35,0)</f>
-        <v>777.30304466666678</v>
+        <v>601.64621250666676</v>
       </c>
       <c r="BG34" s="14">
         <f>IF(BG33&gt;0,BG33*Config!$B$35,0)</f>
-        <v>824.94283810666684</v>
+        <v>617.78741802666673</v>
       </c>
       <c r="BH34" s="14">
         <f>IF(BH33&gt;0,BH33*Config!$B$35,0)</f>
-        <v>868.63160112666674</v>
+        <v>627.49433967666675</v>
       </c>
       <c r="BI34" s="14">
         <f>IF(BI33&gt;0,BI33*Config!$B$35,0)</f>
-        <v>920.20688395666662</v>
+        <v>641.20534427666666</v>
       </c>
       <c r="BJ34" s="14">
         <f>IF(BJ33&gt;0,BJ33*Config!$B$35,0)</f>
-        <v>972.26787000666673</v>
+        <v>650.48043182666686</v>
       </c>
       <c r="BK34" s="14">
         <f>IF(BK33&gt;0,BK33*Config!$B$35,0)</f>
-        <v>1553.6929260966672</v>
+        <v>889.69160232666673</v>
       </c>
       <c r="BL34" s="14">
         <f>IF(BL33&gt;0,BL33*Config!$B$35,0)</f>
-        <v>1636.4556024566668</v>
+        <v>900.16285577666679</v>
       </c>
       <c r="BM34" s="14">
         <f>IF(BM33&gt;0,BM33*Config!$B$35,0)</f>
-        <v>1142.9462659066667</v>
+        <v>677.32937558666674</v>
       </c>
       <c r="BN34" s="14">
         <f>IF(BN33&gt;0,BN33*Config!$B$35,0)</f>
-        <v>1204.9312832666669</v>
+        <v>684.6183451666667</v>
       </c>
       <c r="BO34" s="14">
         <f>IF(BO33&gt;0,BO33*Config!$B$35,0)</f>
-        <v>1268.0330213566667</v>
+        <v>688.47058110666683</v>
       </c>
       <c r="BP34" s="14">
         <f>IF(BP33&gt;0,BP33*Config!$B$35,0)</f>
-        <v>1340.4490304066667</v>
+        <v>697.32526681666684</v>
       </c>
     </row>
     <row r="35" spans="1:68" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -7384,259 +7387,259 @@
       </c>
       <c r="E35" s="14">
         <f t="shared" si="69"/>
-        <v>-3887.5556666666657</v>
+        <v>-5241.1556666666656</v>
       </c>
       <c r="F35" s="14">
         <f t="shared" si="69"/>
-        <v>-902.35566666666682</v>
+        <v>-2224.7556666666669</v>
       </c>
       <c r="G35" s="14">
         <f t="shared" si="69"/>
-        <v>-895.15566666666655</v>
+        <v>-2298.3556666666668</v>
       </c>
       <c r="H35" s="14">
         <f t="shared" si="69"/>
-        <v>-739.15566666666655</v>
+        <v>-2203.1556666666665</v>
       </c>
       <c r="I35" s="14">
         <f t="shared" ref="I35" si="70">I33-I34</f>
-        <v>-671.95566666666673</v>
+        <v>-2216.7556666666669</v>
       </c>
       <c r="J35" s="14">
         <f t="shared" ref="J35" si="71">J33-J34</f>
-        <v>-651.95566666666673</v>
+        <v>-2232.7556666666669</v>
       </c>
       <c r="K35" s="14">
         <f t="shared" ref="K35" si="72">K33-K34</f>
-        <v>-495.95566666666673</v>
+        <v>-2157.5556666666671</v>
       </c>
       <c r="L35" s="14">
         <f t="shared" ref="L35" si="73">L33-L34</f>
-        <v>-475.95566666666673</v>
+        <v>-2193.5556666666671</v>
       </c>
       <c r="M35" s="14">
         <f t="shared" ref="M35" si="74">M33-M34</f>
-        <v>-307.15566666666655</v>
+        <v>-2080.7556666666669</v>
       </c>
       <c r="N35" s="14">
         <f t="shared" ref="N35" si="75">N33-N34</f>
-        <v>-198.35566666666682</v>
+        <v>-2056.7556666666669</v>
       </c>
       <c r="O35" s="14">
         <f t="shared" ref="O35" si="76">O33-O34</f>
-        <v>870.31811666666658</v>
+        <v>-1385.3156666666664</v>
       </c>
       <c r="P35" s="14">
         <f t="shared" ref="P35" si="77">P33-P34</f>
-        <v>1003.6221166666671</v>
+        <v>-1304.9956666666667</v>
       </c>
       <c r="Q35" s="14">
         <f t="shared" ref="Q35" si="78">Q33-Q34</f>
-        <v>118.60211666666677</v>
+        <v>-1920.7556666666669</v>
       </c>
       <c r="R35" s="14">
         <f t="shared" ref="R35" si="79">R33-R34</f>
-        <v>234.12211666666627</v>
+        <v>-1830.3556666666668</v>
       </c>
       <c r="S35" s="14">
         <f t="shared" ref="S35" si="80">S33-S34</f>
-        <v>304.80211666666679</v>
+        <v>-1819.9556666666667</v>
       </c>
       <c r="T35" s="14">
         <f t="shared" ref="T35" si="81">T33-T34</f>
-        <v>504.68211666666645</v>
+        <v>-1680.7556666666669</v>
       </c>
       <c r="U35" s="14">
         <f t="shared" ref="U35" si="82">U33-U34</f>
-        <v>632.36211666666691</v>
+        <v>-1581.5556666666666</v>
       </c>
       <c r="V35" s="14">
         <f t="shared" ref="V35" si="83">V33-V34</f>
-        <v>687.84211666666658</v>
+        <v>-1533.5556666666666</v>
       </c>
       <c r="W35" s="14">
         <f t="shared" ref="W35" si="84">W33-W34</f>
-        <v>899.88211666666643</v>
+        <v>-1316.7556666666669</v>
       </c>
       <c r="X35" s="14">
         <f t="shared" ref="X35" si="85">X33-X34</f>
-        <v>1010.0821166666665</v>
+        <v>-1239.9556666666667</v>
       </c>
       <c r="Y35" s="14">
         <f t="shared" ref="Y35" si="86">Y33-Y34</f>
-        <v>1234.2821166666665</v>
+        <v>-1023.1556666666665</v>
       </c>
       <c r="Z35" s="14">
         <f t="shared" ref="Z35" si="87">Z33-Z34</f>
-        <v>1386.2821166666665</v>
+        <v>-828.75566666666691</v>
       </c>
       <c r="AA35" s="14">
         <f t="shared" ref="AA35" si="88">AA33-AA34</f>
-        <v>3338.5701166666672</v>
+        <v>852.61011666666798</v>
       </c>
       <c r="AB35" s="14">
         <f t="shared" ref="AB35" si="89">AB33-AB34</f>
-        <v>3600.6941166666675</v>
+        <v>1154.1021166666667</v>
       </c>
       <c r="AC35" s="14">
         <f t="shared" ref="AC35" si="90">AC33-AC34</f>
-        <v>1963.8821166666664</v>
+        <v>-145.55566666666618</v>
       </c>
       <c r="AD35" s="14">
         <f t="shared" ref="AD35" si="91">AD33-AD34</f>
-        <v>2182.7621166666668</v>
+        <v>130.76211666666694</v>
       </c>
       <c r="AE35" s="14">
         <f t="shared" ref="AE35" si="92">AE33-AE34</f>
-        <v>2344.6421166666664</v>
+        <v>361.80211666666679</v>
       </c>
       <c r="AF35" s="14">
         <f t="shared" ref="AF35" si="93">AF33-AF34</f>
-        <v>2632.6821166666664</v>
+        <v>734.20211666666683</v>
       </c>
       <c r="AG35" s="14">
         <f t="shared" ref="AG35" si="94">AG33-AG34</f>
-        <v>2875.8821166666667</v>
+        <v>1068.6021166666667</v>
       </c>
       <c r="AH35" s="14">
         <f t="shared" ref="AH35" si="95">AH33-AH34</f>
-        <v>3089.4421166666675</v>
+        <v>1384.0021166666668</v>
       </c>
       <c r="AI35" s="14">
         <f t="shared" ref="AI35" si="96">AI33-AI34</f>
-        <v>3399.1335005466667</v>
+        <v>1813.4021166666669</v>
       </c>
       <c r="AJ35" s="14">
         <f t="shared" ref="AJ35" si="97">AJ33-AJ34</f>
-        <v>3620.8505763666672</v>
+        <v>2166.8021166666667</v>
       </c>
       <c r="AK35" s="14">
         <f t="shared" ref="AK35" si="98">AK33-AK34</f>
-        <v>3968.5259544566666</v>
+        <v>2651.5575044066672</v>
       </c>
       <c r="AL35" s="14">
         <f t="shared" ref="AL35" si="99">AL33-AL34</f>
-        <v>4286.3596348166675</v>
+        <v>3096.4355517366671</v>
       </c>
       <c r="AM35" s="14">
         <f t="shared" ref="AM35" si="100">AM33-AM34</f>
-        <v>7711.2361022366676</v>
+        <v>6321.6681446966668</v>
       </c>
       <c r="AN35" s="14">
         <f t="shared" ref="AN35" si="101">AN33-AN34</f>
-        <v>8210.9438415066688</v>
+        <v>6917.514798496667</v>
       </c>
       <c r="AO35" s="14">
         <f t="shared" ref="AO35" si="102">AO33-AO34</f>
-        <v>5284.0953374166675</v>
+        <v>4518.0510283466674</v>
       </c>
       <c r="AP35" s="14">
         <f t="shared" ref="AP35" si="103">AP33-AP34</f>
-        <v>5637.4625899666671</v>
+        <v>5011.8483494566663</v>
       </c>
       <c r="AQ35" s="14">
         <f t="shared" ref="AQ35" si="104">AQ33-AQ34</f>
-        <v>5973.0860839466659</v>
+        <v>5440.3942770366684</v>
       </c>
       <c r="AR35" s="14">
         <f t="shared" ref="AR35:BM35" si="105">AR33-AR34</f>
-        <v>6461.950304146666</v>
+        <v>5983.0488110866681</v>
       </c>
       <c r="AS35" s="14">
         <f t="shared" si="105"/>
-        <v>6878.3197353566675</v>
+        <v>6460.4674668166681</v>
       </c>
       <c r="AT35" s="14">
         <f t="shared" si="105"/>
-        <v>7276.8988623666673</v>
+        <v>6900.0257594366667</v>
       </c>
       <c r="AU35" s="14">
         <f t="shared" si="105"/>
-        <v>7816.5276851766666</v>
+        <v>7407.3481737366674</v>
       </c>
       <c r="AV35" s="14">
         <f t="shared" si="105"/>
-        <v>8238.7751733666682</v>
+        <v>7819.8102249266667</v>
       </c>
       <c r="AW35" s="14">
         <f t="shared" si="105"/>
-        <v>8814.1858117266675</v>
+        <v>8338.0674282166656</v>
       </c>
       <c r="AX35" s="14">
         <f t="shared" si="105"/>
-        <v>9371.7440850466683</v>
+        <v>8753.104268396668</v>
       </c>
       <c r="AY35" s="14">
         <f t="shared" si="105"/>
-        <v>15538.930478116668</v>
+        <v>13005.520745466667</v>
       </c>
       <c r="AZ35" s="14">
         <f t="shared" si="105"/>
-        <v>16425.765475726668</v>
+        <v>13434.653344216671</v>
       </c>
       <c r="BA35" s="14">
         <f t="shared" si="105"/>
-        <v>11181.854047456667</v>
+        <v>9925.3015798566666</v>
       </c>
       <c r="BB35" s="14">
         <f t="shared" si="105"/>
-        <v>11825.896678096666</v>
+        <v>10267.145937176669</v>
       </c>
       <c r="BC35" s="14">
         <f t="shared" si="105"/>
-        <v>12479.353852436669</v>
+        <v>10552.114416176666</v>
       </c>
       <c r="BD35" s="14">
         <f t="shared" si="105"/>
-        <v>13270.634540056668</v>
+        <v>10923.847016856667</v>
       </c>
       <c r="BE35" s="14">
         <f t="shared" si="105"/>
-        <v>14028.707710536668</v>
+        <v>11219.688224006668</v>
       </c>
       <c r="BF35" s="14">
         <f t="shared" si="105"/>
-        <v>14768.757848666668</v>
+        <v>11431.278037626667</v>
       </c>
       <c r="BG35" s="14">
         <f t="shared" si="105"/>
-        <v>15673.913924026669</v>
+        <v>11737.960942506666</v>
       </c>
       <c r="BH35" s="14">
         <f t="shared" si="105"/>
-        <v>16504.000421406665</v>
+        <v>11922.392453856668</v>
       </c>
       <c r="BI35" s="14">
         <f t="shared" si="105"/>
-        <v>17483.930795176664</v>
+        <v>12182.901541256666</v>
       </c>
       <c r="BJ35" s="14">
         <f t="shared" si="105"/>
-        <v>18473.089530126665</v>
+        <v>12359.128204706669</v>
       </c>
       <c r="BK35" s="14">
         <f t="shared" si="105"/>
-        <v>29520.165595836672</v>
+        <v>16904.140444206667</v>
       </c>
       <c r="BL35" s="14">
         <f t="shared" si="105"/>
-        <v>31092.656446676669</v>
+        <v>17103.094259756668</v>
       </c>
       <c r="BM35" s="14">
         <f t="shared" si="105"/>
-        <v>21715.979052226667</v>
+        <v>12869.258136146667</v>
       </c>
       <c r="BN35" s="14">
         <f t="shared" ref="BN35:BP35" si="106">BN33-BN34</f>
-        <v>22893.694382066671</v>
+        <v>13007.748558166666</v>
       </c>
       <c r="BO35" s="14">
         <f t="shared" si="106"/>
-        <v>24092.627405776668</v>
+        <v>13080.941041026668</v>
       </c>
       <c r="BP35" s="14">
         <f t="shared" si="106"/>
-        <v>25468.531577726666</v>
+        <v>13249.180069516669</v>
       </c>
     </row>
     <row r="36" spans="1:68" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7657,259 +7660,259 @@
       </c>
       <c r="E36" s="14">
         <f t="shared" si="107"/>
-        <v>-16047.555666666665</v>
+        <v>-17401.155666666666</v>
       </c>
       <c r="F36" s="14">
         <f t="shared" si="107"/>
-        <v>-16949.911333333333</v>
+        <v>-19625.911333333333</v>
       </c>
       <c r="G36" s="14">
         <f t="shared" si="107"/>
-        <v>-17845.066999999999</v>
+        <v>-21924.267</v>
       </c>
       <c r="H36" s="14">
         <f t="shared" si="107"/>
-        <v>-18584.222666666665</v>
+        <v>-24127.422666666665</v>
       </c>
       <c r="I36" s="14">
         <f t="shared" si="107"/>
-        <v>-19256.17833333333</v>
+        <v>-26344.178333333333</v>
       </c>
       <c r="J36" s="14">
         <f t="shared" si="107"/>
-        <v>-19908.133999999998</v>
+        <v>-28576.934000000001</v>
       </c>
       <c r="K36" s="14">
         <f t="shared" si="107"/>
-        <v>-20404.089666666667</v>
+        <v>-30734.489666666668</v>
       </c>
       <c r="L36" s="14">
         <f t="shared" si="107"/>
-        <v>-20880.045333333335</v>
+        <v>-32928.045333333335</v>
       </c>
       <c r="M36" s="14">
         <f t="shared" si="107"/>
-        <v>-21187.201000000001</v>
+        <v>-35008.800999999999</v>
       </c>
       <c r="N36" s="14">
         <f t="shared" si="107"/>
-        <v>-21385.556666666667</v>
+        <v>-37065.556666666664</v>
       </c>
       <c r="O36" s="14">
         <f t="shared" si="107"/>
-        <v>-20515.238550000002</v>
+        <v>-38450.872333333333</v>
       </c>
       <c r="P36" s="14">
         <f t="shared" ref="P36" si="108">O36+P35</f>
-        <v>-19511.616433333336</v>
+        <v>-39755.868000000002</v>
       </c>
       <c r="Q36" s="14">
         <f t="shared" ref="Q36" si="109">P36+Q35</f>
-        <v>-19393.014316666671</v>
+        <v>-41676.623666666666</v>
       </c>
       <c r="R36" s="14">
         <f t="shared" ref="R36" si="110">Q36+R35</f>
-        <v>-19158.892200000006</v>
+        <v>-43506.979333333336</v>
       </c>
       <c r="S36" s="14">
         <f t="shared" ref="S36" si="111">R36+S35</f>
-        <v>-18854.09008333334</v>
+        <v>-45326.935000000005</v>
       </c>
       <c r="T36" s="14">
         <f t="shared" ref="T36" si="112">S36+T35</f>
-        <v>-18349.407966666673</v>
+        <v>-47007.690666666669</v>
       </c>
       <c r="U36" s="14">
         <f t="shared" ref="U36" si="113">T36+U35</f>
-        <v>-17717.045850000006</v>
+        <v>-48589.246333333336</v>
       </c>
       <c r="V36" s="14">
         <f t="shared" ref="V36" si="114">U36+V35</f>
-        <v>-17029.203733333339</v>
+        <v>-50122.802000000003</v>
       </c>
       <c r="W36" s="14">
         <f t="shared" ref="W36" si="115">V36+W35</f>
-        <v>-16129.321616666673</v>
+        <v>-51439.557666666668</v>
       </c>
       <c r="X36" s="14">
         <f t="shared" ref="X36" si="116">W36+X35</f>
-        <v>-15119.239500000007</v>
+        <v>-52679.513333333336</v>
       </c>
       <c r="Y36" s="14">
         <f t="shared" ref="Y36" si="117">X36+Y35</f>
-        <v>-13884.95738333334</v>
+        <v>-53702.669000000002</v>
       </c>
       <c r="Z36" s="14">
         <f t="shared" ref="Z36" si="118">Y36+Z35</f>
-        <v>-12498.675266666673</v>
+        <v>-54531.424666666666</v>
       </c>
       <c r="AA36" s="14">
         <f t="shared" ref="AA36" si="119">Z36+AA35</f>
-        <v>-9160.1051500000049</v>
+        <v>-53678.814549999996</v>
       </c>
       <c r="AB36" s="14">
         <f t="shared" ref="AB36" si="120">AA36+AB35</f>
-        <v>-5559.4110333333374</v>
+        <v>-52524.712433333327</v>
       </c>
       <c r="AC36" s="14">
         <f t="shared" ref="AC36" si="121">AB36+AC35</f>
-        <v>-3595.5289166666707</v>
+        <v>-52670.268099999994</v>
       </c>
       <c r="AD36" s="14">
         <f t="shared" ref="AD36" si="122">AC36+AD35</f>
-        <v>-1412.766800000004</v>
+        <v>-52539.505983333329</v>
       </c>
       <c r="AE36" s="14">
         <f t="shared" ref="AE36" si="123">AD36+AE35</f>
-        <v>931.87531666666246</v>
+        <v>-52177.703866666663</v>
       </c>
       <c r="AF36" s="14">
         <f t="shared" ref="AF36" si="124">AE36+AF35</f>
-        <v>3564.5574333333288</v>
+        <v>-51443.501749999996</v>
       </c>
       <c r="AG36" s="14">
         <f t="shared" ref="AG36" si="125">AF36+AG35</f>
-        <v>6440.4395499999955</v>
+        <v>-50374.899633333327</v>
       </c>
       <c r="AH36" s="14">
         <f t="shared" ref="AH36" si="126">AG36+AH35</f>
-        <v>9529.8816666666626</v>
+        <v>-48990.897516666657</v>
       </c>
       <c r="AI36" s="14">
         <f t="shared" ref="AI36" si="127">AH36+AI35</f>
-        <v>12929.015167213329</v>
+        <v>-47177.495399999993</v>
       </c>
       <c r="AJ36" s="14">
         <f t="shared" ref="AJ36" si="128">AI36+AJ35</f>
-        <v>16549.865743579998</v>
+        <v>-45010.693283333327</v>
       </c>
       <c r="AK36" s="14">
         <f t="shared" ref="AK36" si="129">AJ36+AK35</f>
-        <v>20518.391698036663</v>
+        <v>-42359.135778926662</v>
       </c>
       <c r="AL36" s="14">
         <f t="shared" ref="AL36" si="130">AK36+AL35</f>
-        <v>24804.751332853331</v>
+        <v>-39262.700227189998</v>
       </c>
       <c r="AM36" s="14">
         <f t="shared" ref="AM36" si="131">AL36+AM35</f>
-        <v>32515.987435089999</v>
+        <v>-32941.03208249333</v>
       </c>
       <c r="AN36" s="14">
         <f t="shared" ref="AN36" si="132">AM36+AN35</f>
-        <v>40726.931276596668</v>
+        <v>-26023.517283996662</v>
       </c>
       <c r="AO36" s="14">
         <f t="shared" ref="AO36" si="133">AN36+AO35</f>
-        <v>46011.026614013332</v>
+        <v>-21505.466255649993</v>
       </c>
       <c r="AP36" s="14">
         <f t="shared" ref="AP36" si="134">AO36+AP35</f>
-        <v>51648.489203979996</v>
+        <v>-16493.617906193329</v>
       </c>
       <c r="AQ36" s="14">
         <f t="shared" ref="AQ36" si="135">AP36+AQ35</f>
-        <v>57621.575287926666</v>
+        <v>-11053.223629156661</v>
       </c>
       <c r="AR36" s="14">
         <f t="shared" ref="AR36" si="136">AQ36+AR35</f>
-        <v>64083.525592073333</v>
+        <v>-5070.1748180699924</v>
       </c>
       <c r="AS36" s="14">
         <f t="shared" ref="AS36" si="137">AR36+AS35</f>
-        <v>70961.845327429997</v>
+        <v>1390.2926487466757</v>
       </c>
       <c r="AT36" s="14">
         <f t="shared" ref="AT36" si="138">AS36+AT35</f>
-        <v>78238.744189796664</v>
+        <v>8290.3184081833424</v>
       </c>
       <c r="AU36" s="14">
         <f t="shared" ref="AU36" si="139">AT36+AU35</f>
-        <v>86055.271874973332</v>
+        <v>15697.66658192001</v>
       </c>
       <c r="AV36" s="14">
         <f t="shared" ref="AV36" si="140">AU36+AV35</f>
-        <v>94294.047048339999</v>
+        <v>23517.476806846676</v>
       </c>
       <c r="AW36" s="14">
         <f t="shared" ref="AW36" si="141">AV36+AW35</f>
-        <v>103108.23286006667</v>
+        <v>31855.544235063342</v>
       </c>
       <c r="AX36" s="14">
         <f t="shared" ref="AX36" si="142">AW36+AX35</f>
-        <v>112479.97694511333</v>
+        <v>40608.648503460012</v>
       </c>
       <c r="AY36" s="14">
         <f t="shared" ref="AY36" si="143">AX36+AY35</f>
-        <v>128018.90742323</v>
+        <v>53614.169248926679</v>
       </c>
       <c r="AZ36" s="14">
         <f t="shared" ref="AZ36" si="144">AY36+AZ35</f>
-        <v>144444.67289895666</v>
+        <v>67048.822593143355</v>
       </c>
       <c r="BA36" s="14">
         <f t="shared" ref="BA36" si="145">AZ36+BA35</f>
-        <v>155626.52694641333</v>
+        <v>76974.124173000018</v>
       </c>
       <c r="BB36" s="14">
         <f t="shared" ref="BB36" si="146">BA36+BB35</f>
-        <v>167452.42362451</v>
+        <v>87241.270110176687</v>
       </c>
       <c r="BC36" s="14">
         <f t="shared" ref="BC36" si="147">BB36+BC35</f>
-        <v>179931.77747694668</v>
+        <v>97793.384526353359</v>
       </c>
       <c r="BD36" s="14">
         <f t="shared" ref="BD36" si="148">BC36+BD35</f>
-        <v>193202.41201700334</v>
+        <v>108717.23154321003</v>
       </c>
       <c r="BE36" s="14">
         <f t="shared" ref="BE36" si="149">BD36+BE35</f>
-        <v>207231.11972754</v>
+        <v>119936.91976721669</v>
       </c>
       <c r="BF36" s="14">
         <f t="shared" ref="BF36" si="150">BE36+BF35</f>
-        <v>221999.87757620667</v>
+        <v>131368.19780484337</v>
       </c>
       <c r="BG36" s="14">
         <f t="shared" ref="BG36" si="151">BF36+BG35</f>
-        <v>237673.79150023335</v>
+        <v>143106.15874735004</v>
       </c>
       <c r="BH36" s="14">
         <f t="shared" ref="BH36" si="152">BG36+BH35</f>
-        <v>254177.79192164002</v>
+        <v>155028.55120120672</v>
       </c>
       <c r="BI36" s="14">
         <f t="shared" ref="BI36" si="153">BH36+BI35</f>
-        <v>271661.7227168167</v>
+        <v>167211.45274246339</v>
       </c>
       <c r="BJ36" s="14">
         <f t="shared" ref="BJ36" si="154">BI36+BJ35</f>
-        <v>290134.81224694336</v>
+        <v>179570.58094717006</v>
       </c>
       <c r="BK36" s="14">
         <f t="shared" ref="BK36" si="155">BJ36+BK35</f>
-        <v>319654.97784278</v>
+        <v>196474.72139137672</v>
       </c>
       <c r="BL36" s="14">
         <f t="shared" ref="BL36" si="156">BK36+BL35</f>
-        <v>350747.63428945665</v>
+        <v>213577.81565113339</v>
       </c>
       <c r="BM36" s="14">
         <f t="shared" ref="BM36" si="157">BL36+BM35</f>
-        <v>372463.61334168329</v>
+        <v>226447.07378728007</v>
       </c>
       <c r="BN36" s="14">
         <f t="shared" ref="BN36" si="158">BM36+BN35</f>
-        <v>395357.30772374995</v>
+        <v>239454.82234544674</v>
       </c>
       <c r="BO36" s="14">
         <f t="shared" ref="BO36" si="159">BN36+BO35</f>
-        <v>419449.9351295266</v>
+        <v>252535.76338647341</v>
       </c>
       <c r="BP36" s="14">
         <f t="shared" ref="BP36" si="160">BO36+BP35</f>
-        <v>444918.46670725325</v>
+        <v>265784.94345599005</v>
       </c>
     </row>
     <row r="37" spans="1:68" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7930,259 +7933,259 @@
       </c>
       <c r="E37" s="14">
         <f t="shared" si="161"/>
-        <v>-16047.555666666665</v>
+        <v>-17401.155666666666</v>
       </c>
       <c r="F37" s="14">
         <f t="shared" si="161"/>
-        <v>-16949.911333333333</v>
+        <v>-19625.911333333333</v>
       </c>
       <c r="G37" s="14">
         <f t="shared" si="161"/>
-        <v>-17845.066999999999</v>
+        <v>-21924.267</v>
       </c>
       <c r="H37" s="14">
         <f t="shared" si="161"/>
-        <v>-18584.222666666665</v>
+        <v>-24127.422666666665</v>
       </c>
       <c r="I37" s="14">
         <f t="shared" si="161"/>
-        <v>-671.95566666666673</v>
+        <v>-2216.7556666666669</v>
       </c>
       <c r="J37" s="14">
         <f t="shared" si="161"/>
-        <v>-1323.9113333333335</v>
+        <v>-4449.5113333333338</v>
       </c>
       <c r="K37" s="14">
         <f t="shared" si="161"/>
-        <v>-1819.8670000000002</v>
+        <v>-6607.0670000000009</v>
       </c>
       <c r="L37" s="14">
         <f t="shared" si="161"/>
-        <v>-2295.8226666666669</v>
+        <v>-8800.622666666668</v>
       </c>
       <c r="M37" s="14">
         <f t="shared" si="161"/>
-        <v>-2602.9783333333335</v>
+        <v>-10881.378333333334</v>
       </c>
       <c r="N37" s="14">
         <f t="shared" si="161"/>
-        <v>-2801.3340000000003</v>
+        <v>-12938.134000000002</v>
       </c>
       <c r="O37" s="14">
         <f t="shared" si="161"/>
-        <v>-1931.0158833333337</v>
+        <v>-14323.449666666667</v>
       </c>
       <c r="P37" s="14">
         <f t="shared" ref="P37:AN37" si="162">IF(MONTH(P1)=1,0,O37)+P35</f>
-        <v>-927.39376666666658</v>
+        <v>-15628.445333333333</v>
       </c>
       <c r="Q37" s="14">
         <f t="shared" si="162"/>
-        <v>-808.79164999999978</v>
+        <v>-17549.201000000001</v>
       </c>
       <c r="R37" s="14">
         <f t="shared" si="162"/>
-        <v>-574.66953333333345</v>
+        <v>-19379.556666666667</v>
       </c>
       <c r="S37" s="14">
         <f t="shared" si="162"/>
-        <v>-269.86741666666666</v>
+        <v>-21199.512333333332</v>
       </c>
       <c r="T37" s="14">
         <f t="shared" si="162"/>
-        <v>234.81469999999979</v>
+        <v>-22880.268</v>
       </c>
       <c r="U37" s="14">
         <f t="shared" si="162"/>
-        <v>632.36211666666691</v>
+        <v>-1581.5556666666666</v>
       </c>
       <c r="V37" s="14">
         <f t="shared" si="162"/>
-        <v>1320.2042333333334</v>
+        <v>-3115.1113333333333</v>
       </c>
       <c r="W37" s="14">
         <f t="shared" si="162"/>
-        <v>2220.0863499999996</v>
+        <v>-4431.8670000000002</v>
       </c>
       <c r="X37" s="14">
         <f t="shared" si="162"/>
-        <v>3230.1684666666661</v>
+        <v>-5671.8226666666669</v>
       </c>
       <c r="Y37" s="14">
         <f t="shared" si="162"/>
-        <v>4464.4505833333324</v>
+        <v>-6694.9783333333335</v>
       </c>
       <c r="Z37" s="14">
         <f t="shared" si="162"/>
-        <v>5850.7326999999987</v>
+        <v>-7523.7340000000004</v>
       </c>
       <c r="AA37" s="14">
         <f t="shared" si="162"/>
-        <v>9189.3028166666663</v>
+        <v>-6671.1238833333327</v>
       </c>
       <c r="AB37" s="14">
         <f t="shared" si="162"/>
-        <v>12789.996933333334</v>
+        <v>-5517.0217666666658</v>
       </c>
       <c r="AC37" s="14">
         <f t="shared" si="162"/>
-        <v>14753.87905</v>
+        <v>-5662.577433333332</v>
       </c>
       <c r="AD37" s="14">
         <f t="shared" si="162"/>
-        <v>16936.641166666668</v>
+        <v>-5531.8153166666652</v>
       </c>
       <c r="AE37" s="14">
         <f t="shared" si="162"/>
-        <v>19281.283283333334</v>
+        <v>-5170.0131999999985</v>
       </c>
       <c r="AF37" s="14">
         <f t="shared" si="162"/>
-        <v>21913.965400000001</v>
+        <v>-4435.8110833333321</v>
       </c>
       <c r="AG37" s="14">
         <f t="shared" si="162"/>
-        <v>2875.8821166666667</v>
+        <v>1068.6021166666667</v>
       </c>
       <c r="AH37" s="14">
         <f t="shared" si="162"/>
-        <v>5965.3242333333346</v>
+        <v>2452.6042333333335</v>
       </c>
       <c r="AI37" s="14">
         <f t="shared" si="162"/>
-        <v>9364.4577338800009</v>
+        <v>4266.0063500000006</v>
       </c>
       <c r="AJ37" s="14">
         <f t="shared" si="162"/>
-        <v>12985.308310246668</v>
+        <v>6432.8084666666673</v>
       </c>
       <c r="AK37" s="14">
         <f t="shared" si="162"/>
-        <v>16953.834264703335</v>
+        <v>9084.3659710733336</v>
       </c>
       <c r="AL37" s="14">
         <f t="shared" si="162"/>
-        <v>21240.193899520003</v>
+        <v>12180.801522810001</v>
       </c>
       <c r="AM37" s="14">
         <f t="shared" si="162"/>
-        <v>28951.430001756671</v>
+        <v>18502.469667506666</v>
       </c>
       <c r="AN37" s="14">
         <f t="shared" si="162"/>
-        <v>37162.37384326334</v>
+        <v>25419.984466003334</v>
       </c>
       <c r="AO37" s="14">
         <f t="shared" ref="AO37:AR37" si="163">IF(MONTH(AO1)=1,0,AN37)+AO35</f>
-        <v>42446.469180680011</v>
+        <v>29938.035494350002</v>
       </c>
       <c r="AP37" s="14">
         <f t="shared" si="163"/>
-        <v>48083.931770646675</v>
+        <v>34949.883843806667</v>
       </c>
       <c r="AQ37" s="14">
         <f t="shared" si="163"/>
-        <v>54057.017854593345</v>
+        <v>40390.278120843337</v>
       </c>
       <c r="AR37" s="14">
         <f t="shared" si="163"/>
-        <v>60518.968158740012</v>
+        <v>46373.326931930002</v>
       </c>
       <c r="AS37" s="14">
         <f t="shared" ref="AS37" si="164">IF(MONTH(AS1)=1,0,AR37)+AS35</f>
-        <v>6878.3197353566675</v>
+        <v>6460.4674668166681</v>
       </c>
       <c r="AT37" s="14">
         <f t="shared" ref="AT37" si="165">IF(MONTH(AT1)=1,0,AS37)+AT35</f>
-        <v>14155.218597723335</v>
+        <v>13360.493226253335</v>
       </c>
       <c r="AU37" s="14">
         <f t="shared" ref="AU37" si="166">IF(MONTH(AU1)=1,0,AT37)+AU35</f>
-        <v>21971.7462829</v>
+        <v>20767.84139999</v>
       </c>
       <c r="AV37" s="14">
         <f t="shared" ref="AV37" si="167">IF(MONTH(AV1)=1,0,AU37)+AV35</f>
-        <v>30210.521456266666</v>
+        <v>28587.651624916667</v>
       </c>
       <c r="AW37" s="14">
         <f t="shared" ref="AW37" si="168">IF(MONTH(AW1)=1,0,AV37)+AW35</f>
-        <v>39024.707267993334</v>
+        <v>36925.719053133333</v>
       </c>
       <c r="AX37" s="14">
         <f t="shared" ref="AX37" si="169">IF(MONTH(AX1)=1,0,AW37)+AX35</f>
-        <v>48396.45135304</v>
+        <v>45678.823321529999</v>
       </c>
       <c r="AY37" s="14">
         <f t="shared" ref="AY37" si="170">IF(MONTH(AY1)=1,0,AX37)+AY35</f>
-        <v>63935.381831156672</v>
+        <v>58684.344066996666</v>
       </c>
       <c r="AZ37" s="14">
         <f t="shared" ref="AZ37" si="171">IF(MONTH(AZ1)=1,0,AY37)+AZ35</f>
-        <v>80361.147306883344</v>
+        <v>72118.997411213335</v>
       </c>
       <c r="BA37" s="14">
         <f t="shared" ref="BA37" si="172">IF(MONTH(BA1)=1,0,AZ37)+BA35</f>
-        <v>91543.001354340013</v>
+        <v>82044.298991069998</v>
       </c>
       <c r="BB37" s="14">
         <f t="shared" ref="BB37" si="173">IF(MONTH(BB1)=1,0,BA37)+BB35</f>
-        <v>103368.89803243667</v>
+        <v>92311.444928246667</v>
       </c>
       <c r="BC37" s="14">
         <f t="shared" ref="BC37" si="174">IF(MONTH(BC1)=1,0,BB37)+BC35</f>
-        <v>115848.25188487335</v>
+        <v>102863.55934442334</v>
       </c>
       <c r="BD37" s="14">
         <f t="shared" ref="BD37" si="175">IF(MONTH(BD1)=1,0,BC37)+BD35</f>
-        <v>129118.88642493001</v>
+        <v>113787.40636128001</v>
       </c>
       <c r="BE37" s="14">
         <f t="shared" ref="BE37" si="176">IF(MONTH(BE1)=1,0,BD37)+BE35</f>
-        <v>14028.707710536668</v>
+        <v>11219.688224006668</v>
       </c>
       <c r="BF37" s="14">
         <f t="shared" ref="BF37" si="177">IF(MONTH(BF1)=1,0,BE37)+BF35</f>
-        <v>28797.465559203338</v>
+        <v>22650.966261633337</v>
       </c>
       <c r="BG37" s="14">
         <f t="shared" ref="BG37" si="178">IF(MONTH(BG1)=1,0,BF37)+BG35</f>
-        <v>44471.379483230005</v>
+        <v>34388.927204140004</v>
       </c>
       <c r="BH37" s="14">
         <f t="shared" ref="BH37" si="179">IF(MONTH(BH1)=1,0,BG37)+BH35</f>
-        <v>60975.379904636669</v>
+        <v>46311.319657996675</v>
       </c>
       <c r="BI37" s="14">
         <f t="shared" ref="BI37" si="180">IF(MONTH(BI1)=1,0,BH37)+BI35</f>
-        <v>78459.31069981333</v>
+        <v>58494.221199253341</v>
       </c>
       <c r="BJ37" s="14">
         <f t="shared" ref="BJ37" si="181">IF(MONTH(BJ1)=1,0,BI37)+BJ35</f>
-        <v>96932.400229939987</v>
+        <v>70853.349403960005</v>
       </c>
       <c r="BK37" s="14">
         <f t="shared" ref="BK37" si="182">IF(MONTH(BK1)=1,0,BJ37)+BK35</f>
-        <v>126452.56582577666</v>
+        <v>87757.489848166675</v>
       </c>
       <c r="BL37" s="14">
         <f t="shared" ref="BL37" si="183">IF(MONTH(BL1)=1,0,BK37)+BL35</f>
-        <v>157545.22227245333</v>
+        <v>104860.58410792335</v>
       </c>
       <c r="BM37" s="14">
         <f t="shared" ref="BM37" si="184">IF(MONTH(BM1)=1,0,BL37)+BM35</f>
-        <v>179261.20132468001</v>
+        <v>117729.84224407002</v>
       </c>
       <c r="BN37" s="14">
         <f t="shared" ref="BN37" si="185">IF(MONTH(BN1)=1,0,BM37)+BN35</f>
-        <v>202154.89570674667</v>
+        <v>130737.59080223669</v>
       </c>
       <c r="BO37" s="14">
         <f t="shared" ref="BO37" si="186">IF(MONTH(BO1)=1,0,BN37)+BO35</f>
-        <v>226247.52311252334</v>
+        <v>143818.53184326336</v>
       </c>
       <c r="BP37" s="14">
         <f t="shared" ref="BP37" si="187">IF(MONTH(BP1)=1,0,BO37)+BP35</f>
-        <v>251716.05469025002</v>
+        <v>157067.71191278004</v>
       </c>
     </row>
     <row r="38" spans="1:68" ht="15.75" outlineLevel="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8311,7 +8314,7 @@
       </c>
       <c r="AF38" s="16">
         <f>IF(AND(AF36&gt;0,MONTH(AF1)=12),AF37*Config!$B$43,0)</f>
-        <v>5314.1366095000003</v>
+        <v>0</v>
       </c>
       <c r="AG38" s="16">
         <f>IF(AND(AG36&gt;0,MONTH(AG1)=12),AG37*Config!$B$43,0)</f>
@@ -8359,7 +8362,7 @@
       </c>
       <c r="AR38" s="16">
         <f>IF(AND(AR36&gt;0,MONTH(AR1)=12),AR37*Config!$B$43,0)</f>
-        <v>14675.849778494452</v>
+        <v>0</v>
       </c>
       <c r="AS38" s="16">
         <f>IF(AND(AS36&gt;0,MONTH(AS1)=12),AS37*Config!$B$43,0)</f>
@@ -8407,7 +8410,7 @@
       </c>
       <c r="BD38" s="16">
         <f>IF(AND(BD36&gt;0,MONTH(BD1)=12),BD37*Config!$B$43,0)</f>
-        <v>31311.329958045528</v>
+        <v>27593.446042610401</v>
       </c>
       <c r="BE38" s="16">
         <f>IF(AND(BE36&gt;0,MONTH(BE1)=12),BE37*Config!$B$43,0)</f>
@@ -8455,7 +8458,7 @@
       </c>
       <c r="BP38" s="16">
         <f>IF(AND(BP36&gt;0,MONTH(BP1)=12),BP37*Config!$B$43,0)</f>
-        <v>61041.143262385631</v>
+        <v>38088.920138849157</v>
       </c>
     </row>
     <row r="39" spans="1:68" ht="15.75" outlineLevel="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8476,259 +8479,259 @@
       </c>
       <c r="E39" s="16">
         <f t="shared" si="188"/>
-        <v>-3887.5556666666657</v>
+        <v>-5241.1556666666656</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="188"/>
-        <v>-902.35566666666682</v>
+        <v>-2224.7556666666669</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="188"/>
-        <v>-895.15566666666655</v>
+        <v>-2298.3556666666668</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="188"/>
-        <v>-739.15566666666655</v>
+        <v>-2203.1556666666665</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="188"/>
-        <v>-671.95566666666673</v>
+        <v>-2216.7556666666669</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="188"/>
-        <v>-651.95566666666673</v>
+        <v>-2232.7556666666669</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="188"/>
-        <v>-495.95566666666673</v>
+        <v>-2157.5556666666671</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="188"/>
-        <v>-475.95566666666673</v>
+        <v>-2193.5556666666671</v>
       </c>
       <c r="M39" s="16">
         <f t="shared" si="188"/>
-        <v>-307.15566666666655</v>
+        <v>-2080.7556666666669</v>
       </c>
       <c r="N39" s="16">
         <f t="shared" si="188"/>
-        <v>-198.35566666666682</v>
+        <v>-2056.7556666666669</v>
       </c>
       <c r="O39" s="16">
         <f t="shared" si="188"/>
-        <v>870.31811666666658</v>
+        <v>-1385.3156666666664</v>
       </c>
       <c r="P39" s="16">
         <f t="shared" si="188"/>
-        <v>1003.6221166666671</v>
+        <v>-1304.9956666666667</v>
       </c>
       <c r="Q39" s="16">
         <f t="shared" si="188"/>
-        <v>118.60211666666677</v>
+        <v>-1920.7556666666669</v>
       </c>
       <c r="R39" s="16">
         <f t="shared" si="188"/>
-        <v>234.12211666666627</v>
+        <v>-1830.3556666666668</v>
       </c>
       <c r="S39" s="16">
         <f t="shared" si="188"/>
-        <v>304.80211666666679</v>
+        <v>-1819.9556666666667</v>
       </c>
       <c r="T39" s="16">
         <f t="shared" si="188"/>
-        <v>504.68211666666645</v>
+        <v>-1680.7556666666669</v>
       </c>
       <c r="U39" s="16">
         <f t="shared" si="188"/>
-        <v>632.36211666666691</v>
+        <v>-1581.5556666666666</v>
       </c>
       <c r="V39" s="16">
         <f t="shared" si="188"/>
-        <v>687.84211666666658</v>
+        <v>-1533.5556666666666</v>
       </c>
       <c r="W39" s="16">
         <f t="shared" si="188"/>
-        <v>899.88211666666643</v>
+        <v>-1316.7556666666669</v>
       </c>
       <c r="X39" s="16">
         <f t="shared" si="188"/>
-        <v>1010.0821166666665</v>
+        <v>-1239.9556666666667</v>
       </c>
       <c r="Y39" s="16">
         <f t="shared" si="188"/>
-        <v>1234.2821166666665</v>
+        <v>-1023.1556666666665</v>
       </c>
       <c r="Z39" s="16">
         <f t="shared" si="188"/>
-        <v>1386.2821166666665</v>
+        <v>-828.75566666666691</v>
       </c>
       <c r="AA39" s="16">
         <f t="shared" si="188"/>
-        <v>3338.5701166666672</v>
+        <v>852.61011666666798</v>
       </c>
       <c r="AB39" s="16">
         <f t="shared" si="188"/>
-        <v>3600.6941166666675</v>
+        <v>1154.1021166666667</v>
       </c>
       <c r="AC39" s="16">
         <f t="shared" si="188"/>
-        <v>1963.8821166666664</v>
+        <v>-145.55566666666618</v>
       </c>
       <c r="AD39" s="16">
         <f t="shared" si="188"/>
-        <v>2182.7621166666668</v>
+        <v>130.76211666666694</v>
       </c>
       <c r="AE39" s="16">
         <f t="shared" si="188"/>
-        <v>2344.6421166666664</v>
+        <v>361.80211666666679</v>
       </c>
       <c r="AF39" s="16">
         <f t="shared" si="188"/>
-        <v>-2681.4544928333339</v>
+        <v>734.20211666666683</v>
       </c>
       <c r="AG39" s="16">
         <f t="shared" si="188"/>
-        <v>2875.8821166666667</v>
+        <v>1068.6021166666667</v>
       </c>
       <c r="AH39" s="16">
         <f t="shared" si="188"/>
-        <v>3089.4421166666675</v>
+        <v>1384.0021166666668</v>
       </c>
       <c r="AI39" s="16">
         <f t="shared" si="188"/>
-        <v>3399.1335005466667</v>
+        <v>1813.4021166666669</v>
       </c>
       <c r="AJ39" s="16">
         <f t="shared" si="188"/>
-        <v>3620.8505763666672</v>
+        <v>2166.8021166666667</v>
       </c>
       <c r="AK39" s="16">
         <f t="shared" si="188"/>
-        <v>3968.5259544566666</v>
+        <v>2651.5575044066672</v>
       </c>
       <c r="AL39" s="16">
         <f t="shared" si="188"/>
-        <v>4286.3596348166675</v>
+        <v>3096.4355517366671</v>
       </c>
       <c r="AM39" s="16">
         <f t="shared" si="188"/>
-        <v>7711.2361022366676</v>
+        <v>6321.6681446966668</v>
       </c>
       <c r="AN39" s="16">
         <f t="shared" si="188"/>
-        <v>8210.9438415066688</v>
+        <v>6917.514798496667</v>
       </c>
       <c r="AO39" s="16">
         <f t="shared" ref="AO39:AR39" si="189">AO35-AO38</f>
-        <v>5284.0953374166675</v>
+        <v>4518.0510283466674</v>
       </c>
       <c r="AP39" s="16">
         <f t="shared" si="189"/>
-        <v>5637.4625899666671</v>
+        <v>5011.8483494566663</v>
       </c>
       <c r="AQ39" s="16">
         <f t="shared" si="189"/>
-        <v>5973.0860839466659</v>
+        <v>5440.3942770366684</v>
       </c>
       <c r="AR39" s="16">
         <f t="shared" si="189"/>
-        <v>-8213.8994743477851</v>
+        <v>5983.0488110866681</v>
       </c>
       <c r="AS39" s="16">
         <f t="shared" ref="AS39:BN39" si="190">AS35-AS38</f>
-        <v>6878.3197353566675</v>
+        <v>6460.4674668166681</v>
       </c>
       <c r="AT39" s="16">
         <f t="shared" si="190"/>
-        <v>7276.8988623666673</v>
+        <v>6900.0257594366667</v>
       </c>
       <c r="AU39" s="16">
         <f t="shared" si="190"/>
-        <v>7816.5276851766666</v>
+        <v>7407.3481737366674</v>
       </c>
       <c r="AV39" s="16">
         <f t="shared" si="190"/>
-        <v>8238.7751733666682</v>
+        <v>7819.8102249266667</v>
       </c>
       <c r="AW39" s="16">
         <f t="shared" si="190"/>
-        <v>8814.1858117266675</v>
+        <v>8338.0674282166656</v>
       </c>
       <c r="AX39" s="16">
         <f t="shared" si="190"/>
-        <v>9371.7440850466683</v>
+        <v>8753.104268396668</v>
       </c>
       <c r="AY39" s="16">
         <f t="shared" si="190"/>
-        <v>15538.930478116668</v>
+        <v>13005.520745466667</v>
       </c>
       <c r="AZ39" s="16">
         <f t="shared" si="190"/>
-        <v>16425.765475726668</v>
+        <v>13434.653344216671</v>
       </c>
       <c r="BA39" s="16">
         <f t="shared" si="190"/>
-        <v>11181.854047456667</v>
+        <v>9925.3015798566666</v>
       </c>
       <c r="BB39" s="16">
         <f t="shared" si="190"/>
-        <v>11825.896678096666</v>
+        <v>10267.145937176669</v>
       </c>
       <c r="BC39" s="16">
         <f t="shared" si="190"/>
-        <v>12479.353852436669</v>
+        <v>10552.114416176666</v>
       </c>
       <c r="BD39" s="16">
         <f t="shared" si="190"/>
-        <v>-18040.69541798886</v>
+        <v>-16669.599025753734</v>
       </c>
       <c r="BE39" s="16">
         <f t="shared" si="190"/>
-        <v>14028.707710536668</v>
+        <v>11219.688224006668</v>
       </c>
       <c r="BF39" s="16">
         <f t="shared" si="190"/>
-        <v>14768.757848666668</v>
+        <v>11431.278037626667</v>
       </c>
       <c r="BG39" s="16">
         <f t="shared" si="190"/>
-        <v>15673.913924026669</v>
+        <v>11737.960942506666</v>
       </c>
       <c r="BH39" s="16">
         <f t="shared" si="190"/>
-        <v>16504.000421406665</v>
+        <v>11922.392453856668</v>
       </c>
       <c r="BI39" s="16">
         <f t="shared" si="190"/>
-        <v>17483.930795176664</v>
+        <v>12182.901541256666</v>
       </c>
       <c r="BJ39" s="16">
         <f t="shared" si="190"/>
-        <v>18473.089530126665</v>
+        <v>12359.128204706669</v>
       </c>
       <c r="BK39" s="16">
         <f t="shared" si="190"/>
-        <v>29520.165595836672</v>
+        <v>16904.140444206667</v>
       </c>
       <c r="BL39" s="16">
         <f t="shared" si="190"/>
-        <v>31092.656446676669</v>
+        <v>17103.094259756668</v>
       </c>
       <c r="BM39" s="16">
         <f t="shared" si="190"/>
-        <v>21715.979052226667</v>
+        <v>12869.258136146667</v>
       </c>
       <c r="BN39" s="16">
         <f t="shared" si="190"/>
-        <v>22893.694382066671</v>
+        <v>13007.748558166666</v>
       </c>
       <c r="BO39" s="16">
         <f t="shared" ref="BO39:BP39" si="191">BO35-BO38</f>
-        <v>24092.627405776668</v>
+        <v>13080.941041026668</v>
       </c>
       <c r="BP39" s="16">
         <f t="shared" si="191"/>
-        <v>-35572.611684658965</v>
+        <v>-24839.740069332489</v>
       </c>
     </row>
     <row r="43" spans="1:68" x14ac:dyDescent="0.25">
@@ -8737,7 +8740,7 @@
     <row r="45" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B45" s="15">
         <f>SUM(39:39)</f>
-        <v>332576.00709882763</v>
+        <v>200102.57727453049</v>
       </c>
     </row>
   </sheetData>
@@ -8750,8 +8753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP31"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AI24" sqref="AI24"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8995,255 +8998,255 @@
       </c>
       <c r="F4" s="14">
         <f t="shared" si="0"/>
-        <v>-16309.555666666665</v>
+        <v>-17663.155666666666</v>
       </c>
       <c r="G4" s="14">
         <f t="shared" si="0"/>
-        <v>-17211.911333333333</v>
+        <v>-19887.911333333333</v>
       </c>
       <c r="H4" s="14">
         <f t="shared" si="0"/>
-        <v>-18107.066999999999</v>
+        <v>-22186.267</v>
       </c>
       <c r="I4" s="14">
         <f t="shared" si="0"/>
-        <v>-18846.222666666665</v>
+        <v>-24389.422666666665</v>
       </c>
       <c r="J4" s="14">
         <f t="shared" si="0"/>
-        <v>-19518.17833333333</v>
+        <v>-26606.178333333333</v>
       </c>
       <c r="K4" s="14">
         <f t="shared" si="0"/>
-        <v>-20170.133999999998</v>
+        <v>-28838.934000000001</v>
       </c>
       <c r="L4" s="14">
         <f t="shared" si="0"/>
-        <v>-20666.089666666667</v>
+        <v>-30996.489666666668</v>
       </c>
       <c r="M4" s="14">
         <f t="shared" si="0"/>
-        <v>-21142.045333333335</v>
+        <v>-33190.045333333335</v>
       </c>
       <c r="N4" s="14">
         <f t="shared" si="0"/>
-        <v>-21449.201000000001</v>
+        <v>-35270.800999999999</v>
       </c>
       <c r="O4" s="14">
         <f t="shared" si="0"/>
-        <v>-21647.556666666667</v>
+        <v>-37327.556666666664</v>
       </c>
       <c r="P4" s="14">
         <f t="shared" si="0"/>
-        <v>-20777.238550000002</v>
+        <v>-38712.872333333333</v>
       </c>
       <c r="Q4" s="14">
         <f t="shared" si="0"/>
-        <v>-19773.616433333336</v>
+        <v>-40017.868000000002</v>
       </c>
       <c r="R4" s="14">
         <f t="shared" si="0"/>
-        <v>-19655.014316666671</v>
+        <v>-41938.623666666666</v>
       </c>
       <c r="S4" s="14">
         <f t="shared" si="0"/>
-        <v>-19420.892200000006</v>
+        <v>-43768.979333333336</v>
       </c>
       <c r="T4" s="14">
         <f t="shared" si="0"/>
-        <v>-19116.09008333334</v>
+        <v>-45588.935000000005</v>
       </c>
       <c r="U4" s="14">
         <f t="shared" si="0"/>
-        <v>-18611.407966666673</v>
+        <v>-47269.690666666669</v>
       </c>
       <c r="V4" s="14">
         <f t="shared" si="0"/>
-        <v>-17979.045850000006</v>
+        <v>-48851.246333333336</v>
       </c>
       <c r="W4" s="14">
         <f t="shared" si="0"/>
-        <v>-17291.203733333339</v>
+        <v>-50384.802000000003</v>
       </c>
       <c r="X4" s="14">
         <f t="shared" si="0"/>
-        <v>-16391.321616666672</v>
+        <v>-51701.557666666668</v>
       </c>
       <c r="Y4" s="14">
         <f t="shared" si="0"/>
-        <v>-15381.239500000005</v>
+        <v>-52941.513333333336</v>
       </c>
       <c r="Z4" s="14">
         <f t="shared" si="0"/>
-        <v>-14146.957383333338</v>
+        <v>-53964.669000000002</v>
       </c>
       <c r="AA4" s="14">
         <f t="shared" si="0"/>
-        <v>-12760.675266666671</v>
+        <v>-54793.424666666666</v>
       </c>
       <c r="AB4" s="14">
         <f t="shared" si="0"/>
-        <v>-9422.1051500000031</v>
+        <v>-53940.814549999996</v>
       </c>
       <c r="AC4" s="14">
         <f t="shared" si="0"/>
-        <v>-5821.4110333333356</v>
+        <v>-52786.712433333327</v>
       </c>
       <c r="AD4" s="14">
         <f t="shared" si="0"/>
-        <v>-3857.5289166666689</v>
+        <v>-52932.268099999994</v>
       </c>
       <c r="AE4" s="14">
         <f t="shared" si="0"/>
-        <v>-1674.7668000000021</v>
+        <v>-52801.505983333329</v>
       </c>
       <c r="AF4" s="14">
         <f t="shared" si="0"/>
-        <v>669.87531666666428</v>
+        <v>-52439.703866666663</v>
       </c>
       <c r="AG4" s="14">
         <f t="shared" ref="AG4:AN4" si="1">AF24</f>
-        <v>-2011.5791761666696</v>
+        <v>-51705.501749999996</v>
       </c>
       <c r="AH4" s="14">
         <f t="shared" si="1"/>
-        <v>864.30294049999702</v>
+        <v>-50636.899633333327</v>
       </c>
       <c r="AI4" s="14">
         <f t="shared" si="1"/>
-        <v>3953.7450571666645</v>
+        <v>-49252.897516666657</v>
       </c>
       <c r="AJ4" s="14">
         <f t="shared" si="1"/>
-        <v>7352.8785577133312</v>
+        <v>-47439.495399999993</v>
       </c>
       <c r="AK4" s="14">
         <f t="shared" si="1"/>
-        <v>10973.729134079998</v>
+        <v>-45272.693283333327</v>
       </c>
       <c r="AL4" s="14">
         <f t="shared" si="1"/>
-        <v>14942.255088536665</v>
+        <v>-42621.135778926662</v>
       </c>
       <c r="AM4" s="14">
         <f t="shared" si="1"/>
-        <v>19228.614723353334</v>
+        <v>-39524.700227189998</v>
       </c>
       <c r="AN4" s="14">
         <f t="shared" si="1"/>
-        <v>26939.850825590001</v>
+        <v>-33203.03208249333</v>
       </c>
       <c r="AO4" s="14">
         <f t="shared" ref="AO4:AR4" si="2">AN24</f>
-        <v>35150.79466709667</v>
+        <v>-26285.517283996662</v>
       </c>
       <c r="AP4" s="14">
         <f t="shared" si="2"/>
-        <v>40434.890004513334</v>
+        <v>-21767.466255649993</v>
       </c>
       <c r="AQ4" s="14">
         <f t="shared" si="2"/>
-        <v>46072.352594479999</v>
+        <v>-16755.617906193329</v>
       </c>
       <c r="AR4" s="14">
         <f t="shared" si="2"/>
-        <v>52045.438678426668</v>
+        <v>-11315.223629156661</v>
       </c>
       <c r="AS4" s="14">
         <f t="shared" ref="AS4" si="3">AR24</f>
-        <v>43831.539204078887</v>
+        <v>-5332.1748180699924</v>
       </c>
       <c r="AT4" s="14">
         <f t="shared" ref="AT4" si="4">AS24</f>
-        <v>50709.858939435551</v>
+        <v>1128.2926487466757</v>
       </c>
       <c r="AU4" s="14">
         <f t="shared" ref="AU4" si="5">AT24</f>
-        <v>57986.757801802218</v>
+        <v>8028.3184081833424</v>
       </c>
       <c r="AV4" s="14">
         <f t="shared" ref="AV4" si="6">AU24</f>
-        <v>65803.285486978886</v>
+        <v>15435.66658192001</v>
       </c>
       <c r="AW4" s="14">
         <f t="shared" ref="AW4" si="7">AV24</f>
-        <v>74042.060660345553</v>
+        <v>23255.476806846676</v>
       </c>
       <c r="AX4" s="14">
         <f t="shared" ref="AX4" si="8">AW24</f>
-        <v>82856.24647207222</v>
+        <v>31593.544235063342</v>
       </c>
       <c r="AY4" s="14">
         <f t="shared" ref="AY4" si="9">AX24</f>
-        <v>92227.990557118886</v>
+        <v>40346.648503460012</v>
       </c>
       <c r="AZ4" s="14">
         <f t="shared" ref="AZ4" si="10">AY24</f>
-        <v>107766.92103523556</v>
+        <v>53352.169248926679</v>
       </c>
       <c r="BA4" s="14">
         <f t="shared" ref="BA4" si="11">AZ24</f>
-        <v>124192.68651096223</v>
+        <v>66786.822593143355</v>
       </c>
       <c r="BB4" s="14">
         <f t="shared" ref="BB4" si="12">BA24</f>
-        <v>135374.5405584189</v>
+        <v>76712.124173000018</v>
       </c>
       <c r="BC4" s="14">
         <f t="shared" ref="BC4" si="13">BB24</f>
-        <v>147200.43723651557</v>
+        <v>86979.270110176687</v>
       </c>
       <c r="BD4" s="14">
         <f t="shared" ref="BD4" si="14">BC24</f>
-        <v>159679.79108895225</v>
+        <v>97531.384526353359</v>
       </c>
       <c r="BE4" s="14">
         <f t="shared" ref="BE4" si="15">BD24</f>
-        <v>141639.09567096338</v>
+        <v>80861.785500599624</v>
       </c>
       <c r="BF4" s="14">
         <f t="shared" ref="BF4" si="16">BE24</f>
-        <v>155667.80338150004</v>
+        <v>92081.473724606287</v>
       </c>
       <c r="BG4" s="14">
         <f t="shared" ref="BG4" si="17">BF24</f>
-        <v>170436.5612301667</v>
+        <v>103512.75176223295</v>
       </c>
       <c r="BH4" s="14">
         <f t="shared" ref="BH4" si="18">BG24</f>
-        <v>186110.47515419338</v>
+        <v>115250.71270473962</v>
       </c>
       <c r="BI4" s="14">
         <f t="shared" ref="BI4" si="19">BH24</f>
-        <v>202614.47557560005</v>
+        <v>127173.10515859629</v>
       </c>
       <c r="BJ4" s="14">
         <f t="shared" ref="BJ4" si="20">BI24</f>
-        <v>220098.40637077671</v>
+        <v>139356.00669985294</v>
       </c>
       <c r="BK4" s="14">
         <f t="shared" ref="BK4" si="21">BJ24</f>
-        <v>238571.49590090336</v>
+        <v>151715.13490455961</v>
       </c>
       <c r="BL4" s="14">
         <f t="shared" ref="BL4" si="22">BK24</f>
-        <v>268091.66149674001</v>
+        <v>168619.27534876627</v>
       </c>
       <c r="BM4" s="14">
         <f t="shared" ref="BM4" si="23">BL24</f>
-        <v>299184.31794341665</v>
+        <v>185722.36960852295</v>
       </c>
       <c r="BN4" s="14">
         <f t="shared" ref="BN4" si="24">BM24</f>
-        <v>320900.29699564329</v>
+        <v>198591.62774466962</v>
       </c>
       <c r="BO4" s="14">
         <f t="shared" ref="BO4" si="25">BN24</f>
-        <v>343793.99137770996</v>
+        <v>211599.37630283629</v>
       </c>
       <c r="BP4" s="14">
         <f t="shared" ref="BP4" si="26">BO24</f>
-        <v>367886.6187834866</v>
+        <v>224680.31734386296</v>
       </c>
     </row>
     <row r="5" spans="1:68" x14ac:dyDescent="0.25">
@@ -9333,259 +9336,259 @@
       </c>
       <c r="E6" s="14">
         <f>IS!E35</f>
-        <v>-3887.5556666666657</v>
+        <v>-5241.1556666666656</v>
       </c>
       <c r="F6" s="14">
         <f>IS!F35</f>
-        <v>-902.35566666666682</v>
+        <v>-2224.7556666666669</v>
       </c>
       <c r="G6" s="14">
         <f>IS!G35</f>
-        <v>-895.15566666666655</v>
+        <v>-2298.3556666666668</v>
       </c>
       <c r="H6" s="14">
         <f>IS!H35</f>
-        <v>-739.15566666666655</v>
+        <v>-2203.1556666666665</v>
       </c>
       <c r="I6" s="14">
         <f>IS!I35</f>
-        <v>-671.95566666666673</v>
+        <v>-2216.7556666666669</v>
       </c>
       <c r="J6" s="14">
         <f>IS!J35</f>
-        <v>-651.95566666666673</v>
+        <v>-2232.7556666666669</v>
       </c>
       <c r="K6" s="14">
         <f>IS!K35</f>
-        <v>-495.95566666666673</v>
+        <v>-2157.5556666666671</v>
       </c>
       <c r="L6" s="14">
         <f>IS!L35</f>
-        <v>-475.95566666666673</v>
+        <v>-2193.5556666666671</v>
       </c>
       <c r="M6" s="14">
         <f>IS!M35</f>
-        <v>-307.15566666666655</v>
+        <v>-2080.7556666666669</v>
       </c>
       <c r="N6" s="14">
         <f>IS!N35</f>
-        <v>-198.35566666666682</v>
+        <v>-2056.7556666666669</v>
       </c>
       <c r="O6" s="14">
         <f>IS!O35</f>
-        <v>870.31811666666658</v>
+        <v>-1385.3156666666664</v>
       </c>
       <c r="P6" s="14">
         <f>IS!P35</f>
-        <v>1003.6221166666671</v>
+        <v>-1304.9956666666667</v>
       </c>
       <c r="Q6" s="14">
         <f>IS!Q35</f>
-        <v>118.60211666666677</v>
+        <v>-1920.7556666666669</v>
       </c>
       <c r="R6" s="14">
         <f>IS!R35</f>
-        <v>234.12211666666627</v>
+        <v>-1830.3556666666668</v>
       </c>
       <c r="S6" s="14">
         <f>IS!S35</f>
-        <v>304.80211666666679</v>
+        <v>-1819.9556666666667</v>
       </c>
       <c r="T6" s="14">
         <f>IS!T35</f>
-        <v>504.68211666666645</v>
+        <v>-1680.7556666666669</v>
       </c>
       <c r="U6" s="14">
         <f>IS!U35</f>
-        <v>632.36211666666691</v>
+        <v>-1581.5556666666666</v>
       </c>
       <c r="V6" s="14">
         <f>IS!V35</f>
-        <v>687.84211666666658</v>
+        <v>-1533.5556666666666</v>
       </c>
       <c r="W6" s="14">
         <f>IS!W35</f>
-        <v>899.88211666666643</v>
+        <v>-1316.7556666666669</v>
       </c>
       <c r="X6" s="14">
         <f>IS!X35</f>
-        <v>1010.0821166666665</v>
+        <v>-1239.9556666666667</v>
       </c>
       <c r="Y6" s="14">
         <f>IS!Y35</f>
-        <v>1234.2821166666665</v>
+        <v>-1023.1556666666665</v>
       </c>
       <c r="Z6" s="14">
         <f>IS!Z35</f>
-        <v>1386.2821166666665</v>
+        <v>-828.75566666666691</v>
       </c>
       <c r="AA6" s="14">
         <f>IS!AA35</f>
-        <v>3338.5701166666672</v>
+        <v>852.61011666666798</v>
       </c>
       <c r="AB6" s="14">
         <f>IS!AB35</f>
-        <v>3600.6941166666675</v>
+        <v>1154.1021166666667</v>
       </c>
       <c r="AC6" s="14">
         <f>IS!AC35</f>
-        <v>1963.8821166666664</v>
+        <v>-145.55566666666618</v>
       </c>
       <c r="AD6" s="14">
         <f>IS!AD35</f>
-        <v>2182.7621166666668</v>
+        <v>130.76211666666694</v>
       </c>
       <c r="AE6" s="14">
         <f>IS!AE35</f>
-        <v>2344.6421166666664</v>
+        <v>361.80211666666679</v>
       </c>
       <c r="AF6" s="14">
         <f>IS!AF35</f>
-        <v>2632.6821166666664</v>
+        <v>734.20211666666683</v>
       </c>
       <c r="AG6" s="14">
         <f>IS!AG35</f>
-        <v>2875.8821166666667</v>
+        <v>1068.6021166666667</v>
       </c>
       <c r="AH6" s="14">
         <f>IS!AH35</f>
-        <v>3089.4421166666675</v>
+        <v>1384.0021166666668</v>
       </c>
       <c r="AI6" s="14">
         <f>IS!AI35</f>
-        <v>3399.1335005466667</v>
+        <v>1813.4021166666669</v>
       </c>
       <c r="AJ6" s="14">
         <f>IS!AJ35</f>
-        <v>3620.8505763666672</v>
+        <v>2166.8021166666667</v>
       </c>
       <c r="AK6" s="14">
         <f>IS!AK35</f>
-        <v>3968.5259544566666</v>
+        <v>2651.5575044066672</v>
       </c>
       <c r="AL6" s="14">
         <f>IS!AL35</f>
-        <v>4286.3596348166675</v>
+        <v>3096.4355517366671</v>
       </c>
       <c r="AM6" s="14">
         <f>IS!AM35</f>
-        <v>7711.2361022366676</v>
+        <v>6321.6681446966668</v>
       </c>
       <c r="AN6" s="14">
         <f>IS!AN35</f>
-        <v>8210.9438415066688</v>
+        <v>6917.514798496667</v>
       </c>
       <c r="AO6" s="14">
         <f>IS!AO35</f>
-        <v>5284.0953374166675</v>
+        <v>4518.0510283466674</v>
       </c>
       <c r="AP6" s="14">
         <f>IS!AP35</f>
-        <v>5637.4625899666671</v>
+        <v>5011.8483494566663</v>
       </c>
       <c r="AQ6" s="14">
         <f>IS!AQ35</f>
-        <v>5973.0860839466659</v>
+        <v>5440.3942770366684</v>
       </c>
       <c r="AR6" s="14">
         <f>IS!AR35</f>
-        <v>6461.950304146666</v>
+        <v>5983.0488110866681</v>
       </c>
       <c r="AS6" s="14">
         <f>IS!AS35</f>
-        <v>6878.3197353566675</v>
+        <v>6460.4674668166681</v>
       </c>
       <c r="AT6" s="14">
         <f>IS!AT35</f>
-        <v>7276.8988623666673</v>
+        <v>6900.0257594366667</v>
       </c>
       <c r="AU6" s="14">
         <f>IS!AU35</f>
-        <v>7816.5276851766666</v>
+        <v>7407.3481737366674</v>
       </c>
       <c r="AV6" s="14">
         <f>IS!AV35</f>
-        <v>8238.7751733666682</v>
+        <v>7819.8102249266667</v>
       </c>
       <c r="AW6" s="14">
         <f>IS!AW35</f>
-        <v>8814.1858117266675</v>
+        <v>8338.0674282166656</v>
       </c>
       <c r="AX6" s="14">
         <f>IS!AX35</f>
-        <v>9371.7440850466683</v>
+        <v>8753.104268396668</v>
       </c>
       <c r="AY6" s="14">
         <f>IS!AY35</f>
-        <v>15538.930478116668</v>
+        <v>13005.520745466667</v>
       </c>
       <c r="AZ6" s="14">
         <f>IS!AZ35</f>
-        <v>16425.765475726668</v>
+        <v>13434.653344216671</v>
       </c>
       <c r="BA6" s="14">
         <f>IS!BA35</f>
-        <v>11181.854047456667</v>
+        <v>9925.3015798566666</v>
       </c>
       <c r="BB6" s="14">
         <f>IS!BB35</f>
-        <v>11825.896678096666</v>
+        <v>10267.145937176669</v>
       </c>
       <c r="BC6" s="14">
         <f>IS!BC35</f>
-        <v>12479.353852436669</v>
+        <v>10552.114416176666</v>
       </c>
       <c r="BD6" s="14">
         <f>IS!BD35</f>
-        <v>13270.634540056668</v>
+        <v>10923.847016856667</v>
       </c>
       <c r="BE6" s="14">
         <f>IS!BE35</f>
-        <v>14028.707710536668</v>
+        <v>11219.688224006668</v>
       </c>
       <c r="BF6" s="14">
         <f>IS!BF35</f>
-        <v>14768.757848666668</v>
+        <v>11431.278037626667</v>
       </c>
       <c r="BG6" s="14">
         <f>IS!BG35</f>
-        <v>15673.913924026669</v>
+        <v>11737.960942506666</v>
       </c>
       <c r="BH6" s="14">
         <f>IS!BH35</f>
-        <v>16504.000421406665</v>
+        <v>11922.392453856668</v>
       </c>
       <c r="BI6" s="14">
         <f>IS!BI35</f>
-        <v>17483.930795176664</v>
+        <v>12182.901541256666</v>
       </c>
       <c r="BJ6" s="14">
         <f>IS!BJ35</f>
-        <v>18473.089530126665</v>
+        <v>12359.128204706669</v>
       </c>
       <c r="BK6" s="14">
         <f>IS!BK35</f>
-        <v>29520.165595836672</v>
+        <v>16904.140444206667</v>
       </c>
       <c r="BL6" s="14">
         <f>IS!BL35</f>
-        <v>31092.656446676669</v>
+        <v>17103.094259756668</v>
       </c>
       <c r="BM6" s="14">
         <f>IS!BM35</f>
-        <v>21715.979052226667</v>
+        <v>12869.258136146667</v>
       </c>
       <c r="BN6" s="14">
         <f>IS!BN35</f>
-        <v>22893.694382066671</v>
+        <v>13007.748558166666</v>
       </c>
       <c r="BO6" s="14">
         <f>IS!BO35</f>
-        <v>24092.627405776668</v>
+        <v>13080.941041026668</v>
       </c>
       <c r="BP6" s="14">
         <f>IS!BP35</f>
-        <v>25468.531577726666</v>
+        <v>13249.180069516669</v>
       </c>
     </row>
     <row r="7" spans="1:68" x14ac:dyDescent="0.25">
@@ -9714,7 +9717,7 @@
       </c>
       <c r="AF7" s="14">
         <f>IS!AF38</f>
-        <v>5314.1366095000003</v>
+        <v>0</v>
       </c>
       <c r="AG7" s="14">
         <f>IS!AG38</f>
@@ -9762,7 +9765,7 @@
       </c>
       <c r="AR7" s="14">
         <f>IS!AR38</f>
-        <v>14675.849778494452</v>
+        <v>0</v>
       </c>
       <c r="AS7" s="14">
         <f>IS!AS38</f>
@@ -9810,7 +9813,7 @@
       </c>
       <c r="BD7" s="14">
         <f>IS!BD38</f>
-        <v>31311.329958045528</v>
+        <v>27593.446042610401</v>
       </c>
       <c r="BE7" s="14">
         <f>IS!BE38</f>
@@ -9858,7 +9861,7 @@
       </c>
       <c r="BP7" s="14">
         <f>IS!BP38</f>
-        <v>61041.143262385631</v>
+        <v>38088.920138849157</v>
       </c>
     </row>
     <row r="8" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9948,259 +9951,259 @@
       </c>
       <c r="E9" s="13">
         <f t="shared" ref="E9:AF9" si="27">E6-E7</f>
-        <v>-3887.5556666666657</v>
+        <v>-5241.1556666666656</v>
       </c>
       <c r="F9" s="13">
         <f t="shared" si="27"/>
-        <v>-902.35566666666682</v>
+        <v>-2224.7556666666669</v>
       </c>
       <c r="G9" s="13">
         <f t="shared" si="27"/>
-        <v>-895.15566666666655</v>
+        <v>-2298.3556666666668</v>
       </c>
       <c r="H9" s="13">
         <f t="shared" si="27"/>
-        <v>-739.15566666666655</v>
+        <v>-2203.1556666666665</v>
       </c>
       <c r="I9" s="13">
         <f t="shared" si="27"/>
-        <v>-671.95566666666673</v>
+        <v>-2216.7556666666669</v>
       </c>
       <c r="J9" s="13">
         <f t="shared" si="27"/>
-        <v>-651.95566666666673</v>
+        <v>-2232.7556666666669</v>
       </c>
       <c r="K9" s="13">
         <f t="shared" si="27"/>
-        <v>-495.95566666666673</v>
+        <v>-2157.5556666666671</v>
       </c>
       <c r="L9" s="13">
         <f t="shared" si="27"/>
-        <v>-475.95566666666673</v>
+        <v>-2193.5556666666671</v>
       </c>
       <c r="M9" s="13">
         <f t="shared" si="27"/>
-        <v>-307.15566666666655</v>
+        <v>-2080.7556666666669</v>
       </c>
       <c r="N9" s="13">
         <f t="shared" si="27"/>
-        <v>-198.35566666666682</v>
+        <v>-2056.7556666666669</v>
       </c>
       <c r="O9" s="13">
         <f t="shared" si="27"/>
-        <v>870.31811666666658</v>
+        <v>-1385.3156666666664</v>
       </c>
       <c r="P9" s="13">
         <f t="shared" si="27"/>
-        <v>1003.6221166666671</v>
+        <v>-1304.9956666666667</v>
       </c>
       <c r="Q9" s="13">
         <f t="shared" si="27"/>
-        <v>118.60211666666677</v>
+        <v>-1920.7556666666669</v>
       </c>
       <c r="R9" s="13">
         <f t="shared" si="27"/>
-        <v>234.12211666666627</v>
+        <v>-1830.3556666666668</v>
       </c>
       <c r="S9" s="13">
         <f t="shared" si="27"/>
-        <v>304.80211666666679</v>
+        <v>-1819.9556666666667</v>
       </c>
       <c r="T9" s="13">
         <f t="shared" si="27"/>
-        <v>504.68211666666645</v>
+        <v>-1680.7556666666669</v>
       </c>
       <c r="U9" s="13">
         <f t="shared" si="27"/>
-        <v>632.36211666666691</v>
+        <v>-1581.5556666666666</v>
       </c>
       <c r="V9" s="13">
         <f t="shared" si="27"/>
-        <v>687.84211666666658</v>
+        <v>-1533.5556666666666</v>
       </c>
       <c r="W9" s="13">
         <f t="shared" si="27"/>
-        <v>899.88211666666643</v>
+        <v>-1316.7556666666669</v>
       </c>
       <c r="X9" s="13">
         <f t="shared" si="27"/>
-        <v>1010.0821166666665</v>
+        <v>-1239.9556666666667</v>
       </c>
       <c r="Y9" s="13">
         <f t="shared" si="27"/>
-        <v>1234.2821166666665</v>
+        <v>-1023.1556666666665</v>
       </c>
       <c r="Z9" s="13">
         <f t="shared" si="27"/>
-        <v>1386.2821166666665</v>
+        <v>-828.75566666666691</v>
       </c>
       <c r="AA9" s="13">
         <f t="shared" si="27"/>
-        <v>3338.5701166666672</v>
+        <v>852.61011666666798</v>
       </c>
       <c r="AB9" s="13">
         <f t="shared" si="27"/>
-        <v>3600.6941166666675</v>
+        <v>1154.1021166666667</v>
       </c>
       <c r="AC9" s="13">
         <f t="shared" si="27"/>
-        <v>1963.8821166666664</v>
+        <v>-145.55566666666618</v>
       </c>
       <c r="AD9" s="13">
         <f t="shared" si="27"/>
-        <v>2182.7621166666668</v>
+        <v>130.76211666666694</v>
       </c>
       <c r="AE9" s="13">
         <f t="shared" si="27"/>
-        <v>2344.6421166666664</v>
+        <v>361.80211666666679</v>
       </c>
       <c r="AF9" s="13">
         <f t="shared" si="27"/>
-        <v>-2681.4544928333339</v>
+        <v>734.20211666666683</v>
       </c>
       <c r="AG9" s="13">
         <f t="shared" ref="AG9:AN9" si="28">AG6-AG7</f>
-        <v>2875.8821166666667</v>
+        <v>1068.6021166666667</v>
       </c>
       <c r="AH9" s="13">
         <f t="shared" si="28"/>
-        <v>3089.4421166666675</v>
+        <v>1384.0021166666668</v>
       </c>
       <c r="AI9" s="13">
         <f t="shared" si="28"/>
-        <v>3399.1335005466667</v>
+        <v>1813.4021166666669</v>
       </c>
       <c r="AJ9" s="13">
         <f t="shared" si="28"/>
-        <v>3620.8505763666672</v>
+        <v>2166.8021166666667</v>
       </c>
       <c r="AK9" s="13">
         <f t="shared" si="28"/>
-        <v>3968.5259544566666</v>
+        <v>2651.5575044066672</v>
       </c>
       <c r="AL9" s="13">
         <f t="shared" si="28"/>
-        <v>4286.3596348166675</v>
+        <v>3096.4355517366671</v>
       </c>
       <c r="AM9" s="13">
         <f t="shared" si="28"/>
-        <v>7711.2361022366676</v>
+        <v>6321.6681446966668</v>
       </c>
       <c r="AN9" s="13">
         <f t="shared" si="28"/>
-        <v>8210.9438415066688</v>
+        <v>6917.514798496667</v>
       </c>
       <c r="AO9" s="13">
         <f t="shared" ref="AO9:AR9" si="29">AO6-AO7</f>
-        <v>5284.0953374166675</v>
+        <v>4518.0510283466674</v>
       </c>
       <c r="AP9" s="13">
         <f t="shared" si="29"/>
-        <v>5637.4625899666671</v>
+        <v>5011.8483494566663</v>
       </c>
       <c r="AQ9" s="13">
         <f t="shared" si="29"/>
-        <v>5973.0860839466659</v>
+        <v>5440.3942770366684</v>
       </c>
       <c r="AR9" s="18">
         <f t="shared" si="29"/>
-        <v>-8213.8994743477851</v>
+        <v>5983.0488110866681</v>
       </c>
       <c r="AS9" s="18">
         <f t="shared" ref="AS9:BP9" si="30">AS6-AS7</f>
-        <v>6878.3197353566675</v>
+        <v>6460.4674668166681</v>
       </c>
       <c r="AT9" s="18">
         <f t="shared" si="30"/>
-        <v>7276.8988623666673</v>
+        <v>6900.0257594366667</v>
       </c>
       <c r="AU9" s="18">
         <f t="shared" si="30"/>
-        <v>7816.5276851766666</v>
+        <v>7407.3481737366674</v>
       </c>
       <c r="AV9" s="18">
         <f t="shared" si="30"/>
-        <v>8238.7751733666682</v>
+        <v>7819.8102249266667</v>
       </c>
       <c r="AW9" s="18">
         <f t="shared" si="30"/>
-        <v>8814.1858117266675</v>
+        <v>8338.0674282166656</v>
       </c>
       <c r="AX9" s="18">
         <f t="shared" si="30"/>
-        <v>9371.7440850466683</v>
+        <v>8753.104268396668</v>
       </c>
       <c r="AY9" s="18">
         <f t="shared" si="30"/>
-        <v>15538.930478116668</v>
+        <v>13005.520745466667</v>
       </c>
       <c r="AZ9" s="18">
         <f t="shared" si="30"/>
-        <v>16425.765475726668</v>
+        <v>13434.653344216671</v>
       </c>
       <c r="BA9" s="18">
         <f t="shared" si="30"/>
-        <v>11181.854047456667</v>
+        <v>9925.3015798566666</v>
       </c>
       <c r="BB9" s="18">
         <f t="shared" si="30"/>
-        <v>11825.896678096666</v>
+        <v>10267.145937176669</v>
       </c>
       <c r="BC9" s="18">
         <f t="shared" si="30"/>
-        <v>12479.353852436669</v>
+        <v>10552.114416176666</v>
       </c>
       <c r="BD9" s="18">
         <f t="shared" si="30"/>
-        <v>-18040.69541798886</v>
+        <v>-16669.599025753734</v>
       </c>
       <c r="BE9" s="18">
         <f t="shared" si="30"/>
-        <v>14028.707710536668</v>
+        <v>11219.688224006668</v>
       </c>
       <c r="BF9" s="18">
         <f t="shared" si="30"/>
-        <v>14768.757848666668</v>
+        <v>11431.278037626667</v>
       </c>
       <c r="BG9" s="18">
         <f t="shared" si="30"/>
-        <v>15673.913924026669</v>
+        <v>11737.960942506666</v>
       </c>
       <c r="BH9" s="18">
         <f t="shared" si="30"/>
-        <v>16504.000421406665</v>
+        <v>11922.392453856668</v>
       </c>
       <c r="BI9" s="18">
         <f t="shared" si="30"/>
-        <v>17483.930795176664</v>
+        <v>12182.901541256666</v>
       </c>
       <c r="BJ9" s="18">
         <f t="shared" si="30"/>
-        <v>18473.089530126665</v>
+        <v>12359.128204706669</v>
       </c>
       <c r="BK9" s="18">
         <f t="shared" si="30"/>
-        <v>29520.165595836672</v>
+        <v>16904.140444206667</v>
       </c>
       <c r="BL9" s="18">
         <f t="shared" si="30"/>
-        <v>31092.656446676669</v>
+        <v>17103.094259756668</v>
       </c>
       <c r="BM9" s="18">
         <f t="shared" si="30"/>
-        <v>21715.979052226667</v>
+        <v>12869.258136146667</v>
       </c>
       <c r="BN9" s="18">
         <f t="shared" si="30"/>
-        <v>22893.694382066671</v>
+        <v>13007.748558166666</v>
       </c>
       <c r="BO9" s="18">
         <f t="shared" si="30"/>
-        <v>24092.627405776668</v>
+        <v>13080.941041026668</v>
       </c>
       <c r="BP9" s="18">
         <f t="shared" si="30"/>
-        <v>-35572.611684658965</v>
+        <v>-24839.740069332489</v>
       </c>
     </row>
     <row r="10" spans="1:68" x14ac:dyDescent="0.25">
@@ -11085,259 +11088,259 @@
       </c>
       <c r="E22" s="14">
         <f t="shared" ref="E22:AF22" si="31">E9-E15+E20</f>
-        <v>-3887.5556666666657</v>
+        <v>-5241.1556666666656</v>
       </c>
       <c r="F22" s="14">
         <f t="shared" si="31"/>
-        <v>-902.35566666666682</v>
+        <v>-2224.7556666666669</v>
       </c>
       <c r="G22" s="14">
         <f t="shared" si="31"/>
-        <v>-895.15566666666655</v>
+        <v>-2298.3556666666668</v>
       </c>
       <c r="H22" s="14">
         <f t="shared" si="31"/>
-        <v>-739.15566666666655</v>
+        <v>-2203.1556666666665</v>
       </c>
       <c r="I22" s="14">
         <f t="shared" si="31"/>
-        <v>-671.95566666666673</v>
+        <v>-2216.7556666666669</v>
       </c>
       <c r="J22" s="14">
         <f t="shared" si="31"/>
-        <v>-651.95566666666673</v>
+        <v>-2232.7556666666669</v>
       </c>
       <c r="K22" s="14">
         <f t="shared" si="31"/>
-        <v>-495.95566666666673</v>
+        <v>-2157.5556666666671</v>
       </c>
       <c r="L22" s="14">
         <f t="shared" si="31"/>
-        <v>-475.95566666666673</v>
+        <v>-2193.5556666666671</v>
       </c>
       <c r="M22" s="14">
         <f t="shared" si="31"/>
-        <v>-307.15566666666655</v>
+        <v>-2080.7556666666669</v>
       </c>
       <c r="N22" s="14">
         <f t="shared" si="31"/>
-        <v>-198.35566666666682</v>
+        <v>-2056.7556666666669</v>
       </c>
       <c r="O22" s="14">
         <f t="shared" si="31"/>
-        <v>870.31811666666658</v>
+        <v>-1385.3156666666664</v>
       </c>
       <c r="P22" s="14">
         <f t="shared" si="31"/>
-        <v>1003.6221166666671</v>
+        <v>-1304.9956666666667</v>
       </c>
       <c r="Q22" s="14">
         <f t="shared" si="31"/>
-        <v>118.60211666666677</v>
+        <v>-1920.7556666666669</v>
       </c>
       <c r="R22" s="14">
         <f t="shared" si="31"/>
-        <v>234.12211666666627</v>
+        <v>-1830.3556666666668</v>
       </c>
       <c r="S22" s="14">
         <f t="shared" si="31"/>
-        <v>304.80211666666679</v>
+        <v>-1819.9556666666667</v>
       </c>
       <c r="T22" s="14">
         <f t="shared" si="31"/>
-        <v>504.68211666666645</v>
+        <v>-1680.7556666666669</v>
       </c>
       <c r="U22" s="14">
         <f t="shared" si="31"/>
-        <v>632.36211666666691</v>
+        <v>-1581.5556666666666</v>
       </c>
       <c r="V22" s="14">
         <f t="shared" si="31"/>
-        <v>687.84211666666658</v>
+        <v>-1533.5556666666666</v>
       </c>
       <c r="W22" s="14">
         <f t="shared" si="31"/>
-        <v>899.88211666666643</v>
+        <v>-1316.7556666666669</v>
       </c>
       <c r="X22" s="14">
         <f t="shared" si="31"/>
-        <v>1010.0821166666665</v>
+        <v>-1239.9556666666667</v>
       </c>
       <c r="Y22" s="14">
         <f t="shared" si="31"/>
-        <v>1234.2821166666665</v>
+        <v>-1023.1556666666665</v>
       </c>
       <c r="Z22" s="14">
         <f t="shared" si="31"/>
-        <v>1386.2821166666665</v>
+        <v>-828.75566666666691</v>
       </c>
       <c r="AA22" s="14">
         <f t="shared" si="31"/>
-        <v>3338.5701166666672</v>
+        <v>852.61011666666798</v>
       </c>
       <c r="AB22" s="14">
         <f t="shared" si="31"/>
-        <v>3600.6941166666675</v>
+        <v>1154.1021166666667</v>
       </c>
       <c r="AC22" s="14">
         <f t="shared" si="31"/>
-        <v>1963.8821166666664</v>
+        <v>-145.55566666666618</v>
       </c>
       <c r="AD22" s="14">
         <f t="shared" si="31"/>
-        <v>2182.7621166666668</v>
+        <v>130.76211666666694</v>
       </c>
       <c r="AE22" s="14">
         <f t="shared" si="31"/>
-        <v>2344.6421166666664</v>
+        <v>361.80211666666679</v>
       </c>
       <c r="AF22" s="14">
         <f t="shared" si="31"/>
-        <v>-2681.4544928333339</v>
+        <v>734.20211666666683</v>
       </c>
       <c r="AG22" s="14">
         <f t="shared" ref="AG22:AN22" si="32">AG9-AG15+AG20</f>
-        <v>2875.8821166666667</v>
+        <v>1068.6021166666667</v>
       </c>
       <c r="AH22" s="14">
         <f t="shared" si="32"/>
-        <v>3089.4421166666675</v>
+        <v>1384.0021166666668</v>
       </c>
       <c r="AI22" s="14">
         <f t="shared" si="32"/>
-        <v>3399.1335005466667</v>
+        <v>1813.4021166666669</v>
       </c>
       <c r="AJ22" s="14">
         <f t="shared" si="32"/>
-        <v>3620.8505763666672</v>
+        <v>2166.8021166666667</v>
       </c>
       <c r="AK22" s="14">
         <f t="shared" si="32"/>
-        <v>3968.5259544566666</v>
+        <v>2651.5575044066672</v>
       </c>
       <c r="AL22" s="14">
         <f t="shared" si="32"/>
-        <v>4286.3596348166675</v>
+        <v>3096.4355517366671</v>
       </c>
       <c r="AM22" s="14">
         <f t="shared" si="32"/>
-        <v>7711.2361022366676</v>
+        <v>6321.6681446966668</v>
       </c>
       <c r="AN22" s="14">
         <f t="shared" si="32"/>
-        <v>8210.9438415066688</v>
+        <v>6917.514798496667</v>
       </c>
       <c r="AO22" s="14">
         <f t="shared" ref="AO22:AR22" si="33">AO9-AO15+AO20</f>
-        <v>5284.0953374166675</v>
+        <v>4518.0510283466674</v>
       </c>
       <c r="AP22" s="14">
         <f t="shared" si="33"/>
-        <v>5637.4625899666671</v>
+        <v>5011.8483494566663</v>
       </c>
       <c r="AQ22" s="14">
         <f t="shared" si="33"/>
-        <v>5973.0860839466659</v>
+        <v>5440.3942770366684</v>
       </c>
       <c r="AR22" s="14">
         <f t="shared" si="33"/>
-        <v>-8213.8994743477851</v>
+        <v>5983.0488110866681</v>
       </c>
       <c r="AS22" s="14">
         <f t="shared" ref="AS22:BP22" si="34">AS9-AS15+AS20</f>
-        <v>6878.3197353566675</v>
+        <v>6460.4674668166681</v>
       </c>
       <c r="AT22" s="14">
         <f t="shared" si="34"/>
-        <v>7276.8988623666673</v>
+        <v>6900.0257594366667</v>
       </c>
       <c r="AU22" s="14">
         <f t="shared" si="34"/>
-        <v>7816.5276851766666</v>
+        <v>7407.3481737366674</v>
       </c>
       <c r="AV22" s="14">
         <f t="shared" si="34"/>
-        <v>8238.7751733666682</v>
+        <v>7819.8102249266667</v>
       </c>
       <c r="AW22" s="14">
         <f t="shared" si="34"/>
-        <v>8814.1858117266675</v>
+        <v>8338.0674282166656</v>
       </c>
       <c r="AX22" s="14">
         <f t="shared" si="34"/>
-        <v>9371.7440850466683</v>
+        <v>8753.104268396668</v>
       </c>
       <c r="AY22" s="14">
         <f t="shared" si="34"/>
-        <v>15538.930478116668</v>
+        <v>13005.520745466667</v>
       </c>
       <c r="AZ22" s="14">
         <f t="shared" si="34"/>
-        <v>16425.765475726668</v>
+        <v>13434.653344216671</v>
       </c>
       <c r="BA22" s="14">
         <f t="shared" si="34"/>
-        <v>11181.854047456667</v>
+        <v>9925.3015798566666</v>
       </c>
       <c r="BB22" s="14">
         <f t="shared" si="34"/>
-        <v>11825.896678096666</v>
+        <v>10267.145937176669</v>
       </c>
       <c r="BC22" s="14">
         <f t="shared" si="34"/>
-        <v>12479.353852436669</v>
+        <v>10552.114416176666</v>
       </c>
       <c r="BD22" s="14">
         <f t="shared" si="34"/>
-        <v>-18040.69541798886</v>
+        <v>-16669.599025753734</v>
       </c>
       <c r="BE22" s="14">
         <f t="shared" si="34"/>
-        <v>14028.707710536668</v>
+        <v>11219.688224006668</v>
       </c>
       <c r="BF22" s="14">
         <f t="shared" si="34"/>
-        <v>14768.757848666668</v>
+        <v>11431.278037626667</v>
       </c>
       <c r="BG22" s="14">
         <f t="shared" si="34"/>
-        <v>15673.913924026669</v>
+        <v>11737.960942506666</v>
       </c>
       <c r="BH22" s="14">
         <f t="shared" si="34"/>
-        <v>16504.000421406665</v>
+        <v>11922.392453856668</v>
       </c>
       <c r="BI22" s="14">
         <f t="shared" si="34"/>
-        <v>17483.930795176664</v>
+        <v>12182.901541256666</v>
       </c>
       <c r="BJ22" s="14">
         <f t="shared" si="34"/>
-        <v>18473.089530126665</v>
+        <v>12359.128204706669</v>
       </c>
       <c r="BK22" s="14">
         <f t="shared" si="34"/>
-        <v>29520.165595836672</v>
+        <v>16904.140444206667</v>
       </c>
       <c r="BL22" s="14">
         <f t="shared" si="34"/>
-        <v>31092.656446676669</v>
+        <v>17103.094259756668</v>
       </c>
       <c r="BM22" s="14">
         <f t="shared" si="34"/>
-        <v>21715.979052226667</v>
+        <v>12869.258136146667</v>
       </c>
       <c r="BN22" s="14">
         <f t="shared" si="34"/>
-        <v>22893.694382066671</v>
+        <v>13007.748558166666</v>
       </c>
       <c r="BO22" s="14">
         <f t="shared" si="34"/>
-        <v>24092.627405776668</v>
+        <v>13080.941041026668</v>
       </c>
       <c r="BP22" s="14">
         <f t="shared" si="34"/>
-        <v>-35572.611684658965</v>
+        <v>-24839.740069332489</v>
       </c>
     </row>
     <row r="23" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11427,265 +11430,265 @@
       </c>
       <c r="E24" s="13">
         <f t="shared" ref="E24:AF24" si="35">E4+E22</f>
-        <v>-16309.555666666665</v>
+        <v>-17663.155666666666</v>
       </c>
       <c r="F24" s="13">
         <f t="shared" si="35"/>
-        <v>-17211.911333333333</v>
+        <v>-19887.911333333333</v>
       </c>
       <c r="G24" s="13">
         <f t="shared" si="35"/>
-        <v>-18107.066999999999</v>
+        <v>-22186.267</v>
       </c>
       <c r="H24" s="13">
         <f t="shared" si="35"/>
-        <v>-18846.222666666665</v>
+        <v>-24389.422666666665</v>
       </c>
       <c r="I24" s="13">
         <f t="shared" si="35"/>
-        <v>-19518.17833333333</v>
+        <v>-26606.178333333333</v>
       </c>
       <c r="J24" s="13">
         <f t="shared" si="35"/>
-        <v>-20170.133999999998</v>
+        <v>-28838.934000000001</v>
       </c>
       <c r="K24" s="13">
         <f t="shared" si="35"/>
-        <v>-20666.089666666667</v>
+        <v>-30996.489666666668</v>
       </c>
       <c r="L24" s="13">
         <f t="shared" si="35"/>
-        <v>-21142.045333333335</v>
+        <v>-33190.045333333335</v>
       </c>
       <c r="M24" s="13">
         <f t="shared" si="35"/>
-        <v>-21449.201000000001</v>
+        <v>-35270.800999999999</v>
       </c>
       <c r="N24" s="13">
         <f t="shared" si="35"/>
-        <v>-21647.556666666667</v>
+        <v>-37327.556666666664</v>
       </c>
       <c r="O24" s="13">
         <f t="shared" si="35"/>
-        <v>-20777.238550000002</v>
+        <v>-38712.872333333333</v>
       </c>
       <c r="P24" s="13">
         <f t="shared" si="35"/>
-        <v>-19773.616433333336</v>
+        <v>-40017.868000000002</v>
       </c>
       <c r="Q24" s="13">
         <f t="shared" si="35"/>
-        <v>-19655.014316666671</v>
+        <v>-41938.623666666666</v>
       </c>
       <c r="R24" s="13">
         <f t="shared" si="35"/>
-        <v>-19420.892200000006</v>
+        <v>-43768.979333333336</v>
       </c>
       <c r="S24" s="13">
         <f t="shared" si="35"/>
-        <v>-19116.09008333334</v>
+        <v>-45588.935000000005</v>
       </c>
       <c r="T24" s="13">
         <f t="shared" si="35"/>
-        <v>-18611.407966666673</v>
+        <v>-47269.690666666669</v>
       </c>
       <c r="U24" s="13">
         <f t="shared" si="35"/>
-        <v>-17979.045850000006</v>
+        <v>-48851.246333333336</v>
       </c>
       <c r="V24" s="13">
         <f t="shared" si="35"/>
-        <v>-17291.203733333339</v>
+        <v>-50384.802000000003</v>
       </c>
       <c r="W24" s="13">
         <f t="shared" si="35"/>
-        <v>-16391.321616666672</v>
+        <v>-51701.557666666668</v>
       </c>
       <c r="X24" s="13">
         <f t="shared" si="35"/>
-        <v>-15381.239500000005</v>
+        <v>-52941.513333333336</v>
       </c>
       <c r="Y24" s="13">
         <f t="shared" si="35"/>
-        <v>-14146.957383333338</v>
+        <v>-53964.669000000002</v>
       </c>
       <c r="Z24" s="13">
         <f t="shared" si="35"/>
-        <v>-12760.675266666671</v>
+        <v>-54793.424666666666</v>
       </c>
       <c r="AA24" s="13">
         <f t="shared" si="35"/>
-        <v>-9422.1051500000031</v>
+        <v>-53940.814549999996</v>
       </c>
       <c r="AB24" s="13">
         <f t="shared" si="35"/>
-        <v>-5821.4110333333356</v>
+        <v>-52786.712433333327</v>
       </c>
       <c r="AC24" s="13">
         <f t="shared" si="35"/>
-        <v>-3857.5289166666689</v>
+        <v>-52932.268099999994</v>
       </c>
       <c r="AD24" s="13">
         <f t="shared" si="35"/>
-        <v>-1674.7668000000021</v>
+        <v>-52801.505983333329</v>
       </c>
       <c r="AE24" s="13">
         <f t="shared" si="35"/>
-        <v>669.87531666666428</v>
+        <v>-52439.703866666663</v>
       </c>
       <c r="AF24" s="13">
         <f t="shared" si="35"/>
-        <v>-2011.5791761666696</v>
+        <v>-51705.501749999996</v>
       </c>
       <c r="AG24" s="13">
         <f t="shared" ref="AG24:AN24" si="36">AG4+AG22</f>
-        <v>864.30294049999702</v>
+        <v>-50636.899633333327</v>
       </c>
       <c r="AH24" s="13">
         <f t="shared" si="36"/>
-        <v>3953.7450571666645</v>
+        <v>-49252.897516666657</v>
       </c>
       <c r="AI24" s="13">
         <f t="shared" si="36"/>
-        <v>7352.8785577133312</v>
+        <v>-47439.495399999993</v>
       </c>
       <c r="AJ24" s="13">
         <f t="shared" si="36"/>
-        <v>10973.729134079998</v>
+        <v>-45272.693283333327</v>
       </c>
       <c r="AK24" s="13">
         <f t="shared" si="36"/>
-        <v>14942.255088536665</v>
+        <v>-42621.135778926662</v>
       </c>
       <c r="AL24" s="13">
         <f t="shared" si="36"/>
-        <v>19228.614723353334</v>
+        <v>-39524.700227189998</v>
       </c>
       <c r="AM24" s="13">
         <f t="shared" si="36"/>
-        <v>26939.850825590001</v>
+        <v>-33203.03208249333</v>
       </c>
       <c r="AN24" s="13">
         <f t="shared" si="36"/>
-        <v>35150.79466709667</v>
+        <v>-26285.517283996662</v>
       </c>
       <c r="AO24" s="13">
         <f t="shared" ref="AO24:AR24" si="37">AO4+AO22</f>
-        <v>40434.890004513334</v>
+        <v>-21767.466255649993</v>
       </c>
       <c r="AP24" s="13">
         <f t="shared" si="37"/>
-        <v>46072.352594479999</v>
+        <v>-16755.617906193329</v>
       </c>
       <c r="AQ24" s="13">
         <f t="shared" si="37"/>
-        <v>52045.438678426668</v>
+        <v>-11315.223629156661</v>
       </c>
       <c r="AR24" s="18">
         <f t="shared" si="37"/>
-        <v>43831.539204078887</v>
+        <v>-5332.1748180699924</v>
       </c>
       <c r="AS24" s="18">
         <f t="shared" ref="AS24:BP24" si="38">AS4+AS22</f>
-        <v>50709.858939435551</v>
+        <v>1128.2926487466757</v>
       </c>
       <c r="AT24" s="18">
         <f t="shared" si="38"/>
-        <v>57986.757801802218</v>
+        <v>8028.3184081833424</v>
       </c>
       <c r="AU24" s="18">
         <f t="shared" si="38"/>
-        <v>65803.285486978886</v>
+        <v>15435.66658192001</v>
       </c>
       <c r="AV24" s="18">
         <f t="shared" si="38"/>
-        <v>74042.060660345553</v>
+        <v>23255.476806846676</v>
       </c>
       <c r="AW24" s="18">
         <f t="shared" si="38"/>
-        <v>82856.24647207222</v>
+        <v>31593.544235063342</v>
       </c>
       <c r="AX24" s="18">
         <f t="shared" si="38"/>
-        <v>92227.990557118886</v>
+        <v>40346.648503460012</v>
       </c>
       <c r="AY24" s="18">
         <f t="shared" si="38"/>
-        <v>107766.92103523556</v>
+        <v>53352.169248926679</v>
       </c>
       <c r="AZ24" s="18">
         <f t="shared" si="38"/>
-        <v>124192.68651096223</v>
+        <v>66786.822593143355</v>
       </c>
       <c r="BA24" s="18">
         <f t="shared" si="38"/>
-        <v>135374.5405584189</v>
+        <v>76712.124173000018</v>
       </c>
       <c r="BB24" s="18">
         <f t="shared" si="38"/>
-        <v>147200.43723651557</v>
+        <v>86979.270110176687</v>
       </c>
       <c r="BC24" s="18">
         <f t="shared" si="38"/>
-        <v>159679.79108895225</v>
+        <v>97531.384526353359</v>
       </c>
       <c r="BD24" s="18">
         <f t="shared" si="38"/>
-        <v>141639.09567096338</v>
+        <v>80861.785500599624</v>
       </c>
       <c r="BE24" s="18">
         <f t="shared" si="38"/>
-        <v>155667.80338150004</v>
+        <v>92081.473724606287</v>
       </c>
       <c r="BF24" s="18">
         <f t="shared" si="38"/>
-        <v>170436.5612301667</v>
+        <v>103512.75176223295</v>
       </c>
       <c r="BG24" s="18">
         <f t="shared" si="38"/>
-        <v>186110.47515419338</v>
+        <v>115250.71270473962</v>
       </c>
       <c r="BH24" s="18">
         <f t="shared" si="38"/>
-        <v>202614.47557560005</v>
+        <v>127173.10515859629</v>
       </c>
       <c r="BI24" s="18">
         <f t="shared" si="38"/>
-        <v>220098.40637077671</v>
+        <v>139356.00669985294</v>
       </c>
       <c r="BJ24" s="18">
         <f t="shared" si="38"/>
-        <v>238571.49590090336</v>
+        <v>151715.13490455961</v>
       </c>
       <c r="BK24" s="18">
         <f t="shared" si="38"/>
-        <v>268091.66149674001</v>
+        <v>168619.27534876627</v>
       </c>
       <c r="BL24" s="18">
         <f t="shared" si="38"/>
-        <v>299184.31794341665</v>
+        <v>185722.36960852295</v>
       </c>
       <c r="BM24" s="18">
         <f t="shared" si="38"/>
-        <v>320900.29699564329</v>
+        <v>198591.62774466962</v>
       </c>
       <c r="BN24" s="18">
         <f t="shared" si="38"/>
-        <v>343793.99137770996</v>
+        <v>211599.37630283629</v>
       </c>
       <c r="BO24" s="18">
         <f t="shared" si="38"/>
-        <v>367886.6187834866</v>
+        <v>224680.31734386296</v>
       </c>
       <c r="BP24" s="18">
         <f t="shared" si="38"/>
-        <v>332314.00709882763</v>
+        <v>199840.57727453049</v>
       </c>
     </row>
     <row r="27" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B27" s="15">
         <f>MIN(24:24)</f>
-        <v>-21647.556666666667</v>
+        <v>-54793.424666666666</v>
       </c>
     </row>
     <row r="29" spans="1:68" x14ac:dyDescent="0.25">
@@ -11697,7 +11700,7 @@
     <row r="31" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B31" s="15">
         <f>MATCH(0,B24:BP24,1)</f>
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -11709,10 +11712,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M33"/>
+  <dimension ref="A2:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11745,13 +11748,13 @@
       </c>
       <c r="I4" s="2">
         <f>MIN(CFS!24:24)</f>
-        <v>-21647.556666666667</v>
+        <v>-54793.424666666666</v>
       </c>
       <c r="L4" t="s">
         <v>82</v>
       </c>
       <c r="M4">
-        <v>1200</v>
+        <v>480</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -11763,13 +11766,13 @@
       </c>
       <c r="I5" s="2">
         <f>MATCH(0,CFS!B24:'CFS'!BP24,1)</f>
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="L5" t="s">
         <v>83</v>
       </c>
       <c r="M5">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -11778,7 +11781,7 @@
       </c>
       <c r="I6" s="2">
         <f>SUM(IS!39:39)</f>
-        <v>332576.00709882763</v>
+        <v>200102.57727453049</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -11787,7 +11790,7 @@
       </c>
       <c r="I7" s="2">
         <f>MATCH(0,CFS!B6:'CFS'!BP6,1)</f>
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -11831,13 +11834,13 @@
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="38">
-        <v>-83576.8406666667</v>
+        <v>-84381.96066666668</v>
       </c>
       <c r="D15" s="38">
-        <v>-71327.852666666673</v>
+        <v>-66240.581333333335</v>
       </c>
       <c r="E15" s="39">
-        <v>-379938.25710133335</v>
+        <v>-69473.664666666678</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -11849,10 +11852,10 @@
         <v>84</v>
       </c>
       <c r="D16" s="38">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E16" s="39">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -11861,13 +11864,13 @@
       </c>
       <c r="B17" s="32"/>
       <c r="C17" s="38">
-        <v>-60706.4385666667</v>
+        <v>-68904.486133333354</v>
       </c>
       <c r="D17" s="38">
-        <v>216786.98274825368</v>
+        <v>100555.12308971639</v>
       </c>
       <c r="E17" s="39">
-        <v>3352669.4514637608</v>
+        <v>335101.80545241013</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -11879,10 +11882,10 @@
         <v>49</v>
       </c>
       <c r="D18" s="38">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E18" s="39">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -11900,13 +11903,13 @@
       </c>
       <c r="B20" s="33"/>
       <c r="C20" s="40">
-        <v>-55130.172666666665</v>
+        <v>-55469.932666666668</v>
       </c>
       <c r="D20" s="40">
-        <v>-53395.264666666662</v>
+        <v>-49993.024666666672</v>
       </c>
       <c r="E20" s="41">
-        <v>-391479.5733330666</v>
+        <v>-58059.682000000001</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -11915,14 +11918,14 @@
         <v>Time For return</v>
       </c>
       <c r="B21" s="33"/>
-      <c r="C21" s="40">
-        <v>61</v>
+      <c r="C21" s="40" t="s">
+        <v>84</v>
       </c>
       <c r="D21" s="40">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21" s="41">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -11932,13 +11935,13 @@
       </c>
       <c r="B22" s="33"/>
       <c r="C22" s="40">
-        <v>25175.068085033985</v>
+        <v>-195.92870616666278</v>
       </c>
       <c r="D22" s="40">
-        <v>982167.16948065569</v>
+        <v>190405.61287238414</v>
       </c>
       <c r="E22" s="41">
-        <v>3818601.7390647549</v>
+        <v>384509.73174441484</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -11951,10 +11954,10 @@
         <v>37</v>
       </c>
       <c r="D23" s="40">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E23" s="41">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -11972,13 +11975,13 @@
       </c>
       <c r="B25" s="34"/>
       <c r="C25" s="42">
-        <v>-31079.593333333331</v>
+        <v>-30499.753333333334</v>
       </c>
       <c r="D25" s="42">
-        <v>-39146.153333333328</v>
+        <v>-33021.808883333339</v>
       </c>
       <c r="E25" s="43">
-        <v>-353241.45156146667</v>
+        <v>-44616.165550000005</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -11988,13 +11991,13 @@
       </c>
       <c r="B26" s="34"/>
       <c r="C26" s="42">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D26" s="42">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E26" s="43">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -12004,13 +12007,13 @@
       </c>
       <c r="B27" s="34"/>
       <c r="C27" s="42">
-        <v>179353.96320638488</v>
+        <v>96361.936405315311</v>
       </c>
       <c r="D27" s="42">
-        <v>1925023.9277851316</v>
+        <v>295174.05595322233</v>
       </c>
       <c r="E27" s="43">
-        <v>4296733.2396196388</v>
+        <v>442498.67150838353</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -12023,10 +12026,10 @@
         <v>23</v>
       </c>
       <c r="D28" s="42">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E28" s="43">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -12044,13 +12047,13 @@
       </c>
       <c r="B30" s="45"/>
       <c r="C30" s="47">
-        <v>-21647.556666666667</v>
+        <v>-20636.35666666667</v>
       </c>
       <c r="D30" s="47">
-        <v>-29397.956666666669</v>
+        <v>-25817.156666666669</v>
       </c>
       <c r="E30" s="48">
-        <v>-323804.07978426665</v>
+        <v>-39820.356666666674</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -12060,13 +12063,13 @@
       </c>
       <c r="B31" s="45"/>
       <c r="C31" s="47">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D31" s="47">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E31" s="48">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -12076,13 +12079,13 @@
       </c>
       <c r="B32" s="45"/>
       <c r="C32" s="47">
-        <v>332576.00709882763</v>
+        <v>169790.40412966386</v>
       </c>
       <c r="D32" s="47">
-        <v>2487465.0273798066</v>
+        <v>350978.53683005297</v>
       </c>
       <c r="E32" s="48">
-        <v>4652088.7654466545</v>
+        <v>480215.53844563355</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -12095,13 +12098,325 @@
         <v>13</v>
       </c>
       <c r="D33" s="47">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E33" s="48">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="D38" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="31"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="32">
+        <f>0.125*1600</f>
+        <v>200</v>
+      </c>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="30"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="30"/>
+      <c r="C42" s="38">
+        <v>-83452.040666666711</v>
+      </c>
+      <c r="D42" s="38">
+        <v>-70409.292666666675</v>
+      </c>
+      <c r="E42" s="39">
+        <v>-160524.23184686661</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="32"/>
+      <c r="C43" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="38">
+        <v>52</v>
+      </c>
+      <c r="E43" s="39">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="32"/>
+      <c r="C44" s="38">
+        <v>-60840.570566666698</v>
+      </c>
+      <c r="D44" s="38">
+        <v>271672.31217010744</v>
+      </c>
+      <c r="E44" s="39">
+        <v>2823992.9653799422</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="32"/>
+      <c r="C45" s="38">
+        <v>49</v>
+      </c>
+      <c r="D45" s="38">
+        <v>37</v>
+      </c>
+      <c r="E45" s="39">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="33">
+        <v>400</v>
+      </c>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="41"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f>A42</f>
+        <v>Initial Investment</v>
+      </c>
+      <c r="B47" s="33"/>
+      <c r="C47" s="40">
+        <v>-55102.892666666674</v>
+      </c>
+      <c r="D47" s="40">
+        <v>-53001.664666666657</v>
+      </c>
+      <c r="E47" s="41">
+        <v>-139879.43133687004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f>A43</f>
+        <v>Time For return</v>
+      </c>
+      <c r="B48" s="33"/>
+      <c r="C48" s="40">
+        <v>61</v>
+      </c>
+      <c r="D48" s="40">
+        <v>44</v>
+      </c>
+      <c r="E48" s="41">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f>A44</f>
+        <v>Profit 5 Years</v>
+      </c>
+      <c r="B49" s="33"/>
+      <c r="C49" s="40">
+        <v>23369.735398461275</v>
+      </c>
+      <c r="D49" s="40">
+        <v>657445.37633010978</v>
+      </c>
+      <c r="E49" s="41">
+        <v>3324575.8618217814</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f>A45</f>
+        <v>Positive Earning</v>
+      </c>
+      <c r="B50" s="33"/>
+      <c r="C50" s="40">
+        <v>37</v>
+      </c>
+      <c r="D50" s="40">
+        <v>30</v>
+      </c>
+      <c r="E50" s="41">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="34">
+        <v>800</v>
+      </c>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="43"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f>A47</f>
+        <v>Initial Investment</v>
+      </c>
+      <c r="B52" s="34"/>
+      <c r="C52" s="42">
+        <v>-30970.793333333328</v>
+      </c>
+      <c r="D52" s="42">
+        <v>-38074.67766666667</v>
+      </c>
+      <c r="E52" s="43">
+        <v>-140415.23144526663</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f>A48</f>
+        <v>Time For return</v>
+      </c>
+      <c r="B53" s="34"/>
+      <c r="C53" s="42">
+        <v>41</v>
+      </c>
+      <c r="D53" s="42">
+        <v>35</v>
+      </c>
+      <c r="E53" s="43">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f>A49</f>
+        <v>Profit 5 Years</v>
+      </c>
+      <c r="B54" s="34"/>
+      <c r="C54" s="42">
+        <v>170123.66887223558</v>
+      </c>
+      <c r="D54" s="42">
+        <v>1216242.6002662594</v>
+      </c>
+      <c r="E54" s="43">
+        <v>3844907.3767567119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f>A50</f>
+        <v>Positive Earning</v>
+      </c>
+      <c r="B55" s="34"/>
+      <c r="C55" s="42">
+        <v>23</v>
+      </c>
+      <c r="D55" s="42">
+        <v>22</v>
+      </c>
+      <c r="E55" s="43">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="45">
+        <v>1200</v>
+      </c>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="44"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <f>A52</f>
+        <v>Initial Investment</v>
+      </c>
+      <c r="B57" s="45"/>
+      <c r="C57" s="47">
+        <v>-21529.156666666669</v>
+      </c>
+      <c r="D57" s="47">
+        <v>-29017.156666666669</v>
+      </c>
+      <c r="E57" s="48">
+        <v>-135800.43276786665</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
+        <f>A53</f>
+        <v>Time For return</v>
+      </c>
+      <c r="B58" s="45"/>
+      <c r="C58" s="47">
+        <v>31</v>
+      </c>
+      <c r="D58" s="47">
         <v>28</v>
+      </c>
+      <c r="E58" s="48">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <f>A54</f>
+        <v>Profit 5 Years</v>
+      </c>
+      <c r="B59" s="45"/>
+      <c r="C59" s="47">
+        <v>311637.27690790762</v>
+      </c>
+      <c r="D59" s="47">
+        <v>1624174.4289720193</v>
+      </c>
+      <c r="E59" s="48">
+        <v>4130583.2446672739</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
+        <f>A55</f>
+        <v>Positive Earning</v>
+      </c>
+      <c r="B60" s="45"/>
+      <c r="C60" s="47">
+        <v>13</v>
+      </c>
+      <c r="D60" s="47">
+        <v>18</v>
+      </c>
+      <c r="E60" s="48">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>